--- a/Juan Alduey (Time Log and Petty Cash).xlsx
+++ b/Juan Alduey (Time Log and Petty Cash).xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF6F454-6BA7-C046-87E8-B9B82DE44C66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FBAB5D3C-4AD0-C742-8B56-9B7721AD0205}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="460" windowWidth="27640" windowHeight="15840" activeTab="1" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15840" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLog" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Refactoring code, submitting time log, determining git workflow</t>
   </si>
@@ -102,6 +102,9 @@
     <t>Date</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>Refactoring code, updating cecilia's spreadsheet, 3 month average printout of numbers</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +115,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -126,6 +129,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -177,25 +186,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="18" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -207,6 +205,12 @@
     <xf numFmtId="166" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -245,6 +249,7 @@
       <sheetName val="Expenses"/>
       <sheetName val="Categories and Stats"/>
       <sheetName val="DebitCredit Card Bank Acct Data"/>
+      <sheetName val="3 Month Average"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -338,24 +343,24 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>41660</v>
+            <v>41659</v>
           </cell>
           <cell r="B9" t="str">
-            <v>Lucille Metheny</v>
+            <v>Social Security</v>
           </cell>
           <cell r="C9">
-            <v>61.61</v>
+            <v>940</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>41664</v>
+            <v>41660</v>
           </cell>
           <cell r="B10" t="str">
-            <v>The New School</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C10">
-            <v>1542.07</v>
+            <v>61.61</v>
           </cell>
         </row>
         <row r="11">
@@ -363,98 +368,98 @@
             <v>41664</v>
           </cell>
           <cell r="B11" t="str">
-            <v>Lucille Metheny</v>
+            <v>The New School</v>
           </cell>
           <cell r="C11">
-            <v>28.06</v>
+            <v>1542.07</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>41665</v>
+            <v>41664</v>
           </cell>
           <cell r="B12" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C12">
-            <v>152.41999999999999</v>
+            <v>28.06</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>41675</v>
+            <v>41664</v>
           </cell>
           <cell r="B13" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C13">
-            <v>1000</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>41677</v>
+            <v>41665</v>
           </cell>
           <cell r="B14" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C14">
-            <v>93.51</v>
+            <v>152.41999999999999</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>41679</v>
+            <v>41675</v>
           </cell>
           <cell r="B15" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C15">
-            <v>19.23</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>41679</v>
+            <v>41677</v>
           </cell>
           <cell r="B16" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C16">
-            <v>181.82</v>
+            <v>93.51</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>41680</v>
+            <v>41679</v>
           </cell>
           <cell r="B17" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C17">
-            <v>77.52</v>
+            <v>19.23</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>41681</v>
+            <v>41679</v>
           </cell>
           <cell r="B18" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C18">
-            <v>48.38</v>
+            <v>181.82</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>41681</v>
+            <v>41680</v>
           </cell>
           <cell r="B19" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C19">
-            <v>17.29</v>
+            <v>77.52</v>
           </cell>
         </row>
         <row r="20">
@@ -465,7 +470,7 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C20">
-            <v>18.5</v>
+            <v>48.38</v>
           </cell>
         </row>
         <row r="21">
@@ -476,7 +481,7 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C21">
-            <v>19.899999999999999</v>
+            <v>17.29</v>
           </cell>
         </row>
         <row r="22">
@@ -487,73 +492,73 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C22">
-            <v>28.38</v>
+            <v>18.5</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>41682</v>
+            <v>41681</v>
           </cell>
           <cell r="B23" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C23">
-            <v>19.059999999999999</v>
+            <v>19.899999999999999</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>41683</v>
+            <v>41681</v>
           </cell>
           <cell r="B24" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C24">
-            <v>61.7</v>
+            <v>28.38</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>41683</v>
+            <v>41682</v>
           </cell>
           <cell r="B25" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C25">
-            <v>96.57</v>
+            <v>19.059999999999999</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>41690</v>
+            <v>41683</v>
           </cell>
           <cell r="B26" t="str">
-            <v>Social Security</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C26">
-            <v>928</v>
+            <v>61.7</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>41659</v>
+            <v>41683</v>
           </cell>
           <cell r="B27" t="str">
-            <v>Social Security</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C27">
-            <v>940</v>
+            <v>96.57</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>41692</v>
+            <v>41690</v>
           </cell>
           <cell r="B28" t="str">
-            <v>Bank Interest</v>
+            <v>Social Security</v>
           </cell>
           <cell r="C28">
-            <v>0.02</v>
+            <v>928</v>
           </cell>
         </row>
         <row r="29">
@@ -561,43 +566,43 @@
             <v>41692</v>
           </cell>
           <cell r="B29" t="str">
-            <v>The New School</v>
+            <v>Bank Interest</v>
           </cell>
           <cell r="C29">
-            <v>2293.6799999999998</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>41695</v>
+            <v>41692</v>
           </cell>
           <cell r="B30" t="str">
-            <v>Lucille Metheny</v>
+            <v>The New School</v>
           </cell>
           <cell r="C30">
-            <v>26.94</v>
+            <v>2293.6799999999998</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>41701</v>
+            <v>41695</v>
           </cell>
           <cell r="B31" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C31">
-            <v>12.36</v>
+            <v>26.94</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>41701</v>
+            <v>41698</v>
           </cell>
           <cell r="B32" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C32">
-            <v>12.96</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="33">
@@ -624,24 +629,24 @@
         </row>
         <row r="35">
           <cell r="A35">
-            <v>41702</v>
+            <v>41701</v>
           </cell>
           <cell r="B35" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C35">
-            <v>77.31</v>
+            <v>12.36</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>41702</v>
+            <v>41701</v>
           </cell>
           <cell r="B36" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C36">
-            <v>79.19</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="37">
@@ -652,29 +657,29 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C37">
-            <v>6.99</v>
+            <v>77.31</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>41703</v>
+            <v>41702</v>
           </cell>
           <cell r="B38" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C38">
-            <v>102.5</v>
+            <v>79.19</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>41698</v>
+            <v>41702</v>
           </cell>
           <cell r="B39" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C39">
-            <v>1000</v>
+            <v>6.99</v>
           </cell>
         </row>
         <row r="40">
@@ -685,106 +690,106 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C40">
-            <v>1000</v>
+            <v>102.5</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>41707</v>
+            <v>41703</v>
           </cell>
           <cell r="B41" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C41">
-            <v>28.29</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>41711</v>
+            <v>41706</v>
           </cell>
           <cell r="B42" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C42">
-            <v>169.46</v>
+            <v>2252</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>41714</v>
+            <v>41706</v>
           </cell>
           <cell r="B43" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C43">
-            <v>133.22</v>
+            <v>2252</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>41718</v>
+            <v>41707</v>
           </cell>
           <cell r="B44" t="str">
-            <v>Social Security</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C44">
-            <v>928</v>
+            <v>28.29</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>41721</v>
+            <v>41711</v>
           </cell>
           <cell r="B45" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C45">
-            <v>129.56</v>
+            <v>169.46</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>41724</v>
+            <v>41713</v>
           </cell>
           <cell r="B46" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C46">
-            <v>62.49</v>
+            <v>21.65</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>41725</v>
+            <v>41714</v>
           </cell>
           <cell r="B47" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C47">
-            <v>190.67</v>
+            <v>133.22</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>41727</v>
+            <v>41718</v>
           </cell>
           <cell r="B48" t="str">
-            <v>CHASE Amazon v5475</v>
+            <v>Social Security</v>
           </cell>
           <cell r="C48">
-            <v>500</v>
+            <v>928</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>41729</v>
+            <v>41721</v>
           </cell>
           <cell r="B49" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C49">
-            <v>1000</v>
+            <v>129.56</v>
           </cell>
         </row>
         <row r="50">
@@ -800,62 +805,62 @@
         </row>
         <row r="51">
           <cell r="A51">
-            <v>41713</v>
+            <v>41723</v>
           </cell>
           <cell r="B51" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C51">
-            <v>21.65</v>
+            <v>9.35</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>41723</v>
+            <v>41724</v>
           </cell>
           <cell r="B52" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C52">
-            <v>9.35</v>
+            <v>62.49</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>41706</v>
+            <v>41725</v>
           </cell>
           <cell r="B53" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C53">
-            <v>2252</v>
+            <v>190.67</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>41730</v>
+            <v>41726</v>
           </cell>
           <cell r="B54" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C54">
-            <v>139.5</v>
+            <v>346.22</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>41730</v>
+            <v>41727</v>
           </cell>
           <cell r="B55" t="str">
-            <v>Lucille Metheny</v>
+            <v>CHASE Amazon v5475</v>
           </cell>
           <cell r="C55">
-            <v>153.13</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>41731</v>
+            <v>41729</v>
           </cell>
           <cell r="B56" t="str">
             <v>Lucille Metheny</v>
@@ -866,35 +871,35 @@
         </row>
         <row r="57">
           <cell r="A57">
-            <v>41664</v>
+            <v>41730</v>
           </cell>
           <cell r="B57" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C57">
-            <v>400</v>
+            <v>139.5</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>41706</v>
+            <v>41730</v>
           </cell>
           <cell r="B58" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C58">
-            <v>2252</v>
+            <v>153.13</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>41726</v>
+            <v>41731</v>
           </cell>
           <cell r="B59" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C59">
-            <v>346.22</v>
+            <v>1000</v>
           </cell>
         </row>
       </sheetData>
@@ -912,10 +917,10 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>41640</v>
+            <v>41639</v>
           </cell>
           <cell r="B2" t="str">
-            <v>Google Cloud Service</v>
+            <v>Go Daddy</v>
           </cell>
           <cell r="C2">
             <v>15</v>
@@ -926,10 +931,10 @@
             <v>41640</v>
           </cell>
           <cell r="B3" t="str">
-            <v>Lucille Metheny</v>
+            <v>Google Cloud Service</v>
           </cell>
           <cell r="C3">
-            <v>74.489999999999995</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="4">
@@ -937,21 +942,21 @@
             <v>41640</v>
           </cell>
           <cell r="B4" t="str">
-            <v>Apartment Insurance (State Farm)</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C4">
-            <v>25.25</v>
+            <v>74.489999999999995</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>41641</v>
+            <v>41640</v>
           </cell>
           <cell r="B5" t="str">
-            <v>JetBlue MC 3965</v>
+            <v>Apartment Insurance (State Farm)</v>
           </cell>
           <cell r="C5">
-            <v>50</v>
+            <v>25.25</v>
           </cell>
         </row>
         <row r="6">
@@ -959,10 +964,10 @@
             <v>41641</v>
           </cell>
           <cell r="B6" t="str">
-            <v>Wine</v>
+            <v>JetBlue MC 3965</v>
           </cell>
           <cell r="C6">
-            <v>14.55</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="7">
@@ -970,10 +975,10 @@
             <v>41641</v>
           </cell>
           <cell r="B7" t="str">
-            <v>Lucille Metheny</v>
+            <v>Wine</v>
           </cell>
           <cell r="C7">
-            <v>43.09</v>
+            <v>14.55</v>
           </cell>
         </row>
         <row r="8">
@@ -981,32 +986,32 @@
             <v>41641</v>
           </cell>
           <cell r="B8" t="str">
-            <v>Medical</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C8">
-            <v>111.12</v>
+            <v>43.09</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>41643</v>
+            <v>41641</v>
           </cell>
           <cell r="B9" t="str">
-            <v>Lucille Metheny</v>
+            <v>Medical</v>
           </cell>
           <cell r="C9">
-            <v>45.13</v>
+            <v>111.12</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>41646</v>
+            <v>41643</v>
           </cell>
           <cell r="B10" t="str">
-            <v>Grocery Store</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C10">
-            <v>5.16</v>
+            <v>45.13</v>
           </cell>
         </row>
         <row r="11">
@@ -1014,21 +1019,21 @@
             <v>41646</v>
           </cell>
           <cell r="B11" t="str">
-            <v>Rent</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C11">
-            <v>1000</v>
+            <v>5.16</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>41647</v>
+            <v>41646</v>
           </cell>
           <cell r="B12" t="str">
-            <v>Life Insurance (AARP)</v>
+            <v>Rent</v>
           </cell>
           <cell r="C12">
-            <v>26.38</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="13">
@@ -1036,10 +1041,10 @@
             <v>41647</v>
           </cell>
           <cell r="B13" t="str">
-            <v>Lucille Metheny</v>
+            <v>Life Insurance (AARP)</v>
           </cell>
           <cell r="C13">
-            <v>8.2899999999999991</v>
+            <v>26.38</v>
           </cell>
         </row>
         <row r="14">
@@ -1050,18 +1055,18 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C14">
-            <v>25</v>
+            <v>8.2899999999999991</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>41648</v>
+            <v>41647</v>
           </cell>
           <cell r="B15" t="str">
-            <v>Entertainment Subscription</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C15">
-            <v>4.99</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="16">
@@ -1069,10 +1074,10 @@
             <v>41648</v>
           </cell>
           <cell r="B16" t="str">
-            <v>Taxi</v>
+            <v>Entertainment Subscription</v>
           </cell>
           <cell r="C16">
-            <v>26.47</v>
+            <v>4.99</v>
           </cell>
         </row>
         <row r="17">
@@ -1083,18 +1088,18 @@
             <v>Taxi</v>
           </cell>
           <cell r="C17">
-            <v>5</v>
+            <v>26.47</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>41650</v>
+            <v>41648</v>
           </cell>
           <cell r="B18" t="str">
-            <v>Chase Amazon v5475</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C18">
-            <v>82</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="19">
@@ -1102,10 +1107,10 @@
             <v>41650</v>
           </cell>
           <cell r="B19" t="str">
-            <v>Food Out</v>
+            <v>Chase Amazon v5475</v>
           </cell>
           <cell r="C19">
-            <v>5</v>
+            <v>82</v>
           </cell>
         </row>
         <row r="20">
@@ -1113,21 +1118,21 @@
             <v>41650</v>
           </cell>
           <cell r="B20" t="str">
-            <v>Parson's</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C20">
-            <v>18</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>41651</v>
+            <v>41650</v>
           </cell>
           <cell r="B21" t="str">
-            <v>Food Out</v>
+            <v>Parson's</v>
           </cell>
           <cell r="C21">
-            <v>31.4</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="22">
@@ -1135,32 +1140,32 @@
             <v>41651</v>
           </cell>
           <cell r="B22" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C22">
-            <v>85.64</v>
+            <v>31.4</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>41652</v>
+            <v>41651</v>
           </cell>
           <cell r="B23" t="str">
-            <v>Food Out</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C23">
-            <v>3.75</v>
+            <v>85.64</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>41654</v>
+            <v>41652</v>
           </cell>
           <cell r="B24" t="str">
-            <v>Body Care</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C24">
-            <v>86.62</v>
+            <v>3.75</v>
           </cell>
         </row>
         <row r="25">
@@ -1168,10 +1173,10 @@
             <v>41654</v>
           </cell>
           <cell r="B25" t="str">
-            <v>Chase Amazon v5475</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C25">
-            <v>82</v>
+            <v>86.62</v>
           </cell>
         </row>
         <row r="26">
@@ -1179,10 +1184,10 @@
             <v>41654</v>
           </cell>
           <cell r="B26" t="str">
-            <v>First Premier</v>
+            <v>Chase Amazon v5475</v>
           </cell>
           <cell r="C26">
-            <v>70</v>
+            <v>82</v>
           </cell>
         </row>
         <row r="27">
@@ -1190,10 +1195,10 @@
             <v>41654</v>
           </cell>
           <cell r="B27" t="str">
-            <v>First Premier #3141</v>
+            <v>First Premier</v>
           </cell>
           <cell r="C27">
-            <v>45</v>
+            <v>70</v>
           </cell>
         </row>
         <row r="28">
@@ -1201,10 +1206,10 @@
             <v>41654</v>
           </cell>
           <cell r="B28" t="str">
-            <v>Food Out</v>
+            <v>First Premier #3141</v>
           </cell>
           <cell r="C28">
-            <v>13.88</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="29">
@@ -1215,7 +1220,7 @@
             <v>Food Out</v>
           </cell>
           <cell r="C29">
-            <v>29.4</v>
+            <v>13.88</v>
           </cell>
         </row>
         <row r="30">
@@ -1226,7 +1231,7 @@
             <v>Food Out</v>
           </cell>
           <cell r="C30">
-            <v>3.75</v>
+            <v>29.4</v>
           </cell>
         </row>
         <row r="31">
@@ -1237,7 +1242,7 @@
             <v>Food Out</v>
           </cell>
           <cell r="C31">
-            <v>26.87</v>
+            <v>3.75</v>
           </cell>
         </row>
         <row r="32">
@@ -1245,10 +1250,10 @@
             <v>41654</v>
           </cell>
           <cell r="B32" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C32">
-            <v>11.9</v>
+            <v>26.87</v>
           </cell>
         </row>
         <row r="33">
@@ -1259,7 +1264,7 @@
             <v>Grocery Store</v>
           </cell>
           <cell r="C33">
-            <v>85.64</v>
+            <v>11.9</v>
           </cell>
         </row>
         <row r="34">
@@ -1270,7 +1275,7 @@
             <v>Grocery Store</v>
           </cell>
           <cell r="C34">
-            <v>115.61</v>
+            <v>85.64</v>
           </cell>
         </row>
         <row r="35">
@@ -1278,10 +1283,10 @@
             <v>41654</v>
           </cell>
           <cell r="B35" t="str">
-            <v>Wine</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C35">
-            <v>14.92</v>
+            <v>115.61</v>
           </cell>
         </row>
         <row r="36">
@@ -1289,10 +1294,10 @@
             <v>41654</v>
           </cell>
           <cell r="B36" t="str">
-            <v>Taxi</v>
+            <v>Wine</v>
           </cell>
           <cell r="C36">
-            <v>11.62</v>
+            <v>14.92</v>
           </cell>
         </row>
         <row r="37">
@@ -1303,7 +1308,7 @@
             <v>Taxi</v>
           </cell>
           <cell r="C37">
-            <v>8.5</v>
+            <v>11.62</v>
           </cell>
         </row>
         <row r="38">
@@ -1314,18 +1319,18 @@
             <v>Taxi</v>
           </cell>
           <cell r="C38">
-            <v>8.33</v>
+            <v>8.5</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>41655</v>
+            <v>41654</v>
           </cell>
           <cell r="B39" t="str">
-            <v>Credit One V7030</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C39">
-            <v>35</v>
+            <v>8.33</v>
           </cell>
         </row>
         <row r="40">
@@ -1333,10 +1338,10 @@
             <v>41655</v>
           </cell>
           <cell r="B40" t="str">
-            <v>Grocery Store</v>
+            <v>Credit One V7030</v>
           </cell>
           <cell r="C40">
-            <v>202.23</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="41">
@@ -1344,10 +1349,10 @@
             <v>41655</v>
           </cell>
           <cell r="B41" t="str">
-            <v>Laundry</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C41">
-            <v>17</v>
+            <v>202.23</v>
           </cell>
         </row>
         <row r="42">
@@ -1355,21 +1360,21 @@
             <v>41655</v>
           </cell>
           <cell r="B42" t="str">
-            <v>Taxi</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C42">
-            <v>8.33</v>
+            <v>17</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>41656</v>
+            <v>41655</v>
           </cell>
           <cell r="B43" t="str">
-            <v>Clothes</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C43">
-            <v>7</v>
+            <v>8.33</v>
           </cell>
         </row>
         <row r="44">
@@ -1377,10 +1382,10 @@
             <v>41656</v>
           </cell>
           <cell r="B44" t="str">
-            <v>Computer</v>
+            <v>Clothes</v>
           </cell>
           <cell r="C44">
-            <v>150</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="45">
@@ -1388,10 +1393,10 @@
             <v>41656</v>
           </cell>
           <cell r="B45" t="str">
-            <v>Consultant</v>
+            <v>Computer</v>
           </cell>
           <cell r="C45">
-            <v>72.8</v>
+            <v>150</v>
           </cell>
         </row>
         <row r="46">
@@ -1399,10 +1404,10 @@
             <v>41656</v>
           </cell>
           <cell r="B46" t="str">
-            <v>Food Out</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C46">
-            <v>5.39</v>
+            <v>72.8</v>
           </cell>
         </row>
         <row r="47">
@@ -1410,21 +1415,21 @@
             <v>41656</v>
           </cell>
           <cell r="B47" t="str">
-            <v>Housekeeper</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C47">
-            <v>100</v>
+            <v>5.39</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>41657</v>
+            <v>41656</v>
           </cell>
           <cell r="B48" t="str">
-            <v>Cell Phone</v>
+            <v>Housekeeper</v>
           </cell>
           <cell r="C48">
-            <v>118.39</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="49">
@@ -1432,10 +1437,10 @@
             <v>41657</v>
           </cell>
           <cell r="B49" t="str">
-            <v>Computer</v>
+            <v>Cell Phone</v>
           </cell>
           <cell r="C49">
-            <v>7</v>
+            <v>118.39</v>
           </cell>
         </row>
         <row r="50">
@@ -1443,10 +1448,10 @@
             <v>41657</v>
           </cell>
           <cell r="B50" t="str">
-            <v>Gas Electric</v>
+            <v>Computer</v>
           </cell>
           <cell r="C50">
-            <v>279.32</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="51">
@@ -1454,10 +1459,10 @@
             <v>41657</v>
           </cell>
           <cell r="B51" t="str">
-            <v>Grocery Store</v>
+            <v>Gas Electric</v>
           </cell>
           <cell r="C51">
-            <v>60.67</v>
+            <v>279.32</v>
           </cell>
         </row>
         <row r="52">
@@ -1465,21 +1470,21 @@
             <v>41657</v>
           </cell>
           <cell r="B52" t="str">
-            <v>Networking</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C52">
-            <v>60.62</v>
+            <v>60.67</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>41658</v>
+            <v>41657</v>
           </cell>
           <cell r="B53" t="str">
-            <v>Books and Subscriptions</v>
+            <v>Networking</v>
           </cell>
           <cell r="C53">
-            <v>8.7100000000000009</v>
+            <v>60.62</v>
           </cell>
         </row>
         <row r="54">
@@ -1487,21 +1492,21 @@
             <v>41658</v>
           </cell>
           <cell r="B54" t="str">
-            <v>Grocery Store</v>
+            <v>Books and Subscriptions</v>
           </cell>
           <cell r="C54">
-            <v>19.23</v>
+            <v>8.7100000000000009</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>41660</v>
+            <v>41658</v>
           </cell>
           <cell r="B55" t="str">
-            <v>Cablevision</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C55">
-            <v>154.65</v>
+            <v>19.23</v>
           </cell>
         </row>
         <row r="56">
@@ -1509,10 +1514,10 @@
             <v>41660</v>
           </cell>
           <cell r="B56" t="str">
-            <v>Food Out</v>
+            <v>Cablevision</v>
           </cell>
           <cell r="C56">
-            <v>23.23</v>
+            <v>154.65</v>
           </cell>
         </row>
         <row r="57">
@@ -1520,10 +1525,10 @@
             <v>41660</v>
           </cell>
           <cell r="B57" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C57">
-            <v>61.61</v>
+            <v>23.23</v>
           </cell>
         </row>
         <row r="58">
@@ -1531,10 +1536,10 @@
             <v>41660</v>
           </cell>
           <cell r="B58" t="str">
-            <v>Public Transit</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C58">
-            <v>29.5</v>
+            <v>61.61</v>
           </cell>
         </row>
         <row r="59">
@@ -1542,32 +1547,32 @@
             <v>41660</v>
           </cell>
           <cell r="B59" t="str">
-            <v>Storage</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C59">
-            <v>92.98</v>
+            <v>29.5</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>41663</v>
+            <v>41660</v>
           </cell>
           <cell r="B60" t="str">
-            <v>Laundry</v>
+            <v>Storage</v>
           </cell>
           <cell r="C60">
-            <v>15</v>
+            <v>92.98</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>41664</v>
+            <v>41663</v>
           </cell>
           <cell r="B61" t="str">
-            <v>Grocery Store</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C61">
-            <v>28.06</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="62">
@@ -1575,21 +1580,21 @@
             <v>41664</v>
           </cell>
           <cell r="B62" t="str">
-            <v>Consultant</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C62">
-            <v>400</v>
+            <v>28.06</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>41665</v>
+            <v>41664</v>
           </cell>
           <cell r="B63" t="str">
-            <v>Accessories</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C63">
-            <v>152.41999999999999</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="64">
@@ -1597,10 +1602,10 @@
             <v>41665</v>
           </cell>
           <cell r="B64" t="str">
-            <v>Bank Fee</v>
+            <v>Accessories</v>
           </cell>
           <cell r="C64">
-            <v>3</v>
+            <v>152.41999999999999</v>
           </cell>
         </row>
         <row r="65">
@@ -1608,10 +1613,10 @@
             <v>41665</v>
           </cell>
           <cell r="B65" t="str">
-            <v>Food Out</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C65">
-            <v>39.75</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="66">
@@ -1619,10 +1624,10 @@
             <v>41665</v>
           </cell>
           <cell r="B66" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C66">
-            <v>7.25</v>
+            <v>39.75</v>
           </cell>
         </row>
         <row r="67">
@@ -1630,21 +1635,21 @@
             <v>41665</v>
           </cell>
           <cell r="B67" t="str">
-            <v>Taxi</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C67">
-            <v>20.2</v>
+            <v>7.25</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>41666</v>
+            <v>41665</v>
           </cell>
           <cell r="B68" t="str">
-            <v>Food Out</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C68">
-            <v>8.0399999999999991</v>
+            <v>20.2</v>
           </cell>
         </row>
         <row r="69">
@@ -1655,18 +1660,18 @@
             <v>Food Out</v>
           </cell>
           <cell r="C69">
-            <v>41.93</v>
+            <v>8.0399999999999991</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>41667</v>
+            <v>41666</v>
           </cell>
           <cell r="B70" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C70">
-            <v>39.22</v>
+            <v>41.93</v>
           </cell>
         </row>
         <row r="71">
@@ -1674,10 +1679,10 @@
             <v>41667</v>
           </cell>
           <cell r="B71" t="str">
-            <v>Laundry</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C71">
-            <v>10</v>
+            <v>39.22</v>
           </cell>
         </row>
         <row r="72">
@@ -1685,21 +1690,21 @@
             <v>41667</v>
           </cell>
           <cell r="B72" t="str">
-            <v>Office Supplies</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C72">
-            <v>14.48</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>41669</v>
+            <v>41667</v>
           </cell>
           <cell r="B73" t="str">
-            <v>Food Out</v>
+            <v>Office Supplies</v>
           </cell>
           <cell r="C73">
-            <v>13.05</v>
+            <v>14.48</v>
           </cell>
         </row>
         <row r="74">
@@ -1710,18 +1715,18 @@
             <v>Food Out</v>
           </cell>
           <cell r="C74">
-            <v>2.25</v>
+            <v>13.05</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>41670</v>
+            <v>41669</v>
           </cell>
           <cell r="B75" t="str">
-            <v>Consultant</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C75">
-            <v>200</v>
+            <v>2.25</v>
           </cell>
         </row>
         <row r="76">
@@ -1729,10 +1734,10 @@
             <v>41670</v>
           </cell>
           <cell r="B76" t="str">
-            <v>Food Out</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C76">
-            <v>10.99</v>
+            <v>200</v>
           </cell>
         </row>
         <row r="77">
@@ -1743,7 +1748,7 @@
             <v>Food Out</v>
           </cell>
           <cell r="C77">
-            <v>3.95</v>
+            <v>10.99</v>
           </cell>
         </row>
         <row r="78">
@@ -1751,10 +1756,10 @@
             <v>41670</v>
           </cell>
           <cell r="B78" t="str">
-            <v>Laundry</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C78">
-            <v>15</v>
+            <v>3.95</v>
           </cell>
         </row>
         <row r="79">
@@ -1765,7 +1770,7 @@
             <v>Laundry</v>
           </cell>
           <cell r="C79">
-            <v>10</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="80">
@@ -1773,32 +1778,32 @@
             <v>41670</v>
           </cell>
           <cell r="B80" t="str">
-            <v>Public Transit</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C80">
-            <v>132.6</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>41671</v>
+            <v>41670</v>
           </cell>
           <cell r="B81" t="str">
-            <v>Clothes</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C81">
-            <v>12</v>
+            <v>132.6</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>41671</v>
+            <v>41670</v>
           </cell>
           <cell r="B82" t="str">
-            <v>Food Out</v>
+            <v>Go Daddy</v>
           </cell>
           <cell r="C82">
-            <v>18.12</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="83">
@@ -1806,10 +1811,10 @@
             <v>41671</v>
           </cell>
           <cell r="B83" t="str">
-            <v>Office Supplies</v>
+            <v>Clothes</v>
           </cell>
           <cell r="C83">
-            <v>13.5</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="84">
@@ -1817,10 +1822,10 @@
             <v>41671</v>
           </cell>
           <cell r="B84" t="str">
-            <v>Office Supplies</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C84">
-            <v>85.98</v>
+            <v>18.12</v>
           </cell>
         </row>
         <row r="85">
@@ -1828,32 +1833,32 @@
             <v>41671</v>
           </cell>
           <cell r="B85" t="str">
-            <v>Apartment Insurance (State Farm)</v>
+            <v>Office Supplies</v>
           </cell>
           <cell r="C85">
-            <v>25.25</v>
+            <v>13.5</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>41672</v>
+            <v>41671</v>
           </cell>
           <cell r="B86" t="str">
-            <v>Grocery Store</v>
+            <v>Office Supplies</v>
           </cell>
           <cell r="C86">
-            <v>135.79</v>
+            <v>85.98</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>41672</v>
+            <v>41671</v>
           </cell>
           <cell r="B87" t="str">
-            <v>Grocery Store</v>
+            <v>Apartment Insurance (State Farm)</v>
           </cell>
           <cell r="C87">
-            <v>131.12</v>
+            <v>25.25</v>
           </cell>
         </row>
         <row r="88">
@@ -1861,10 +1866,10 @@
             <v>41672</v>
           </cell>
           <cell r="B88" t="str">
-            <v>Wine</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C88">
-            <v>26.65</v>
+            <v>135.79</v>
           </cell>
         </row>
         <row r="89">
@@ -1872,10 +1877,10 @@
             <v>41672</v>
           </cell>
           <cell r="B89" t="str">
-            <v>Medical</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C89">
-            <v>111.12</v>
+            <v>131.12</v>
           </cell>
         </row>
         <row r="90">
@@ -1883,10 +1888,10 @@
             <v>41672</v>
           </cell>
           <cell r="B90" t="str">
-            <v>Taxi</v>
+            <v>Wine</v>
           </cell>
           <cell r="C90">
-            <v>8.3000000000000007</v>
+            <v>26.65</v>
           </cell>
         </row>
         <row r="91">
@@ -1894,98 +1899,98 @@
             <v>41672</v>
           </cell>
           <cell r="B91" t="str">
-            <v>Cleaning Supplies</v>
+            <v>Medical</v>
           </cell>
           <cell r="C91">
-            <v>5.08</v>
+            <v>111.12</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>41673</v>
+            <v>41672</v>
           </cell>
           <cell r="B92" t="str">
-            <v>Household Furnishings</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C92">
-            <v>3.26</v>
+            <v>8.3000000000000007</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>41673</v>
+            <v>41672</v>
           </cell>
           <cell r="B93" t="str">
-            <v>Parson's</v>
+            <v>Cleaning Supplies</v>
           </cell>
           <cell r="C93">
-            <v>30.15</v>
+            <v>5.08</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>41675</v>
+            <v>41673</v>
           </cell>
           <cell r="B94" t="str">
-            <v>Credit One MC4850</v>
+            <v>Household Furnishings</v>
           </cell>
           <cell r="C94">
-            <v>45</v>
+            <v>3.26</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>41675</v>
+            <v>41673</v>
           </cell>
           <cell r="B95" t="str">
-            <v>Rent</v>
+            <v>Parson's</v>
           </cell>
           <cell r="C95">
-            <v>1000</v>
+            <v>30.15</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>41676</v>
+            <v>41675</v>
           </cell>
           <cell r="B96" t="str">
-            <v>JetBlue MC 3965</v>
+            <v>Credit One MC4850</v>
           </cell>
           <cell r="C96">
-            <v>50</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>41676</v>
+            <v>41675</v>
           </cell>
           <cell r="B97" t="str">
-            <v>Chase Amazon v5475</v>
+            <v>Rent</v>
           </cell>
           <cell r="C97">
-            <v>150</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>41677</v>
+            <v>41676</v>
           </cell>
           <cell r="B98" t="str">
-            <v>Cablevision</v>
+            <v>JetBlue MC 3965</v>
           </cell>
           <cell r="C98">
-            <v>154.44999999999999</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>41677</v>
+            <v>41676</v>
           </cell>
           <cell r="B99" t="str">
-            <v>Grocery Store</v>
+            <v>Chase Amazon v5475</v>
           </cell>
           <cell r="C99">
-            <v>59.58</v>
+            <v>150</v>
           </cell>
         </row>
         <row r="100">
@@ -1993,10 +1998,10 @@
             <v>41677</v>
           </cell>
           <cell r="B100" t="str">
-            <v>Body Care</v>
+            <v>Cablevision</v>
           </cell>
           <cell r="C100">
-            <v>3.49</v>
+            <v>154.44999999999999</v>
           </cell>
         </row>
         <row r="101">
@@ -2004,10 +2009,10 @@
             <v>41677</v>
           </cell>
           <cell r="B101" t="str">
-            <v>Cleaning Supplies</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C101">
-            <v>4.4800000000000004</v>
+            <v>59.58</v>
           </cell>
         </row>
         <row r="102">
@@ -2015,43 +2020,43 @@
             <v>41677</v>
           </cell>
           <cell r="B102" t="str">
-            <v>Parsons</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C102">
-            <v>25.96</v>
+            <v>3.49</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>41678</v>
+            <v>41677</v>
           </cell>
           <cell r="B103" t="str">
-            <v>Life Insurance (AARP)</v>
+            <v>Cleaning Supplies</v>
           </cell>
           <cell r="C103">
-            <v>26.38</v>
+            <v>4.4800000000000004</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>41679</v>
+            <v>41677</v>
           </cell>
           <cell r="B104" t="str">
-            <v>Food Out</v>
+            <v>Parsons</v>
           </cell>
           <cell r="C104">
-            <v>2.4500000000000002</v>
+            <v>25.96</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>41679</v>
+            <v>41678</v>
           </cell>
           <cell r="B105" t="str">
-            <v>Grocery Store</v>
+            <v>Life Insurance (AARP)</v>
           </cell>
           <cell r="C105">
-            <v>19.23</v>
+            <v>26.38</v>
           </cell>
         </row>
         <row r="106">
@@ -2059,32 +2064,32 @@
             <v>41679</v>
           </cell>
           <cell r="B106" t="str">
-            <v>Accessories</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C106">
-            <v>181.82</v>
+            <v>2.4500000000000002</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>41680</v>
+            <v>41679</v>
           </cell>
           <cell r="B107" t="str">
-            <v>Food Out</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C107">
-            <v>5.39</v>
+            <v>19.23</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>41680</v>
+            <v>41679</v>
           </cell>
           <cell r="B108" t="str">
-            <v>Grocery Store</v>
+            <v>Accessories</v>
           </cell>
           <cell r="C108">
-            <v>8.4600000000000009</v>
+            <v>181.82</v>
           </cell>
         </row>
         <row r="109">
@@ -2092,32 +2097,32 @@
             <v>41680</v>
           </cell>
           <cell r="B109" t="str">
-            <v>Household Furnishings</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C109">
-            <v>77.52</v>
+            <v>5.39</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>41681</v>
+            <v>41680</v>
           </cell>
           <cell r="B110" t="str">
-            <v>Food Out</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C110">
-            <v>17.29</v>
+            <v>8.4600000000000009</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>41681</v>
+            <v>41680</v>
           </cell>
           <cell r="B111" t="str">
-            <v>Wine</v>
+            <v>Household Furnishings</v>
           </cell>
           <cell r="C111">
-            <v>18.5</v>
+            <v>77.52</v>
           </cell>
         </row>
         <row r="112">
@@ -2125,10 +2130,10 @@
             <v>41681</v>
           </cell>
           <cell r="B112" t="str">
-            <v>Bank Fee</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C112">
-            <v>3</v>
+            <v>17.29</v>
           </cell>
         </row>
         <row r="113">
@@ -2136,10 +2141,10 @@
             <v>41681</v>
           </cell>
           <cell r="B113" t="str">
-            <v>Bank Fee</v>
+            <v>Wine</v>
           </cell>
           <cell r="C113">
-            <v>1.5</v>
+            <v>18.5</v>
           </cell>
         </row>
         <row r="114">
@@ -2147,10 +2152,10 @@
             <v>41681</v>
           </cell>
           <cell r="B114" t="str">
-            <v>Computer</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C114">
-            <v>1479.95</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="115">
@@ -2158,10 +2163,10 @@
             <v>41681</v>
           </cell>
           <cell r="B115" t="str">
-            <v>Computer</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C115">
-            <v>159.88</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="116">
@@ -2169,10 +2174,10 @@
             <v>41681</v>
           </cell>
           <cell r="B116" t="str">
-            <v>Entertainment Subscription</v>
+            <v>Computer</v>
           </cell>
           <cell r="C116">
-            <v>4.99</v>
+            <v>1479.95</v>
           </cell>
         </row>
         <row r="117">
@@ -2180,10 +2185,10 @@
             <v>41681</v>
           </cell>
           <cell r="B117" t="str">
-            <v>Food Out</v>
+            <v>Computer</v>
           </cell>
           <cell r="C117">
-            <v>5.39</v>
+            <v>159.88</v>
           </cell>
         </row>
         <row r="118">
@@ -2191,10 +2196,10 @@
             <v>41681</v>
           </cell>
           <cell r="B118" t="str">
-            <v>Laundry</v>
+            <v>Entertainment Subscription</v>
           </cell>
           <cell r="C118">
-            <v>19.899999999999999</v>
+            <v>4.99</v>
           </cell>
         </row>
         <row r="119">
@@ -2205,7 +2210,7 @@
             <v>Food Out</v>
           </cell>
           <cell r="C119">
-            <v>23.23</v>
+            <v>5.39</v>
           </cell>
         </row>
         <row r="120">
@@ -2213,10 +2218,10 @@
             <v>41681</v>
           </cell>
           <cell r="B120" t="str">
-            <v>Food Out</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C120">
-            <v>6.41</v>
+            <v>19.899999999999999</v>
           </cell>
         </row>
         <row r="121">
@@ -2224,10 +2229,10 @@
             <v>41681</v>
           </cell>
           <cell r="B121" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C121">
-            <v>38.400000000000006</v>
+            <v>23.23</v>
           </cell>
         </row>
         <row r="122">
@@ -2235,10 +2240,10 @@
             <v>41681</v>
           </cell>
           <cell r="B122" t="str">
-            <v>Household Furnishings</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C122">
-            <v>97.52</v>
+            <v>6.41</v>
           </cell>
         </row>
         <row r="123">
@@ -2249,7 +2254,7 @@
             <v>Grocery Store</v>
           </cell>
           <cell r="C123">
-            <v>48.38</v>
+            <v>38.400000000000006</v>
           </cell>
         </row>
         <row r="124">
@@ -2257,10 +2262,10 @@
             <v>41681</v>
           </cell>
           <cell r="B124" t="str">
-            <v>Public Transit</v>
+            <v>Household Furnishings</v>
           </cell>
           <cell r="C124">
-            <v>10.5</v>
+            <v>97.52</v>
           </cell>
         </row>
         <row r="125">
@@ -2268,10 +2273,10 @@
             <v>41681</v>
           </cell>
           <cell r="B125" t="str">
-            <v>Taxi</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C125">
-            <v>9.9499999999999993</v>
+            <v>48.38</v>
           </cell>
         </row>
         <row r="126">
@@ -2279,10 +2284,10 @@
             <v>41681</v>
           </cell>
           <cell r="B126" t="str">
-            <v>Taxi</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C126">
-            <v>14.75</v>
+            <v>10.5</v>
           </cell>
         </row>
         <row r="127">
@@ -2290,10 +2295,10 @@
             <v>41681</v>
           </cell>
           <cell r="B127" t="str">
-            <v>Flowers</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C127">
-            <v>9.98</v>
+            <v>9.9499999999999993</v>
           </cell>
         </row>
         <row r="128">
@@ -2301,54 +2306,54 @@
             <v>41681</v>
           </cell>
           <cell r="B128" t="str">
-            <v>Grocery Store</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C128">
-            <v>28.38</v>
+            <v>14.75</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>41682</v>
+            <v>41681</v>
           </cell>
           <cell r="B129" t="str">
-            <v>Parson's</v>
+            <v>Flowers</v>
           </cell>
           <cell r="C129">
-            <v>19.059999999999999</v>
+            <v>9.98</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>41682</v>
+            <v>41681</v>
           </cell>
           <cell r="B130" t="str">
-            <v>Taxi</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C130">
-            <v>9.9600000000000009</v>
+            <v>28.38</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>41683</v>
+            <v>41682</v>
           </cell>
           <cell r="B131" t="str">
-            <v>Laundry</v>
+            <v>Parson's</v>
           </cell>
           <cell r="C131">
-            <v>23</v>
+            <v>19.059999999999999</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>41683</v>
+            <v>41682</v>
           </cell>
           <cell r="B132" t="str">
-            <v>Networking</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C132">
-            <v>61.7</v>
+            <v>9.9600000000000009</v>
           </cell>
         </row>
         <row r="133">
@@ -2356,10 +2361,10 @@
             <v>41683</v>
           </cell>
           <cell r="B133" t="str">
-            <v>Grocery Store</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C133">
-            <v>48.05</v>
+            <v>23</v>
           </cell>
         </row>
         <row r="134">
@@ -2367,10 +2372,10 @@
             <v>41683</v>
           </cell>
           <cell r="B134" t="str">
-            <v>Over the counter (OTC)</v>
+            <v>Networking</v>
           </cell>
           <cell r="C134">
-            <v>34.950000000000003</v>
+            <v>61.7</v>
           </cell>
         </row>
         <row r="135">
@@ -2378,32 +2383,32 @@
             <v>41683</v>
           </cell>
           <cell r="B135" t="str">
-            <v>Body Care</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C135">
-            <v>13.57</v>
+            <v>48.05</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>41684</v>
+            <v>41683</v>
           </cell>
           <cell r="B136" t="str">
-            <v>Clothes</v>
+            <v>Over the counter (OTC)</v>
           </cell>
           <cell r="C136">
-            <v>58.5</v>
+            <v>34.950000000000003</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>41684</v>
+            <v>41683</v>
           </cell>
           <cell r="B137" t="str">
-            <v>Clothes</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C137">
-            <v>58.5</v>
+            <v>13.57</v>
           </cell>
         </row>
         <row r="138">
@@ -2411,10 +2416,10 @@
             <v>41684</v>
           </cell>
           <cell r="B138" t="str">
-            <v>Food Out</v>
+            <v>Clothes</v>
           </cell>
           <cell r="C138">
-            <v>7.27</v>
+            <v>58.5</v>
           </cell>
         </row>
         <row r="139">
@@ -2422,10 +2427,10 @@
             <v>41684</v>
           </cell>
           <cell r="B139" t="str">
-            <v>Taxi</v>
+            <v>Clothes</v>
           </cell>
           <cell r="C139">
-            <v>10.56</v>
+            <v>58.5</v>
           </cell>
         </row>
         <row r="140">
@@ -2433,32 +2438,32 @@
             <v>41684</v>
           </cell>
           <cell r="B140" t="str">
-            <v>Taxi</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C140">
-            <v>10.56</v>
+            <v>7.27</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>41685</v>
+            <v>41684</v>
           </cell>
           <cell r="B141" t="str">
-            <v>Food Out</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C141">
-            <v>13.03</v>
+            <v>10.56</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>41685</v>
+            <v>41684</v>
           </cell>
           <cell r="B142" t="str">
-            <v>Public Transit</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C142">
-            <v>13.95</v>
+            <v>10.56</v>
           </cell>
         </row>
         <row r="143">
@@ -2466,54 +2471,54 @@
             <v>41685</v>
           </cell>
           <cell r="B143" t="str">
-            <v>Public Transit</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C143">
-            <v>13.95</v>
+            <v>13.03</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>41687</v>
+            <v>41685</v>
           </cell>
           <cell r="B144" t="str">
-            <v>Taxi</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C144">
-            <v>23.16</v>
+            <v>13.95</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>41687</v>
+            <v>41685</v>
           </cell>
           <cell r="B145" t="str">
-            <v>Housekeeper</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C145">
-            <v>100</v>
+            <v>13.95</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>41689</v>
+            <v>41687</v>
           </cell>
           <cell r="B146" t="str">
-            <v>Computer</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C146">
-            <v>7</v>
+            <v>23.16</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>41689</v>
+            <v>41687</v>
           </cell>
           <cell r="B147" t="str">
-            <v>Food Out</v>
+            <v>Housekeeper</v>
           </cell>
           <cell r="C147">
-            <v>7.27</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="148">
@@ -2521,10 +2526,10 @@
             <v>41689</v>
           </cell>
           <cell r="B148" t="str">
-            <v>Parson's</v>
+            <v>Computer</v>
           </cell>
           <cell r="C148">
-            <v>7.27</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="149">
@@ -2532,10 +2537,10 @@
             <v>41689</v>
           </cell>
           <cell r="B149" t="str">
-            <v>Public Transit</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C149">
-            <v>35</v>
+            <v>7.27</v>
           </cell>
         </row>
         <row r="150">
@@ -2543,10 +2548,10 @@
             <v>41689</v>
           </cell>
           <cell r="B150" t="str">
-            <v>Taxi</v>
+            <v>Parson's</v>
           </cell>
           <cell r="C150">
-            <v>15.35</v>
+            <v>7.27</v>
           </cell>
         </row>
         <row r="151">
@@ -2554,10 +2559,10 @@
             <v>41689</v>
           </cell>
           <cell r="B151" t="str">
-            <v>Taxi</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C151">
-            <v>17.149999999999999</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="152">
@@ -2568,7 +2573,7 @@
             <v>Taxi</v>
           </cell>
           <cell r="C152">
-            <v>17.149999999999999</v>
+            <v>15.35</v>
           </cell>
         </row>
         <row r="153">
@@ -2579,29 +2584,29 @@
             <v>Taxi</v>
           </cell>
           <cell r="C153">
-            <v>15.35</v>
+            <v>17.149999999999999</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>41690</v>
+            <v>41689</v>
           </cell>
           <cell r="B154" t="str">
-            <v>Bank Fee</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C154">
-            <v>35</v>
+            <v>17.149999999999999</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>41690</v>
+            <v>41689</v>
           </cell>
           <cell r="B155" t="str">
-            <v>Credit One MC4850</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C155">
-            <v>75</v>
+            <v>15.35</v>
           </cell>
         </row>
         <row r="156">
@@ -2609,10 +2614,10 @@
             <v>41690</v>
           </cell>
           <cell r="B156" t="str">
-            <v>Credit One V7030</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C156">
-            <v>45</v>
+            <v>35</v>
           </cell>
         </row>
         <row r="157">
@@ -2620,54 +2625,54 @@
             <v>41690</v>
           </cell>
           <cell r="B157" t="str">
-            <v>Gas Electric</v>
+            <v>Credit One MC4850</v>
           </cell>
           <cell r="C157">
-            <v>312.98</v>
+            <v>75</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>41691</v>
+            <v>41690</v>
           </cell>
           <cell r="B158" t="str">
-            <v>Storage</v>
+            <v>Credit One V7030</v>
           </cell>
           <cell r="C158">
-            <v>92.98</v>
+            <v>45</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>41691</v>
+            <v>41690</v>
           </cell>
           <cell r="B159" t="str">
-            <v>Office Supplies</v>
+            <v>Gas Electric</v>
           </cell>
           <cell r="C159">
-            <v>30.92</v>
+            <v>312.98</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>41692</v>
+            <v>41691</v>
           </cell>
           <cell r="B160" t="str">
-            <v>Bank Fee</v>
+            <v>Storage</v>
           </cell>
           <cell r="C160">
-            <v>9</v>
+            <v>92.98</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>41692</v>
+            <v>41691</v>
           </cell>
           <cell r="B161" t="str">
-            <v>Cell Phone</v>
+            <v>Office Supplies</v>
           </cell>
           <cell r="C161">
-            <v>132.53</v>
+            <v>30.92</v>
           </cell>
         </row>
         <row r="162">
@@ -2675,10 +2680,10 @@
             <v>41692</v>
           </cell>
           <cell r="B162" t="str">
-            <v>Body Care</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C162">
-            <v>60.6</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="163">
@@ -2686,43 +2691,43 @@
             <v>41692</v>
           </cell>
           <cell r="B163" t="str">
-            <v>Body Care</v>
+            <v>Cell Phone</v>
           </cell>
           <cell r="C163">
-            <v>12</v>
+            <v>132.53</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>41693</v>
+            <v>41692</v>
           </cell>
           <cell r="B164" t="str">
-            <v>Parson's</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C164">
-            <v>13.07</v>
+            <v>60.6</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>41695</v>
+            <v>41692</v>
           </cell>
           <cell r="B165" t="str">
-            <v>Lucille Metheny</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C165">
-            <v>26.94</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>41695</v>
+            <v>41693</v>
           </cell>
           <cell r="B166" t="str">
-            <v>Consultant</v>
+            <v>Parson's</v>
           </cell>
           <cell r="C166">
-            <v>300</v>
+            <v>13.07</v>
           </cell>
         </row>
         <row r="167">
@@ -2730,32 +2735,32 @@
             <v>41695</v>
           </cell>
           <cell r="B167" t="str">
-            <v>New Jersey State Tax</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C167">
-            <v>706.73</v>
+            <v>26.94</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>41696</v>
+            <v>41695</v>
           </cell>
           <cell r="B168" t="str">
-            <v>First Premier</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C168">
-            <v>100</v>
+            <v>300</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>41696</v>
+            <v>41695</v>
           </cell>
           <cell r="B169" t="str">
-            <v>First Premier #3141</v>
+            <v>New Jersey State Tax</v>
           </cell>
           <cell r="C169">
-            <v>100</v>
+            <v>706.73</v>
           </cell>
         </row>
         <row r="170">
@@ -2763,32 +2768,32 @@
             <v>41696</v>
           </cell>
           <cell r="B170" t="str">
-            <v>Taxi</v>
+            <v>First Premier</v>
           </cell>
           <cell r="C170">
-            <v>24.76</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171">
-            <v>41697</v>
+            <v>41696</v>
           </cell>
           <cell r="B171" t="str">
-            <v>Chase Amazon v5475</v>
+            <v>First Premier #3141</v>
           </cell>
           <cell r="C171">
-            <v>500</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>41697</v>
+            <v>41696</v>
           </cell>
           <cell r="B172" t="str">
-            <v>Grocery Store</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C172">
-            <v>12.76</v>
+            <v>24.76</v>
           </cell>
         </row>
         <row r="173">
@@ -2796,10 +2801,10 @@
             <v>41697</v>
           </cell>
           <cell r="B173" t="str">
-            <v>Grocery Store</v>
+            <v>Chase Amazon v5475</v>
           </cell>
           <cell r="C173">
-            <v>170.12</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="174">
@@ -2807,32 +2812,32 @@
             <v>41697</v>
           </cell>
           <cell r="B174" t="str">
-            <v>Office Supplies</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C174">
-            <v>25.33</v>
+            <v>12.76</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>41698</v>
+            <v>41697</v>
           </cell>
           <cell r="B175" t="str">
-            <v>Food Out</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C175">
-            <v>6.23</v>
+            <v>170.12</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>41698</v>
+            <v>41697</v>
           </cell>
           <cell r="B176" t="str">
-            <v>Grocery Store</v>
+            <v>Office Supplies</v>
           </cell>
           <cell r="C176">
-            <v>12.78</v>
+            <v>25.33</v>
           </cell>
         </row>
         <row r="177">
@@ -2840,10 +2845,10 @@
             <v>41698</v>
           </cell>
           <cell r="B177" t="str">
-            <v>Public Transit</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C177">
-            <v>221</v>
+            <v>6.23</v>
           </cell>
         </row>
         <row r="178">
@@ -2851,87 +2856,87 @@
             <v>41698</v>
           </cell>
           <cell r="B178" t="str">
-            <v>Rent</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C178">
-            <v>1000</v>
+            <v>12.78</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>41699</v>
+            <v>41698</v>
           </cell>
           <cell r="B179" t="str">
-            <v>Apartment Insurance (State Farm)</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C179">
-            <v>25.25</v>
+            <v>221</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>41699</v>
+            <v>41698</v>
           </cell>
           <cell r="B180" t="str">
-            <v>Google Cloud Service</v>
+            <v>Rent</v>
           </cell>
           <cell r="C180">
-            <v>15</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>41701</v>
+            <v>41698</v>
           </cell>
           <cell r="B181" t="str">
-            <v>Taxi</v>
+            <v>Go Daddy</v>
           </cell>
           <cell r="C181">
-            <v>12.36</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>41701</v>
+            <v>41699</v>
           </cell>
           <cell r="B182" t="str">
-            <v>Taxi</v>
+            <v>Apartment Insurance (State Farm)</v>
           </cell>
           <cell r="C182">
-            <v>12.96</v>
+            <v>25.25</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>41702</v>
+            <v>41699</v>
           </cell>
           <cell r="B183" t="str">
-            <v>Bank Fee</v>
+            <v>Google Cloud Service</v>
           </cell>
           <cell r="C183">
-            <v>3</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>41702</v>
+            <v>41701</v>
           </cell>
           <cell r="B184" t="str">
-            <v>Bank Fee</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C184">
-            <v>3</v>
+            <v>12.36</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>41702</v>
+            <v>41701</v>
           </cell>
           <cell r="B185" t="str">
-            <v>Body Care</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C185">
-            <v>145.91</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="186">
@@ -2939,10 +2944,10 @@
             <v>41702</v>
           </cell>
           <cell r="B186" t="str">
-            <v>Body Care</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C186">
-            <v>77.31</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="187">
@@ -2950,10 +2955,10 @@
             <v>41702</v>
           </cell>
           <cell r="B187" t="str">
-            <v>Food Out</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C187">
-            <v>23.13</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="188">
@@ -2961,10 +2966,10 @@
             <v>41702</v>
           </cell>
           <cell r="B188" t="str">
-            <v>Food Out</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C188">
-            <v>18.91</v>
+            <v>145.91</v>
           </cell>
         </row>
         <row r="189">
@@ -2972,10 +2977,10 @@
             <v>41702</v>
           </cell>
           <cell r="B189" t="str">
-            <v>Food Out</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C189">
-            <v>22.86</v>
+            <v>77.31</v>
           </cell>
         </row>
         <row r="190">
@@ -2983,10 +2988,10 @@
             <v>41702</v>
           </cell>
           <cell r="B190" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C190">
-            <v>79.19</v>
+            <v>23.13</v>
           </cell>
         </row>
         <row r="191">
@@ -2994,10 +2999,10 @@
             <v>41702</v>
           </cell>
           <cell r="B191" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C191">
-            <v>6.99</v>
+            <v>18.91</v>
           </cell>
         </row>
         <row r="192">
@@ -3005,10 +3010,10 @@
             <v>41702</v>
           </cell>
           <cell r="B192" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C192">
-            <v>26.99</v>
+            <v>22.86</v>
           </cell>
         </row>
         <row r="193">
@@ -3016,10 +3021,10 @@
             <v>41702</v>
           </cell>
           <cell r="B193" t="str">
-            <v>Laundry</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C193">
-            <v>25</v>
+            <v>79.19</v>
           </cell>
         </row>
         <row r="194">
@@ -3027,10 +3032,10 @@
             <v>41702</v>
           </cell>
           <cell r="B194" t="str">
-            <v>Networking</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C194">
-            <v>71.86</v>
+            <v>6.99</v>
           </cell>
         </row>
         <row r="195">
@@ -3038,10 +3043,10 @@
             <v>41702</v>
           </cell>
           <cell r="B195" t="str">
-            <v>Parson's</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C195">
-            <v>26.13</v>
+            <v>26.99</v>
           </cell>
         </row>
         <row r="196">
@@ -3049,10 +3054,10 @@
             <v>41702</v>
           </cell>
           <cell r="B196" t="str">
-            <v>Taxi</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C196">
-            <v>7.56</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="197">
@@ -3060,43 +3065,43 @@
             <v>41702</v>
           </cell>
           <cell r="B197" t="str">
-            <v>Taxi</v>
+            <v>Networking</v>
           </cell>
           <cell r="C197">
-            <v>11.16</v>
+            <v>71.86</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>41703</v>
+            <v>41702</v>
           </cell>
           <cell r="B198" t="str">
-            <v>Clothes</v>
+            <v>Parson's</v>
           </cell>
           <cell r="C198">
-            <v>102.5</v>
+            <v>26.13</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>41703</v>
+            <v>41702</v>
           </cell>
           <cell r="B199" t="str">
-            <v>Clothes</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C199">
-            <v>89</v>
+            <v>7.56</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>41703</v>
+            <v>41702</v>
           </cell>
           <cell r="B200" t="str">
-            <v>Consultant</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C200">
-            <v>1000</v>
+            <v>11.16</v>
           </cell>
         </row>
         <row r="201">
@@ -3104,76 +3109,76 @@
             <v>41703</v>
           </cell>
           <cell r="B201" t="str">
-            <v>Consultant</v>
+            <v>Clothes</v>
           </cell>
           <cell r="C201">
-            <v>7</v>
+            <v>102.5</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202">
-            <v>41704</v>
+            <v>41703</v>
           </cell>
           <cell r="B202" t="str">
-            <v>Entertainment Subscription</v>
+            <v>Clothes</v>
           </cell>
           <cell r="C202">
-            <v>4.99</v>
+            <v>89</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>41705</v>
+            <v>41703</v>
           </cell>
           <cell r="B203" t="str">
-            <v>Body Care</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C203">
-            <v>100</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204">
-            <v>41705</v>
+            <v>41703</v>
           </cell>
           <cell r="B204" t="str">
-            <v>Food Out</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C204">
-            <v>3.26</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205">
-            <v>41706</v>
+            <v>41704</v>
           </cell>
           <cell r="B205" t="str">
-            <v>Books and Subscriptions</v>
+            <v>Entertainment Subscription</v>
           </cell>
           <cell r="C205">
-            <v>5</v>
+            <v>4.99</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206">
-            <v>41706</v>
+            <v>41705</v>
           </cell>
           <cell r="B206" t="str">
-            <v>Books and Subscriptions</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C206">
-            <v>24</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207">
-            <v>41706</v>
+            <v>41705</v>
           </cell>
           <cell r="B207" t="str">
-            <v>Entertainment Subscription</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C207">
-            <v>4.99</v>
+            <v>3.26</v>
           </cell>
         </row>
         <row r="208">
@@ -3181,10 +3186,10 @@
             <v>41706</v>
           </cell>
           <cell r="B208" t="str">
-            <v>Food Out</v>
+            <v>Books and Subscriptions</v>
           </cell>
           <cell r="C208">
-            <v>10.97</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="209">
@@ -3192,10 +3197,10 @@
             <v>41706</v>
           </cell>
           <cell r="B209" t="str">
-            <v>Food Out</v>
+            <v>Books and Subscriptions</v>
           </cell>
           <cell r="C209">
-            <v>18.12</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="210">
@@ -3203,10 +3208,10 @@
             <v>41706</v>
           </cell>
           <cell r="B210" t="str">
-            <v>Food Out</v>
+            <v>Entertainment Subscription</v>
           </cell>
           <cell r="C210">
-            <v>10.97</v>
+            <v>4.99</v>
           </cell>
         </row>
         <row r="211">
@@ -3214,10 +3219,10 @@
             <v>41706</v>
           </cell>
           <cell r="B211" t="str">
-            <v>Life Insurance (AARP)</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C211">
-            <v>26.38</v>
+            <v>10.97</v>
           </cell>
         </row>
         <row r="212">
@@ -3225,10 +3230,10 @@
             <v>41706</v>
           </cell>
           <cell r="B212" t="str">
-            <v>Parson's</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C212">
-            <v>110</v>
+            <v>18.12</v>
           </cell>
         </row>
         <row r="213">
@@ -3236,10 +3241,10 @@
             <v>41706</v>
           </cell>
           <cell r="B213" t="str">
-            <v>Taxi</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C213">
-            <v>6.95</v>
+            <v>10.97</v>
           </cell>
         </row>
         <row r="214">
@@ -3247,10 +3252,10 @@
             <v>41706</v>
           </cell>
           <cell r="B214" t="str">
-            <v>Federal Taxes</v>
+            <v>Life Insurance (AARP)</v>
           </cell>
           <cell r="C214">
-            <v>2252</v>
+            <v>26.38</v>
           </cell>
         </row>
         <row r="215">
@@ -3258,76 +3263,76 @@
             <v>41706</v>
           </cell>
           <cell r="B215" t="str">
-            <v>Federal Taxes</v>
+            <v>Parson's</v>
           </cell>
           <cell r="C215">
-            <v>2252</v>
+            <v>110</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216">
-            <v>41707</v>
+            <v>41706</v>
           </cell>
           <cell r="B216" t="str">
-            <v>Food Out</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C216">
-            <v>6</v>
+            <v>6.95</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217">
-            <v>41707</v>
+            <v>41706</v>
           </cell>
           <cell r="B217" t="str">
-            <v>Food Out</v>
+            <v>Federal Taxes</v>
           </cell>
           <cell r="C217">
-            <v>4.58</v>
+            <v>2252</v>
           </cell>
         </row>
         <row r="218">
           <cell r="A218">
-            <v>41707</v>
+            <v>41706</v>
           </cell>
           <cell r="B218" t="str">
-            <v>Grocery Store</v>
+            <v>Federal Taxes</v>
           </cell>
           <cell r="C218">
-            <v>28.29</v>
+            <v>2252</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219">
-            <v>41708</v>
+            <v>41707</v>
           </cell>
           <cell r="B219" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C219">
-            <v>85.01</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220">
-            <v>41708</v>
+            <v>41707</v>
           </cell>
           <cell r="B220" t="str">
-            <v>Lucille Metheny</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C220">
-            <v>15.98</v>
+            <v>4.58</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221">
-            <v>41708</v>
+            <v>41707</v>
           </cell>
           <cell r="B221" t="str">
-            <v>Medical</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C221">
-            <v>111.12</v>
+            <v>28.29</v>
           </cell>
         </row>
         <row r="222">
@@ -3335,10 +3340,10 @@
             <v>41708</v>
           </cell>
           <cell r="B222" t="str">
-            <v>Household Furnishings</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C222">
-            <v>17.98</v>
+            <v>85.01</v>
           </cell>
         </row>
         <row r="223">
@@ -3346,10 +3351,10 @@
             <v>41708</v>
           </cell>
           <cell r="B223" t="str">
-            <v>Cleaning Supplies</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C223">
-            <v>4.99</v>
+            <v>15.98</v>
           </cell>
         </row>
         <row r="224">
@@ -3357,10 +3362,10 @@
             <v>41708</v>
           </cell>
           <cell r="B224" t="str">
-            <v>Taxi</v>
+            <v>Medical</v>
           </cell>
           <cell r="C224">
-            <v>6.21</v>
+            <v>111.12</v>
           </cell>
         </row>
         <row r="225">
@@ -3368,43 +3373,43 @@
             <v>41708</v>
           </cell>
           <cell r="B225" t="str">
-            <v>Taxi</v>
+            <v>Household Furnishings</v>
           </cell>
           <cell r="C225">
-            <v>6.01</v>
+            <v>17.98</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226">
-            <v>41709</v>
+            <v>41708</v>
           </cell>
           <cell r="B226" t="str">
-            <v>Books and Subscriptions</v>
+            <v>Cleaning Supplies</v>
           </cell>
           <cell r="C226">
-            <v>5</v>
+            <v>4.99</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227">
-            <v>41709</v>
+            <v>41708</v>
           </cell>
           <cell r="B227" t="str">
-            <v>Books and Subscriptions</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C227">
-            <v>24</v>
+            <v>6.21</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228">
-            <v>41709</v>
+            <v>41708</v>
           </cell>
           <cell r="B228" t="str">
-            <v>Consultant</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C228">
-            <v>15</v>
+            <v>6.01</v>
           </cell>
         </row>
         <row r="229">
@@ -3412,10 +3417,10 @@
             <v>41709</v>
           </cell>
           <cell r="B229" t="str">
-            <v>Food Out</v>
+            <v>Books and Subscriptions</v>
           </cell>
           <cell r="C229">
-            <v>18.12</v>
+            <v>5</v>
           </cell>
         </row>
         <row r="230">
@@ -3423,10 +3428,10 @@
             <v>41709</v>
           </cell>
           <cell r="B230" t="str">
-            <v>Laundry</v>
+            <v>Books and Subscriptions</v>
           </cell>
           <cell r="C230">
-            <v>30.5</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="231">
@@ -3434,48 +3439,48 @@
             <v>41709</v>
           </cell>
           <cell r="B231" t="str">
-            <v>Taxi</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C231">
-            <v>10.56</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232">
-            <v>41710</v>
+            <v>41709</v>
           </cell>
           <cell r="B232" t="str">
-            <v>Consultant</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C232">
-            <v>20</v>
+            <v>18.12</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233">
-            <v>41710</v>
+            <v>41709</v>
           </cell>
           <cell r="B233" t="str">
-            <v>Grocery Store</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C233">
-            <v>28.29</v>
+            <v>30.5</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234">
-            <v>41711</v>
+            <v>41709</v>
           </cell>
           <cell r="B234" t="str">
-            <v>Cablevision</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C234">
-            <v>169.46</v>
+            <v>10.56</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235">
-            <v>41711</v>
+            <v>41710</v>
           </cell>
           <cell r="B235" t="str">
             <v>Consultant</v>
@@ -3486,79 +3491,79 @@
         </row>
         <row r="236">
           <cell r="A236">
-            <v>41713</v>
+            <v>41710</v>
           </cell>
           <cell r="B236" t="str">
-            <v>Body Care</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C236">
-            <v>92.7</v>
+            <v>28.29</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237">
-            <v>41714</v>
+            <v>41711</v>
           </cell>
           <cell r="B237" t="str">
-            <v>Cleaning Supplies</v>
+            <v>Cablevision</v>
           </cell>
           <cell r="C237">
-            <v>22.76</v>
+            <v>169.46</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238">
-            <v>41714</v>
+            <v>41711</v>
           </cell>
           <cell r="B238" t="str">
-            <v>Food Out</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C238">
-            <v>3.95</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239">
-            <v>41714</v>
+            <v>41713</v>
           </cell>
           <cell r="B239" t="str">
-            <v>Grocery Store</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C239">
-            <v>110.56</v>
+            <v>92.7</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240">
-            <v>41715</v>
+            <v>41714</v>
           </cell>
           <cell r="B240" t="str">
-            <v>Donations</v>
+            <v>Cleaning Supplies</v>
           </cell>
           <cell r="C240">
-            <v>3</v>
+            <v>22.76</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241">
-            <v>41715</v>
+            <v>41714</v>
           </cell>
           <cell r="B241" t="str">
-            <v>Donations</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C241">
-            <v>2</v>
+            <v>3.95</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242">
-            <v>41715</v>
+            <v>41714</v>
           </cell>
           <cell r="B242" t="str">
-            <v>Donations</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C242">
-            <v>2</v>
+            <v>110.56</v>
           </cell>
         </row>
         <row r="243">
@@ -3566,10 +3571,10 @@
             <v>41715</v>
           </cell>
           <cell r="B243" t="str">
-            <v>Food Out</v>
+            <v>Donations</v>
           </cell>
           <cell r="C243">
-            <v>10.78</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="244">
@@ -3577,10 +3582,10 @@
             <v>41715</v>
           </cell>
           <cell r="B244" t="str">
-            <v>Food Out</v>
+            <v>Donations</v>
           </cell>
           <cell r="C244">
-            <v>3.26</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="245">
@@ -3588,10 +3593,10 @@
             <v>41715</v>
           </cell>
           <cell r="B245" t="str">
-            <v>Networking</v>
+            <v>Donations</v>
           </cell>
           <cell r="C245">
-            <v>39.200000000000003</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="246">
@@ -3599,10 +3604,10 @@
             <v>41715</v>
           </cell>
           <cell r="B246" t="str">
-            <v>Public Transit</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C246">
-            <v>3</v>
+            <v>10.78</v>
           </cell>
         </row>
         <row r="247">
@@ -3610,10 +3615,10 @@
             <v>41715</v>
           </cell>
           <cell r="B247" t="str">
-            <v>Taxi</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C247">
-            <v>9.36</v>
+            <v>3.26</v>
           </cell>
         </row>
         <row r="248">
@@ -3621,87 +3626,98 @@
             <v>41715</v>
           </cell>
           <cell r="B248" t="str">
-            <v>Housekeeper</v>
+            <v>Networking</v>
           </cell>
           <cell r="C248">
-            <v>100</v>
+            <v>39.200000000000003</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249">
-            <v>41716</v>
+            <v>41715</v>
           </cell>
           <cell r="B249" t="str">
-            <v>Office Supplies</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C249">
-            <v>10</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250">
-            <v>41717</v>
+            <v>41715</v>
           </cell>
           <cell r="B250" t="str">
-            <v>Consultant</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C250">
-            <v>15</v>
+            <v>9.36</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251">
-            <v>41717</v>
+            <v>41715</v>
           </cell>
           <cell r="B251" t="str">
-            <v>Food Out</v>
+            <v>Housekeeper</v>
           </cell>
           <cell r="C251">
-            <v>2.71</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252">
-            <v>41717</v>
+            <v>41716</v>
           </cell>
           <cell r="B252" t="str">
             <v>Office Supplies</v>
           </cell>
           <cell r="C252">
-            <v>24.98</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253">
-            <v>41719</v>
+            <v>41717</v>
           </cell>
           <cell r="B253" t="str">
-            <v>Cell Phone</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C253">
-            <v>132.53</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="254">
           <cell r="A254">
-            <v>41719</v>
+            <v>41717</v>
           </cell>
           <cell r="B254" t="str">
-            <v>Household Furnishings</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C254">
-            <v>62.99</v>
+            <v>2.71</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255">
+            <v>41717</v>
+          </cell>
+          <cell r="B255" t="str">
+            <v>Office Supplies</v>
+          </cell>
+          <cell r="C255">
+            <v>24.98</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="A256">
             <v>41719</v>
           </cell>
-          <cell r="B255" t="str">
-            <v>Storage</v>
-          </cell>
-          <cell r="C255">
-            <v>98.33</v>
+          <cell r="B256" t="str">
+            <v>Cell Phone</v>
+          </cell>
+          <cell r="C256">
+            <v>132.53</v>
           </cell>
         </row>
         <row r="257">
@@ -3709,10 +3725,10 @@
             <v>41719</v>
           </cell>
           <cell r="B257" t="str">
-            <v>Gas Electric</v>
+            <v>Household Furnishings</v>
           </cell>
           <cell r="C257">
-            <v>238.15</v>
+            <v>62.99</v>
           </cell>
         </row>
         <row r="258">
@@ -3720,32 +3736,32 @@
             <v>41719</v>
           </cell>
           <cell r="B258" t="str">
-            <v>Food Out</v>
+            <v>Storage</v>
           </cell>
           <cell r="C258">
-            <v>39.29</v>
+            <v>98.33</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259">
-            <v>41720</v>
+            <v>41719</v>
           </cell>
           <cell r="B259" t="str">
-            <v>Body Care</v>
+            <v>Gas Electric</v>
           </cell>
           <cell r="C259">
-            <v>72.599999999999994</v>
+            <v>238.15</v>
           </cell>
         </row>
         <row r="260">
           <cell r="A260">
-            <v>41720</v>
+            <v>41719</v>
           </cell>
           <cell r="B260" t="str">
-            <v>Body Care</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C260">
-            <v>20</v>
+            <v>39.29</v>
           </cell>
         </row>
         <row r="261">
@@ -3753,10 +3769,10 @@
             <v>41720</v>
           </cell>
           <cell r="B261" t="str">
-            <v>Networking</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C261">
-            <v>5.93</v>
+            <v>72.599999999999994</v>
           </cell>
         </row>
         <row r="262">
@@ -3764,10 +3780,10 @@
             <v>41720</v>
           </cell>
           <cell r="B262" t="str">
-            <v>Grocery Store</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C262">
-            <v>5.99</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="263">
@@ -3775,10 +3791,10 @@
             <v>41720</v>
           </cell>
           <cell r="B263" t="str">
-            <v>Grocery Store</v>
+            <v>Networking</v>
           </cell>
           <cell r="C263">
-            <v>100</v>
+            <v>5.93</v>
           </cell>
         </row>
         <row r="264">
@@ -3786,10 +3802,10 @@
             <v>41720</v>
           </cell>
           <cell r="B264" t="str">
-            <v>Laundry</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C264">
-            <v>24</v>
+            <v>5.99</v>
           </cell>
         </row>
         <row r="265">
@@ -3797,10 +3813,10 @@
             <v>41720</v>
           </cell>
           <cell r="B265" t="str">
-            <v>Networking</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C265">
-            <v>63.7</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="266">
@@ -3808,10 +3824,10 @@
             <v>41720</v>
           </cell>
           <cell r="B266" t="str">
-            <v>Networking</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C266">
-            <v>15</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="267">
@@ -3819,10 +3835,10 @@
             <v>41720</v>
           </cell>
           <cell r="B267" t="str">
-            <v>Public Transit</v>
+            <v>Networking</v>
           </cell>
           <cell r="C267">
-            <v>3</v>
+            <v>63.7</v>
           </cell>
         </row>
         <row r="268">
@@ -3830,10 +3846,10 @@
             <v>41720</v>
           </cell>
           <cell r="B268" t="str">
-            <v>Business Travel</v>
+            <v>Networking</v>
           </cell>
           <cell r="C268">
-            <v>9</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="269">
@@ -3841,10 +3857,10 @@
             <v>41720</v>
           </cell>
           <cell r="B269" t="str">
-            <v>Business Travel</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C269">
-            <v>15.35</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="270">
@@ -3852,10 +3868,10 @@
             <v>41720</v>
           </cell>
           <cell r="B270" t="str">
-            <v>Body Care</v>
+            <v>Business Travel</v>
           </cell>
           <cell r="C270">
-            <v>60.6</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="271">
@@ -3863,32 +3879,32 @@
             <v>41720</v>
           </cell>
           <cell r="B271" t="str">
-            <v>Body Care</v>
+            <v>Business Travel</v>
           </cell>
           <cell r="C271">
-            <v>12</v>
+            <v>15.35</v>
           </cell>
         </row>
         <row r="272">
           <cell r="A272">
-            <v>41721</v>
+            <v>41720</v>
           </cell>
           <cell r="B272" t="str">
             <v>Body Care</v>
           </cell>
           <cell r="C272">
-            <v>129.56</v>
+            <v>60.6</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273">
-            <v>41721</v>
+            <v>41720</v>
           </cell>
           <cell r="B273" t="str">
             <v>Body Care</v>
           </cell>
           <cell r="C273">
-            <v>18.98</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="274">
@@ -3896,10 +3912,10 @@
             <v>41721</v>
           </cell>
           <cell r="B274" t="str">
-            <v>Food Out</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C274">
-            <v>16.07</v>
+            <v>129.56</v>
           </cell>
         </row>
         <row r="275">
@@ -3907,10 +3923,10 @@
             <v>41721</v>
           </cell>
           <cell r="B275" t="str">
-            <v>Grocery Store</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C275">
-            <v>72.959999999999994</v>
+            <v>18.98</v>
           </cell>
         </row>
         <row r="276">
@@ -3918,10 +3934,10 @@
             <v>41721</v>
           </cell>
           <cell r="B276" t="str">
-            <v>Household Furnishings</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C276">
-            <v>28.29</v>
+            <v>16.07</v>
           </cell>
         </row>
         <row r="277">
@@ -3929,10 +3945,10 @@
             <v>41721</v>
           </cell>
           <cell r="B277" t="str">
-            <v>Over the counter (OTC)</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C277">
-            <v>69.36</v>
+            <v>72.959999999999994</v>
           </cell>
         </row>
         <row r="278">
@@ -3940,10 +3956,10 @@
             <v>41721</v>
           </cell>
           <cell r="B278" t="str">
-            <v>Office Supplies</v>
+            <v>Household Furnishings</v>
           </cell>
           <cell r="C278">
-            <v>16</v>
+            <v>28.29</v>
           </cell>
         </row>
         <row r="279">
@@ -3951,10 +3967,10 @@
             <v>41721</v>
           </cell>
           <cell r="B279" t="str">
-            <v>Public Transit</v>
+            <v>Over the counter (OTC)</v>
           </cell>
           <cell r="C279">
-            <v>3</v>
+            <v>69.36</v>
           </cell>
         </row>
         <row r="280">
@@ -3962,10 +3978,10 @@
             <v>41721</v>
           </cell>
           <cell r="B280" t="str">
-            <v>Flowers</v>
+            <v>Office Supplies</v>
           </cell>
           <cell r="C280">
-            <v>21.65</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="281">
@@ -3973,10 +3989,10 @@
             <v>41721</v>
           </cell>
           <cell r="B281" t="str">
-            <v>Body Care</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C281">
-            <v>18.88</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="282">
@@ -3984,10 +4000,10 @@
             <v>41721</v>
           </cell>
           <cell r="B282" t="str">
-            <v>Laundry</v>
+            <v>Flowers</v>
           </cell>
           <cell r="C282">
-            <v>24</v>
+            <v>21.65</v>
           </cell>
         </row>
         <row r="283">
@@ -3995,10 +4011,10 @@
             <v>41721</v>
           </cell>
           <cell r="B283" t="str">
-            <v>Networking</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C283">
-            <v>60.26</v>
+            <v>18.88</v>
           </cell>
         </row>
         <row r="284">
@@ -4006,15 +4022,15 @@
             <v>41721</v>
           </cell>
           <cell r="B284" t="str">
-            <v>Household Furnishings</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C284">
-            <v>16.329999999999998</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285">
-            <v>41723</v>
+            <v>41721</v>
           </cell>
           <cell r="B285" t="str">
             <v>Networking</v>
@@ -4025,13 +4041,13 @@
         </row>
         <row r="286">
           <cell r="A286">
-            <v>41723</v>
+            <v>41721</v>
           </cell>
           <cell r="B286" t="str">
-            <v>Flowers</v>
+            <v>Household Furnishings</v>
           </cell>
           <cell r="C286">
-            <v>21.65</v>
+            <v>16.329999999999998</v>
           </cell>
         </row>
         <row r="287">
@@ -4039,32 +4055,32 @@
             <v>41723</v>
           </cell>
           <cell r="B287" t="str">
-            <v>Parsons</v>
+            <v>Networking</v>
           </cell>
           <cell r="C287">
-            <v>9.35</v>
+            <v>60.26</v>
           </cell>
         </row>
         <row r="288">
           <cell r="A288">
-            <v>41724</v>
+            <v>41723</v>
           </cell>
           <cell r="B288" t="str">
             <v>Flowers</v>
           </cell>
           <cell r="C288">
-            <v>13.32</v>
+            <v>21.65</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289">
-            <v>41724</v>
+            <v>41723</v>
           </cell>
           <cell r="B289" t="str">
-            <v>Cleaning Supplies</v>
+            <v>Parsons</v>
           </cell>
           <cell r="C289">
-            <v>14.99</v>
+            <v>9.35</v>
           </cell>
         </row>
         <row r="290">
@@ -4072,10 +4088,10 @@
             <v>41724</v>
           </cell>
           <cell r="B290" t="str">
-            <v>Body Care</v>
+            <v>Flowers</v>
           </cell>
           <cell r="C290">
-            <v>1.99</v>
+            <v>13.32</v>
           </cell>
         </row>
         <row r="291">
@@ -4083,32 +4099,32 @@
             <v>41724</v>
           </cell>
           <cell r="B291" t="str">
-            <v>Grocery Store</v>
+            <v>Cleaning Supplies</v>
           </cell>
           <cell r="C291">
-            <v>30.3</v>
+            <v>14.99</v>
           </cell>
         </row>
         <row r="292">
           <cell r="A292">
-            <v>41725</v>
+            <v>41724</v>
           </cell>
           <cell r="B292" t="str">
-            <v>Bank Fee</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C292">
-            <v>3</v>
+            <v>1.99</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293">
-            <v>41725</v>
+            <v>41724</v>
           </cell>
           <cell r="B293" t="str">
-            <v>Gardening</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C293">
-            <v>190.67</v>
+            <v>30.3</v>
           </cell>
         </row>
         <row r="294">
@@ -4116,32 +4132,32 @@
             <v>41725</v>
           </cell>
           <cell r="B294" t="str">
-            <v>Grocery Store</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C294">
-            <v>62.49</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295">
-            <v>41726</v>
+            <v>41725</v>
           </cell>
           <cell r="B295" t="str">
-            <v>CHASE Amazon v5475</v>
+            <v>Gardening</v>
           </cell>
           <cell r="C295">
-            <v>500</v>
+            <v>190.67</v>
           </cell>
         </row>
         <row r="296">
           <cell r="A296">
-            <v>41726</v>
+            <v>41725</v>
           </cell>
           <cell r="B296" t="str">
-            <v>Bank Fee</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C296">
-            <v>1.5</v>
+            <v>62.49</v>
           </cell>
         </row>
         <row r="297">
@@ -4149,10 +4165,10 @@
             <v>41726</v>
           </cell>
           <cell r="B297" t="str">
-            <v>First Premier MC 3141</v>
+            <v>CHASE Amazon v5475</v>
           </cell>
           <cell r="C297">
-            <v>346.22</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="298">
@@ -4160,32 +4176,32 @@
             <v>41726</v>
           </cell>
           <cell r="B298" t="str">
-            <v>Public Transit</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C298">
-            <v>3</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299">
-            <v>41727</v>
+            <v>41726</v>
           </cell>
           <cell r="B299" t="str">
-            <v>Parsons</v>
+            <v>First Premier MC 3141</v>
           </cell>
           <cell r="C299">
-            <v>39.14</v>
+            <v>346.22</v>
           </cell>
         </row>
         <row r="300">
           <cell r="A300">
-            <v>41727</v>
+            <v>41726</v>
           </cell>
           <cell r="B300" t="str">
-            <v>Food Out</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C300">
-            <v>8.84</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="301">
@@ -4193,10 +4209,10 @@
             <v>41727</v>
           </cell>
           <cell r="B301" t="str">
-            <v>household Furnishings</v>
+            <v>Parsons</v>
           </cell>
           <cell r="C301">
-            <v>9.3000000000000007</v>
+            <v>39.14</v>
           </cell>
         </row>
         <row r="302">
@@ -4204,10 +4220,10 @@
             <v>41727</v>
           </cell>
           <cell r="B302" t="str">
-            <v>Federal Taxes</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C302">
-            <v>108.53</v>
+            <v>8.84</v>
           </cell>
         </row>
         <row r="303">
@@ -4215,32 +4231,32 @@
             <v>41727</v>
           </cell>
           <cell r="B303" t="str">
-            <v>Networking</v>
+            <v>household Furnishings</v>
           </cell>
           <cell r="C303">
-            <v>14.35</v>
+            <v>9.3000000000000007</v>
           </cell>
         </row>
         <row r="304">
           <cell r="A304">
-            <v>41729</v>
+            <v>41727</v>
           </cell>
           <cell r="B304" t="str">
-            <v>Rent</v>
+            <v>Federal Taxes</v>
           </cell>
           <cell r="C304">
-            <v>1000</v>
+            <v>108.53</v>
           </cell>
         </row>
         <row r="305">
           <cell r="A305">
-            <v>41729</v>
+            <v>41727</v>
           </cell>
           <cell r="B305" t="str">
-            <v>Donations</v>
+            <v>Networking</v>
           </cell>
           <cell r="C305">
-            <v>3</v>
+            <v>14.35</v>
           </cell>
         </row>
         <row r="306">
@@ -4248,10 +4264,10 @@
             <v>41729</v>
           </cell>
           <cell r="B306" t="str">
-            <v>Donations</v>
+            <v>Rent</v>
           </cell>
           <cell r="C306">
-            <v>2.5</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="307">
@@ -4259,76 +4275,76 @@
             <v>41729</v>
           </cell>
           <cell r="B307" t="str">
-            <v>Networking</v>
+            <v>Donations</v>
           </cell>
           <cell r="C307">
-            <v>31.65</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="308">
           <cell r="A308">
-            <v>41730</v>
+            <v>41729</v>
           </cell>
           <cell r="B308" t="str">
-            <v>Credit One MC4850</v>
+            <v>Donations</v>
           </cell>
           <cell r="C308">
-            <v>139.5</v>
+            <v>2.5</v>
           </cell>
         </row>
         <row r="309">
           <cell r="A309">
-            <v>41730</v>
+            <v>41729</v>
           </cell>
           <cell r="B309" t="str">
-            <v>Credit One V7030</v>
+            <v>Networking</v>
           </cell>
           <cell r="C309">
-            <v>153.13</v>
+            <v>31.65</v>
           </cell>
         </row>
         <row r="310">
           <cell r="A310">
-            <v>41730</v>
+            <v>41729</v>
           </cell>
           <cell r="B310" t="str">
-            <v>Apartment Insurance (State Farm)</v>
+            <v>Go Daddy</v>
           </cell>
           <cell r="C310">
-            <v>25.25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="311">
           <cell r="A311">
-            <v>41731</v>
+            <v>41730</v>
           </cell>
           <cell r="B311" t="str">
-            <v>Consultant</v>
+            <v>Credit One MC4850</v>
           </cell>
           <cell r="C311">
-            <v>1000</v>
+            <v>139.5</v>
           </cell>
         </row>
         <row r="312">
           <cell r="A312">
-            <v>41736</v>
+            <v>41730</v>
           </cell>
           <cell r="B312" t="str">
-            <v>Food Out</v>
+            <v>Credit One V7030</v>
           </cell>
           <cell r="C312">
-            <v>41.67</v>
+            <v>153.13</v>
           </cell>
         </row>
         <row r="313">
           <cell r="A313">
-            <v>41736</v>
+            <v>41730</v>
           </cell>
           <cell r="B313" t="str">
-            <v>Food Out</v>
+            <v>Apartment Insurance (State Farm)</v>
           </cell>
           <cell r="C313">
-            <v>3.26</v>
+            <v>25.25</v>
           </cell>
         </row>
         <row r="314">
@@ -4344,13 +4360,13 @@
         </row>
         <row r="315">
           <cell r="A315">
-            <v>41732</v>
+            <v>41731</v>
           </cell>
           <cell r="B315" t="str">
-            <v>Grocery Store</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C315">
-            <v>50.15</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="316">
@@ -4358,10 +4374,10 @@
             <v>41732</v>
           </cell>
           <cell r="B316" t="str">
-            <v>Flowers</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C316">
-            <v>12.98</v>
+            <v>50.15</v>
           </cell>
         </row>
         <row r="317">
@@ -4369,10 +4385,10 @@
             <v>41732</v>
           </cell>
           <cell r="B317" t="str">
-            <v>Food Out</v>
+            <v>Flowers</v>
           </cell>
           <cell r="C317">
-            <v>15.09</v>
+            <v>12.98</v>
           </cell>
         </row>
         <row r="318">
@@ -4380,10 +4396,10 @@
             <v>41732</v>
           </cell>
           <cell r="B318" t="str">
-            <v>Networking</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C318">
-            <v>20.420000000000002</v>
+            <v>15.09</v>
           </cell>
         </row>
         <row r="319">
@@ -4391,10 +4407,10 @@
             <v>41732</v>
           </cell>
           <cell r="B319" t="str">
-            <v>Parsons</v>
+            <v>Networking</v>
           </cell>
           <cell r="C319">
-            <v>13.34</v>
+            <v>20.420000000000002</v>
           </cell>
         </row>
         <row r="320">
@@ -4402,10 +4418,10 @@
             <v>41732</v>
           </cell>
           <cell r="B320" t="str">
-            <v>Clothes</v>
+            <v>Parsons</v>
           </cell>
           <cell r="C320">
-            <v>47.6</v>
+            <v>13.34</v>
           </cell>
         </row>
         <row r="321">
@@ -4413,21 +4429,21 @@
             <v>41732</v>
           </cell>
           <cell r="B321" t="str">
-            <v>Public Transit</v>
+            <v>Clothes</v>
           </cell>
           <cell r="C321">
-            <v>3</v>
+            <v>47.6</v>
           </cell>
         </row>
         <row r="322">
           <cell r="A322">
-            <v>41733</v>
+            <v>41732</v>
           </cell>
           <cell r="B322" t="str">
-            <v>Medical</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C322">
-            <v>90</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="323">
@@ -4435,10 +4451,10 @@
             <v>41733</v>
           </cell>
           <cell r="B323" t="str">
-            <v>Grocery Store</v>
+            <v>Medical</v>
           </cell>
           <cell r="C323">
-            <v>39.67</v>
+            <v>90</v>
           </cell>
         </row>
         <row r="324">
@@ -4446,10 +4462,10 @@
             <v>41733</v>
           </cell>
           <cell r="B324" t="str">
-            <v>Wine</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C324">
-            <v>19.59</v>
+            <v>39.67</v>
           </cell>
         </row>
         <row r="325">
@@ -4457,10 +4473,10 @@
             <v>41733</v>
           </cell>
           <cell r="B325" t="str">
-            <v>Food Out</v>
+            <v>Wine</v>
           </cell>
           <cell r="C325">
-            <v>6</v>
+            <v>19.59</v>
           </cell>
         </row>
         <row r="326">
@@ -4468,10 +4484,10 @@
             <v>41733</v>
           </cell>
           <cell r="B326" t="str">
-            <v>Public Transit</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C326">
-            <v>3</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="327">
@@ -4479,21 +4495,21 @@
             <v>41733</v>
           </cell>
           <cell r="B327" t="str">
-            <v>Parsons</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C327">
-            <v>165.5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="328">
           <cell r="A328">
-            <v>41734</v>
+            <v>41733</v>
           </cell>
           <cell r="B328" t="str">
-            <v>Gas Electric</v>
+            <v>Parsons</v>
           </cell>
           <cell r="C328">
-            <v>306.62</v>
+            <v>165.5</v>
           </cell>
         </row>
         <row r="329">
@@ -4501,10 +4517,10 @@
             <v>41734</v>
           </cell>
           <cell r="B329" t="str">
-            <v>Lucille Metheny</v>
+            <v>Gas Electric</v>
           </cell>
           <cell r="C329">
-            <v>28</v>
+            <v>306.62</v>
           </cell>
         </row>
         <row r="330">
@@ -4512,10 +4528,10 @@
             <v>41734</v>
           </cell>
           <cell r="B330" t="str">
-            <v>Food Out</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C330">
-            <v>8.33</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="331">
@@ -4523,10 +4539,10 @@
             <v>41734</v>
           </cell>
           <cell r="B331" t="str">
-            <v>Public Transit</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C331">
-            <v>3</v>
+            <v>8.33</v>
           </cell>
         </row>
         <row r="332">
@@ -4537,18 +4553,18 @@
             <v>Public Transit</v>
           </cell>
           <cell r="C332">
-            <v>13.95</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="333">
           <cell r="A333">
-            <v>41735</v>
+            <v>41734</v>
           </cell>
           <cell r="B333" t="str">
-            <v>Laundry</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C333">
-            <v>16</v>
+            <v>13.95</v>
           </cell>
         </row>
         <row r="334">
@@ -4556,10 +4572,10 @@
             <v>41735</v>
           </cell>
           <cell r="B334" t="str">
-            <v>Grocery Store</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C334">
-            <v>58.7</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="335">
@@ -4567,10 +4583,10 @@
             <v>41735</v>
           </cell>
           <cell r="B335" t="str">
-            <v>Cleaning Supplies</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C335">
-            <v>10.49</v>
+            <v>58.7</v>
           </cell>
         </row>
         <row r="336">
@@ -4578,10 +4594,10 @@
             <v>41735</v>
           </cell>
           <cell r="B336" t="str">
-            <v>Parsons</v>
+            <v>Cleaning Supplies</v>
           </cell>
           <cell r="C336">
-            <v>4.99</v>
+            <v>10.49</v>
           </cell>
         </row>
         <row r="337">
@@ -4589,10 +4605,10 @@
             <v>41735</v>
           </cell>
           <cell r="B337" t="str">
-            <v>Body Care</v>
+            <v>Parsons</v>
           </cell>
           <cell r="C337">
-            <v>18.95</v>
+            <v>4.99</v>
           </cell>
         </row>
         <row r="338">
@@ -4600,10 +4616,10 @@
             <v>41735</v>
           </cell>
           <cell r="B338" t="str">
-            <v>Food Out</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C338">
-            <v>2</v>
+            <v>18.95</v>
           </cell>
         </row>
         <row r="339">
@@ -4614,18 +4630,18 @@
             <v>Food Out</v>
           </cell>
           <cell r="C339">
-            <v>10.46</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="340">
           <cell r="A340">
-            <v>41736</v>
+            <v>41735</v>
           </cell>
           <cell r="B340" t="str">
-            <v>Public Transit</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C340">
-            <v>3</v>
+            <v>10.46</v>
           </cell>
         </row>
         <row r="341">
@@ -4636,7 +4652,7 @@
             <v>Food Out</v>
           </cell>
           <cell r="C341">
-            <v>20.54</v>
+            <v>41.67</v>
           </cell>
         </row>
         <row r="342">
@@ -4644,10 +4660,10 @@
             <v>41736</v>
           </cell>
           <cell r="B342" t="str">
-            <v>Body Care</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C342">
-            <v>34.6</v>
+            <v>3.26</v>
           </cell>
         </row>
         <row r="343">
@@ -4655,10 +4671,10 @@
             <v>41736</v>
           </cell>
           <cell r="B343" t="str">
-            <v>Body Care</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C343">
-            <v>10</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="344">
@@ -4666,10 +4682,10 @@
             <v>41736</v>
           </cell>
           <cell r="B344" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C344">
-            <v>22.88</v>
+            <v>20.54</v>
           </cell>
         </row>
         <row r="345">
@@ -4677,10 +4693,10 @@
             <v>41736</v>
           </cell>
           <cell r="B345" t="str">
-            <v>Food Out</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C345">
-            <v>36.67</v>
+            <v>34.6</v>
           </cell>
         </row>
         <row r="346">
@@ -4688,10 +4704,10 @@
             <v>41736</v>
           </cell>
           <cell r="B346" t="str">
-            <v>Food Out</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C346">
-            <v>3</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="347">
@@ -4699,9 +4715,42 @@
             <v>41736</v>
           </cell>
           <cell r="B347" t="str">
+            <v>Grocery Store</v>
+          </cell>
+          <cell r="C347">
+            <v>22.88</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="A348">
+            <v>41736</v>
+          </cell>
+          <cell r="B348" t="str">
             <v>Food Out</v>
           </cell>
-          <cell r="C347">
+          <cell r="C348">
+            <v>36.67</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="A349">
+            <v>41736</v>
+          </cell>
+          <cell r="B349" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C349">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="A350">
+            <v>41736</v>
+          </cell>
+          <cell r="B350" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C350">
             <v>3.26</v>
           </cell>
         </row>
@@ -5001,7 +5050,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5305,349 +5355,368 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2C0C1C-0C1B-0F47-B63F-0FE5E619F129}">
   <sheetPr codeName="Sheet6" filterMode="1"/>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="1" max="1" width="18" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="15"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="4">
         <v>41703</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="3">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D2" s="6">
-        <f>(C2-B2)*24</f>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2:D19" si="0">(C2-B2)*24</f>
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="4">
         <v>41709</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="3">
         <v>0.51388888888888895</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D3" s="6">
-        <f>(C3-B3)*24</f>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
         <v>4.9999999999999982</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="4">
         <v>41710</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>0.51388888888888895</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>0.68055555555555547</v>
       </c>
-      <c r="D4" s="6">
-        <f>(C4-B4)*24</f>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
         <v>3.9999999999999964</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="4">
         <v>41711</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="3">
         <v>0.51388888888888895</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D5" s="6">
-        <f>(C5-B5)*24</f>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
         <v>3.6666666666666643</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>41712</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>0.5180555555555556</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>0.65138888888888891</v>
       </c>
-      <c r="D6" s="6">
-        <f>(C6-B6)*24</f>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
         <v>3.1999999999999993</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>41716</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="3">
         <v>0.52222222222222225</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>0.68055555555555547</v>
       </c>
-      <c r="D7" s="6">
-        <f>(C7-B7)*24</f>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
         <v>3.7999999999999972</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="4">
         <v>41717</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>0.69166666666666676</v>
       </c>
-      <c r="D8" s="6">
-        <f>(C8-B8)*24</f>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
         <v>1.1000000000000014</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="4">
         <v>41717</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="3">
         <v>0.53472222222222221</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>0.625</v>
       </c>
-      <c r="D9" s="6">
-        <f>(C9-B9)*24</f>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
         <v>2.166666666666667</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="4">
         <v>41719</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>0.51250000000000007</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>0.67569444444444438</v>
       </c>
-      <c r="D10" s="6">
-        <f>(C10-B10)*24</f>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
         <v>3.9166666666666634</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="4">
         <v>41723</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="3">
         <v>0.51180555555555551</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>0.68263888888888891</v>
       </c>
-      <c r="D11" s="6">
-        <f>(C11-B11)*24</f>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
         <v>4.1000000000000014</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="4">
         <v>41724</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <v>0.52430555555555558</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>0.69097222222222221</v>
       </c>
-      <c r="D12" s="6">
-        <f>(C12-B12)*24</f>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
         <v>3.9999999999999991</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="4">
         <v>41725</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="3">
         <v>0.6645833333333333</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>0.69236111111111109</v>
       </c>
-      <c r="D13" s="6">
-        <f>(C13-B13)*24</f>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
         <v>0.66666666666666696</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="4">
         <v>41727</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>0.67222222222222217</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>0.73541666666666661</v>
       </c>
-      <c r="D14" s="6">
-        <f>(C14-B14)*24</f>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
         <v>1.5166666666666666</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="4">
         <v>41730</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="3">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>0.5541666666666667</v>
       </c>
-      <c r="D15" s="6">
-        <f>(C15-B15)*24</f>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
         <v>3.9666666666666672</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="4">
         <v>41731</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <v>0.39930555555555558</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>0.55069444444444449</v>
       </c>
-      <c r="D16" s="6">
-        <f>(C16-B16)*24</f>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
         <v>3.6333333333333337</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="13" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="4">
         <v>41733</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>0.52152777777777781</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>0.6069444444444444</v>
       </c>
-      <c r="D17" s="6">
-        <f>(C17-B17)*24</f>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
         <v>2.049999999999998</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+    <row r="18" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>41737</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <v>0.52430555555555558</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>0.69166666666666676</v>
       </c>
-      <c r="D18" s="6">
-        <f>(C18-B18)*24</f>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
         <v>4.0166666666666684</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>41738</v>
       </c>
       <c r="B19" s="3">
         <v>0.54236111111111118</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5666666666666647</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>43206</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.51597222222222217</v>
       </c>
     </row>
   </sheetData>
@@ -5668,230 +5737,246 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93AF818-D70E-9E47-9D21-C62781B34393}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="13" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
+      <c r="A2" s="7">
         <v>41703</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="6">
         <v>-10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+      <c r="A3" s="7">
         <v>41703</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+      <c r="A4" s="7">
         <v>41704</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="6">
         <v>-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+      <c r="A5" s="7">
         <v>41709</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="6">
         <v>-12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+      <c r="A6" s="7">
         <v>41709</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="14">
+      <c r="A7" s="7">
         <v>41710</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="6">
         <v>-10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="14">
+      <c r="A8" s="7">
         <v>41710</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="6">
         <v>20</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="8">
         <f>SUM(B:B)</f>
-        <v>21.45</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="14">
+      <c r="A9" s="7">
         <v>41711</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="14">
+      <c r="A10" s="7">
         <v>41712</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="6">
         <v>-10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="14">
+      <c r="A11" s="7">
         <v>41716</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="6">
         <v>-3.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="14">
+      <c r="A12" s="7">
         <v>41716</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="14">
+      <c r="A13" s="7">
         <v>41716</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="6">
         <v>-13.05</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="14">
+      <c r="A14" s="7">
         <v>41717</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="6">
         <v>-7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="14">
+      <c r="A15" s="7">
         <v>41717</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="14">
+      <c r="A16" s="7">
         <v>41719</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="6">
         <v>-7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="14">
+      <c r="A17" s="7">
         <v>41723</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="6">
         <v>-7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="14">
+      <c r="A18" s="7">
         <v>41723</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="6">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="14">
+      <c r="A19" s="7">
         <v>41723</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="6">
         <v>-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="14">
+      <c r="A20" s="7">
         <v>41724</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="6">
         <v>-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="14">
+      <c r="A21" s="7">
         <v>41730</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="6">
         <v>-7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="14">
+      <c r="A22" s="7">
         <v>41731</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="6">
         <v>-7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="14">
+      <c r="A23" s="7">
         <v>41737</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="6">
         <v>-7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="14">
+      <c r="A24" s="7">
         <v>41737</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="14">
+      <c r="A25" s="7">
         <v>41737</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="6">
         <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="7">
+        <v>43200</v>
+      </c>
+      <c r="B26" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="7">
+        <v>43206</v>
+      </c>
+      <c r="B27" s="6">
+        <v>-7</v>
       </c>
     </row>
   </sheetData>

--- a/Juan Alduey (Time Log and Petty Cash).xlsx
+++ b/Juan Alduey (Time Log and Petty Cash).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FBAB5D3C-4AD0-C742-8B56-9B7721AD0205}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB65E6E8-402D-1A41-8DEB-03943C596AF7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15840" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Refactoring code, submitting time log, determining git workflow</t>
   </si>
@@ -105,15 +105,25 @@
   <si>
     <t>Refactoring code, updating cecilia's spreadsheet, 3 month average printout of numbers</t>
   </si>
+  <si>
+    <t>fixed "clear filters" button (added error handling). Went over bills (jan to march) with cecilia to note how they were paid.</t>
+  </si>
+  <si>
+    <t>fixing note functions</t>
+  </si>
+  <si>
+    <t>Fixing note functions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -186,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -211,6 +221,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,17 +730,6 @@
             <v>2252</v>
           </cell>
         </row>
-        <row r="43">
-          <cell r="A43">
-            <v>41706</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C43">
-            <v>2252</v>
-          </cell>
-        </row>
         <row r="44">
           <cell r="A44">
             <v>41707</v>
@@ -871,13 +875,13 @@
         </row>
         <row r="57">
           <cell r="A57">
-            <v>41730</v>
+            <v>41739</v>
           </cell>
           <cell r="B57" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C57">
-            <v>139.5</v>
+            <v>490.75</v>
           </cell>
         </row>
         <row r="58">
@@ -900,6 +904,50 @@
           </cell>
           <cell r="C59">
             <v>1000</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>41739</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C60">
+            <v>562.25</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>41739</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C61">
+            <v>380.67</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>41739</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C62">
+            <v>43.4</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>41727</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>The New School</v>
+          </cell>
+          <cell r="C63">
+            <v>2293.67</v>
           </cell>
         </row>
       </sheetData>
@@ -3491,13 +3539,13 @@
         </row>
         <row r="236">
           <cell r="A236">
-            <v>41710</v>
+            <v>41711</v>
           </cell>
           <cell r="B236" t="str">
-            <v>Grocery Store</v>
+            <v>Cablevision</v>
           </cell>
           <cell r="C236">
-            <v>28.29</v>
+            <v>169.46</v>
           </cell>
         </row>
         <row r="237">
@@ -3505,32 +3553,32 @@
             <v>41711</v>
           </cell>
           <cell r="B237" t="str">
-            <v>Cablevision</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C237">
-            <v>169.46</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238">
-            <v>41711</v>
+            <v>41713</v>
           </cell>
           <cell r="B238" t="str">
-            <v>Consultant</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C238">
-            <v>20</v>
+            <v>92.7</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239">
-            <v>41713</v>
+            <v>41714</v>
           </cell>
           <cell r="B239" t="str">
-            <v>Body Care</v>
+            <v>Cleaning Supplies</v>
           </cell>
           <cell r="C239">
-            <v>92.7</v>
+            <v>22.76</v>
           </cell>
         </row>
         <row r="240">
@@ -3538,10 +3586,10 @@
             <v>41714</v>
           </cell>
           <cell r="B240" t="str">
-            <v>Cleaning Supplies</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C240">
-            <v>22.76</v>
+            <v>3.95</v>
           </cell>
         </row>
         <row r="241">
@@ -3549,21 +3597,21 @@
             <v>41714</v>
           </cell>
           <cell r="B241" t="str">
-            <v>Food Out</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C241">
-            <v>3.95</v>
+            <v>110.56</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242">
-            <v>41714</v>
+            <v>41715</v>
           </cell>
           <cell r="B242" t="str">
-            <v>Grocery Store</v>
+            <v>Donations</v>
           </cell>
           <cell r="C242">
-            <v>110.56</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="243">
@@ -3574,7 +3622,7 @@
             <v>Donations</v>
           </cell>
           <cell r="C243">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="244">
@@ -3593,10 +3641,10 @@
             <v>41715</v>
           </cell>
           <cell r="B245" t="str">
-            <v>Donations</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C245">
-            <v>2</v>
+            <v>10.78</v>
           </cell>
         </row>
         <row r="246">
@@ -3607,7 +3655,7 @@
             <v>Food Out</v>
           </cell>
           <cell r="C246">
-            <v>10.78</v>
+            <v>3.26</v>
           </cell>
         </row>
         <row r="247">
@@ -3615,10 +3663,10 @@
             <v>41715</v>
           </cell>
           <cell r="B247" t="str">
-            <v>Food Out</v>
+            <v>Networking</v>
           </cell>
           <cell r="C247">
-            <v>3.26</v>
+            <v>39.200000000000003</v>
           </cell>
         </row>
         <row r="248">
@@ -3626,10 +3674,10 @@
             <v>41715</v>
           </cell>
           <cell r="B248" t="str">
-            <v>Networking</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C248">
-            <v>39.200000000000003</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="249">
@@ -3637,10 +3685,10 @@
             <v>41715</v>
           </cell>
           <cell r="B249" t="str">
-            <v>Public Transit</v>
+            <v>Taxi</v>
           </cell>
           <cell r="C249">
-            <v>3</v>
+            <v>9.36</v>
           </cell>
         </row>
         <row r="250">
@@ -3648,32 +3696,32 @@
             <v>41715</v>
           </cell>
           <cell r="B250" t="str">
-            <v>Taxi</v>
+            <v>Housekeeper</v>
           </cell>
           <cell r="C250">
-            <v>9.36</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251">
-            <v>41715</v>
+            <v>41716</v>
           </cell>
           <cell r="B251" t="str">
-            <v>Housekeeper</v>
+            <v>Office Supplies</v>
           </cell>
           <cell r="C251">
-            <v>100</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252">
-            <v>41716</v>
+            <v>41717</v>
           </cell>
           <cell r="B252" t="str">
-            <v>Office Supplies</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C252">
-            <v>10</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="253">
@@ -3681,10 +3729,10 @@
             <v>41717</v>
           </cell>
           <cell r="B253" t="str">
-            <v>Consultant</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C253">
-            <v>15</v>
+            <v>2.71</v>
           </cell>
         </row>
         <row r="254">
@@ -3692,21 +3740,21 @@
             <v>41717</v>
           </cell>
           <cell r="B254" t="str">
-            <v>Food Out</v>
+            <v>Office Supplies</v>
           </cell>
           <cell r="C254">
-            <v>2.71</v>
+            <v>24.98</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255">
-            <v>41717</v>
+            <v>41719</v>
           </cell>
           <cell r="B255" t="str">
-            <v>Office Supplies</v>
+            <v>Cell Phone</v>
           </cell>
           <cell r="C255">
-            <v>24.98</v>
+            <v>132.53</v>
           </cell>
         </row>
         <row r="256">
@@ -3714,10 +3762,10 @@
             <v>41719</v>
           </cell>
           <cell r="B256" t="str">
-            <v>Cell Phone</v>
+            <v>Household Furnishings</v>
           </cell>
           <cell r="C256">
-            <v>132.53</v>
+            <v>62.99</v>
           </cell>
         </row>
         <row r="257">
@@ -3725,10 +3773,10 @@
             <v>41719</v>
           </cell>
           <cell r="B257" t="str">
-            <v>Household Furnishings</v>
+            <v>Storage</v>
           </cell>
           <cell r="C257">
-            <v>62.99</v>
+            <v>98.33</v>
           </cell>
         </row>
         <row r="258">
@@ -3736,10 +3784,10 @@
             <v>41719</v>
           </cell>
           <cell r="B258" t="str">
-            <v>Storage</v>
+            <v>Gas Electric</v>
           </cell>
           <cell r="C258">
-            <v>98.33</v>
+            <v>238.15</v>
           </cell>
         </row>
         <row r="259">
@@ -3747,21 +3795,21 @@
             <v>41719</v>
           </cell>
           <cell r="B259" t="str">
-            <v>Gas Electric</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C259">
-            <v>238.15</v>
+            <v>39.29</v>
           </cell>
         </row>
         <row r="260">
           <cell r="A260">
-            <v>41719</v>
+            <v>41720</v>
           </cell>
           <cell r="B260" t="str">
-            <v>Food Out</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C260">
-            <v>39.29</v>
+            <v>72.599999999999994</v>
           </cell>
         </row>
         <row r="261">
@@ -3772,7 +3820,7 @@
             <v>Body Care</v>
           </cell>
           <cell r="C261">
-            <v>72.599999999999994</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="262">
@@ -3780,10 +3828,10 @@
             <v>41720</v>
           </cell>
           <cell r="B262" t="str">
-            <v>Body Care</v>
+            <v>Networking</v>
           </cell>
           <cell r="C262">
-            <v>20</v>
+            <v>5.93</v>
           </cell>
         </row>
         <row r="263">
@@ -3791,10 +3839,10 @@
             <v>41720</v>
           </cell>
           <cell r="B263" t="str">
-            <v>Networking</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C263">
-            <v>5.93</v>
+            <v>5.99</v>
           </cell>
         </row>
         <row r="264">
@@ -3805,7 +3853,7 @@
             <v>Grocery Store</v>
           </cell>
           <cell r="C264">
-            <v>5.99</v>
+            <v>100</v>
           </cell>
         </row>
         <row r="265">
@@ -3813,10 +3861,10 @@
             <v>41720</v>
           </cell>
           <cell r="B265" t="str">
-            <v>Grocery Store</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C265">
-            <v>100</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="266">
@@ -3824,10 +3872,10 @@
             <v>41720</v>
           </cell>
           <cell r="B266" t="str">
-            <v>Laundry</v>
+            <v>Networking</v>
           </cell>
           <cell r="C266">
-            <v>24</v>
+            <v>63.7</v>
           </cell>
         </row>
         <row r="267">
@@ -3838,7 +3886,7 @@
             <v>Networking</v>
           </cell>
           <cell r="C267">
-            <v>63.7</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="268">
@@ -3846,10 +3894,10 @@
             <v>41720</v>
           </cell>
           <cell r="B268" t="str">
-            <v>Networking</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C268">
-            <v>15</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="269">
@@ -3857,10 +3905,10 @@
             <v>41720</v>
           </cell>
           <cell r="B269" t="str">
-            <v>Public Transit</v>
+            <v>Business Travel</v>
           </cell>
           <cell r="C269">
-            <v>3</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="270">
@@ -3871,7 +3919,7 @@
             <v>Business Travel</v>
           </cell>
           <cell r="C270">
-            <v>9</v>
+            <v>15.35</v>
           </cell>
         </row>
         <row r="271">
@@ -3879,10 +3927,10 @@
             <v>41720</v>
           </cell>
           <cell r="B271" t="str">
-            <v>Business Travel</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C271">
-            <v>15.35</v>
+            <v>60.6</v>
           </cell>
         </row>
         <row r="272">
@@ -3893,18 +3941,18 @@
             <v>Body Care</v>
           </cell>
           <cell r="C272">
-            <v>60.6</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273">
-            <v>41720</v>
+            <v>41721</v>
           </cell>
           <cell r="B273" t="str">
             <v>Body Care</v>
           </cell>
           <cell r="C273">
-            <v>12</v>
+            <v>129.56</v>
           </cell>
         </row>
         <row r="274">
@@ -3915,7 +3963,7 @@
             <v>Body Care</v>
           </cell>
           <cell r="C274">
-            <v>129.56</v>
+            <v>18.98</v>
           </cell>
         </row>
         <row r="275">
@@ -3923,10 +3971,10 @@
             <v>41721</v>
           </cell>
           <cell r="B275" t="str">
-            <v>Body Care</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C275">
-            <v>18.98</v>
+            <v>16.07</v>
           </cell>
         </row>
         <row r="276">
@@ -3934,10 +3982,10 @@
             <v>41721</v>
           </cell>
           <cell r="B276" t="str">
-            <v>Food Out</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C276">
-            <v>16.07</v>
+            <v>72.959999999999994</v>
           </cell>
         </row>
         <row r="277">
@@ -3945,10 +3993,10 @@
             <v>41721</v>
           </cell>
           <cell r="B277" t="str">
-            <v>Grocery Store</v>
+            <v>Household Furnishings</v>
           </cell>
           <cell r="C277">
-            <v>72.959999999999994</v>
+            <v>28.29</v>
           </cell>
         </row>
         <row r="278">
@@ -3956,10 +4004,10 @@
             <v>41721</v>
           </cell>
           <cell r="B278" t="str">
-            <v>Household Furnishings</v>
+            <v>Over the counter (OTC)</v>
           </cell>
           <cell r="C278">
-            <v>28.29</v>
+            <v>69.36</v>
           </cell>
         </row>
         <row r="279">
@@ -3967,10 +4015,10 @@
             <v>41721</v>
           </cell>
           <cell r="B279" t="str">
-            <v>Over the counter (OTC)</v>
+            <v>Office Supplies</v>
           </cell>
           <cell r="C279">
-            <v>69.36</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="280">
@@ -3978,10 +4026,10 @@
             <v>41721</v>
           </cell>
           <cell r="B280" t="str">
-            <v>Office Supplies</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C280">
-            <v>16</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="281">
@@ -3989,10 +4037,10 @@
             <v>41721</v>
           </cell>
           <cell r="B281" t="str">
-            <v>Public Transit</v>
+            <v>Flowers</v>
           </cell>
           <cell r="C281">
-            <v>3</v>
+            <v>21.65</v>
           </cell>
         </row>
         <row r="282">
@@ -4000,10 +4048,10 @@
             <v>41721</v>
           </cell>
           <cell r="B282" t="str">
-            <v>Flowers</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C282">
-            <v>21.65</v>
+            <v>18.88</v>
           </cell>
         </row>
         <row r="283">
@@ -4011,10 +4059,10 @@
             <v>41721</v>
           </cell>
           <cell r="B283" t="str">
-            <v>Body Care</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C283">
-            <v>18.88</v>
+            <v>24</v>
           </cell>
         </row>
         <row r="284">
@@ -4022,15 +4070,15 @@
             <v>41721</v>
           </cell>
           <cell r="B284" t="str">
-            <v>Laundry</v>
+            <v>Household Furnishings</v>
           </cell>
           <cell r="C284">
-            <v>24</v>
+            <v>16.329999999999998</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285">
-            <v>41721</v>
+            <v>41723</v>
           </cell>
           <cell r="B285" t="str">
             <v>Networking</v>
@@ -4041,13 +4089,13 @@
         </row>
         <row r="286">
           <cell r="A286">
-            <v>41721</v>
+            <v>41723</v>
           </cell>
           <cell r="B286" t="str">
-            <v>Household Furnishings</v>
+            <v>Flowers</v>
           </cell>
           <cell r="C286">
-            <v>16.329999999999998</v>
+            <v>21.65</v>
           </cell>
         </row>
         <row r="287">
@@ -4055,43 +4103,37 @@
             <v>41723</v>
           </cell>
           <cell r="B287" t="str">
-            <v>Networking</v>
+            <v>Parsons</v>
           </cell>
           <cell r="C287">
-            <v>60.26</v>
+            <v>9.35</v>
           </cell>
         </row>
         <row r="288">
           <cell r="A288">
-            <v>41723</v>
-          </cell>
-          <cell r="B288" t="str">
-            <v>Flowers</v>
+            <v>41724</v>
           </cell>
           <cell r="C288">
-            <v>21.65</v>
+            <v>13.32</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289">
-            <v>41723</v>
+            <v>41724</v>
           </cell>
           <cell r="B289" t="str">
-            <v>Parsons</v>
+            <v>Cleaning Supplies</v>
           </cell>
           <cell r="C289">
-            <v>9.35</v>
+            <v>14.99</v>
           </cell>
         </row>
         <row r="290">
           <cell r="A290">
             <v>41724</v>
           </cell>
-          <cell r="B290" t="str">
-            <v>Flowers</v>
-          </cell>
           <cell r="C290">
-            <v>13.32</v>
+            <v>1.99</v>
           </cell>
         </row>
         <row r="291">
@@ -4099,10 +4141,10 @@
             <v>41724</v>
           </cell>
           <cell r="B291" t="str">
-            <v>Cleaning Supplies</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C291">
-            <v>14.99</v>
+            <v>30.3</v>
           </cell>
         </row>
         <row r="292">
@@ -4110,21 +4152,21 @@
             <v>41724</v>
           </cell>
           <cell r="B292" t="str">
-            <v>Body Care</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C292">
-            <v>1.99</v>
+            <v>70</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293">
-            <v>41724</v>
+            <v>41725</v>
           </cell>
           <cell r="B293" t="str">
-            <v>Grocery Store</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C293">
-            <v>30.3</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="294">
@@ -4132,10 +4174,10 @@
             <v>41725</v>
           </cell>
           <cell r="B294" t="str">
-            <v>Bank Fee</v>
+            <v>Gardening</v>
           </cell>
           <cell r="C294">
-            <v>3</v>
+            <v>190.67</v>
           </cell>
         </row>
         <row r="295">
@@ -4143,21 +4185,21 @@
             <v>41725</v>
           </cell>
           <cell r="B295" t="str">
-            <v>Gardening</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C295">
-            <v>190.67</v>
+            <v>62.49</v>
           </cell>
         </row>
         <row r="296">
           <cell r="A296">
-            <v>41725</v>
+            <v>41726</v>
           </cell>
           <cell r="B296" t="str">
-            <v>Grocery Store</v>
+            <v>CHASE Amazon v5475</v>
           </cell>
           <cell r="C296">
-            <v>62.49</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="297">
@@ -4165,10 +4207,10 @@
             <v>41726</v>
           </cell>
           <cell r="B297" t="str">
-            <v>CHASE Amazon v5475</v>
+            <v>Bank Fee</v>
           </cell>
           <cell r="C297">
-            <v>500</v>
+            <v>1.5</v>
           </cell>
         </row>
         <row r="298">
@@ -4176,10 +4218,10 @@
             <v>41726</v>
           </cell>
           <cell r="B298" t="str">
-            <v>Bank Fee</v>
+            <v>First Premier MC 3141</v>
           </cell>
           <cell r="C298">
-            <v>1.5</v>
+            <v>346.22</v>
           </cell>
         </row>
         <row r="299">
@@ -4187,21 +4229,21 @@
             <v>41726</v>
           </cell>
           <cell r="B299" t="str">
-            <v>First Premier MC 3141</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C299">
-            <v>346.22</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="300">
           <cell r="A300">
-            <v>41726</v>
+            <v>41727</v>
           </cell>
           <cell r="B300" t="str">
-            <v>Public Transit</v>
+            <v>Parsons</v>
           </cell>
           <cell r="C300">
-            <v>3</v>
+            <v>39.14</v>
           </cell>
         </row>
         <row r="301">
@@ -4209,10 +4251,10 @@
             <v>41727</v>
           </cell>
           <cell r="B301" t="str">
-            <v>Parsons</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C301">
-            <v>39.14</v>
+            <v>8.84</v>
           </cell>
         </row>
         <row r="302">
@@ -4220,10 +4262,10 @@
             <v>41727</v>
           </cell>
           <cell r="B302" t="str">
-            <v>Food Out</v>
+            <v>household Furnishings</v>
           </cell>
           <cell r="C302">
-            <v>8.84</v>
+            <v>9.3000000000000007</v>
           </cell>
         </row>
         <row r="303">
@@ -4231,10 +4273,10 @@
             <v>41727</v>
           </cell>
           <cell r="B303" t="str">
-            <v>household Furnishings</v>
+            <v>Federal Taxes</v>
           </cell>
           <cell r="C303">
-            <v>9.3000000000000007</v>
+            <v>108.53</v>
           </cell>
         </row>
         <row r="304">
@@ -4242,21 +4284,21 @@
             <v>41727</v>
           </cell>
           <cell r="B304" t="str">
-            <v>Federal Taxes</v>
+            <v>Networking</v>
           </cell>
           <cell r="C304">
-            <v>108.53</v>
+            <v>14.35</v>
           </cell>
         </row>
         <row r="305">
           <cell r="A305">
-            <v>41727</v>
+            <v>41729</v>
           </cell>
           <cell r="B305" t="str">
-            <v>Networking</v>
+            <v>Rent</v>
           </cell>
           <cell r="C305">
-            <v>14.35</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="306">
@@ -4264,10 +4306,10 @@
             <v>41729</v>
           </cell>
           <cell r="B306" t="str">
-            <v>Rent</v>
+            <v>Donations</v>
           </cell>
           <cell r="C306">
-            <v>1000</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="307">
@@ -4278,7 +4320,7 @@
             <v>Donations</v>
           </cell>
           <cell r="C307">
-            <v>3</v>
+            <v>2.5</v>
           </cell>
         </row>
         <row r="308">
@@ -4286,10 +4328,10 @@
             <v>41729</v>
           </cell>
           <cell r="B308" t="str">
-            <v>Donations</v>
+            <v>Networking</v>
           </cell>
           <cell r="C308">
-            <v>2.5</v>
+            <v>31.65</v>
           </cell>
         </row>
         <row r="309">
@@ -4297,21 +4339,21 @@
             <v>41729</v>
           </cell>
           <cell r="B309" t="str">
-            <v>Networking</v>
+            <v>Go Daddy</v>
           </cell>
           <cell r="C309">
-            <v>31.65</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="310">
           <cell r="A310">
-            <v>41729</v>
+            <v>41730</v>
           </cell>
           <cell r="B310" t="str">
-            <v>Go Daddy</v>
+            <v>Credit One MC4850</v>
           </cell>
           <cell r="C310">
-            <v>15</v>
+            <v>139.5</v>
           </cell>
         </row>
         <row r="311">
@@ -4319,10 +4361,10 @@
             <v>41730</v>
           </cell>
           <cell r="B311" t="str">
-            <v>Credit One MC4850</v>
+            <v>Credit One V7030</v>
           </cell>
           <cell r="C311">
-            <v>139.5</v>
+            <v>153.13</v>
           </cell>
         </row>
         <row r="312">
@@ -4330,10 +4372,10 @@
             <v>41730</v>
           </cell>
           <cell r="B312" t="str">
-            <v>Credit One V7030</v>
+            <v>Apartment Insurance (State Farm)</v>
           </cell>
           <cell r="C312">
-            <v>153.13</v>
+            <v>25.25</v>
           </cell>
         </row>
         <row r="313">
@@ -4341,32 +4383,32 @@
             <v>41730</v>
           </cell>
           <cell r="B313" t="str">
-            <v>Apartment Insurance (State Farm)</v>
+            <v>Google Cloud Service</v>
           </cell>
           <cell r="C313">
-            <v>25.25</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="314">
           <cell r="A314">
-            <v>41730</v>
+            <v>41731</v>
           </cell>
           <cell r="B314" t="str">
-            <v>Google Cloud Service</v>
+            <v>Consultant</v>
           </cell>
           <cell r="C314">
-            <v>15</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="315">
           <cell r="A315">
-            <v>41731</v>
+            <v>41732</v>
           </cell>
           <cell r="B315" t="str">
-            <v>Consultant</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C315">
-            <v>1000</v>
+            <v>50.15</v>
           </cell>
         </row>
         <row r="316">
@@ -4374,10 +4416,10 @@
             <v>41732</v>
           </cell>
           <cell r="B316" t="str">
-            <v>Grocery Store</v>
+            <v>Flowers</v>
           </cell>
           <cell r="C316">
-            <v>50.15</v>
+            <v>12.98</v>
           </cell>
         </row>
         <row r="317">
@@ -4385,10 +4427,10 @@
             <v>41732</v>
           </cell>
           <cell r="B317" t="str">
-            <v>Flowers</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C317">
-            <v>12.98</v>
+            <v>15.09</v>
           </cell>
         </row>
         <row r="318">
@@ -4396,10 +4438,10 @@
             <v>41732</v>
           </cell>
           <cell r="B318" t="str">
-            <v>Food Out</v>
+            <v>Networking</v>
           </cell>
           <cell r="C318">
-            <v>15.09</v>
+            <v>20.420000000000002</v>
           </cell>
         </row>
         <row r="319">
@@ -4407,10 +4449,10 @@
             <v>41732</v>
           </cell>
           <cell r="B319" t="str">
-            <v>Networking</v>
+            <v>Parsons</v>
           </cell>
           <cell r="C319">
-            <v>20.420000000000002</v>
+            <v>13.34</v>
           </cell>
         </row>
         <row r="320">
@@ -4418,10 +4460,10 @@
             <v>41732</v>
           </cell>
           <cell r="B320" t="str">
-            <v>Parsons</v>
+            <v>Clothes</v>
           </cell>
           <cell r="C320">
-            <v>13.34</v>
+            <v>47.6</v>
           </cell>
         </row>
         <row r="321">
@@ -4429,21 +4471,21 @@
             <v>41732</v>
           </cell>
           <cell r="B321" t="str">
-            <v>Clothes</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C321">
-            <v>47.6</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="322">
           <cell r="A322">
-            <v>41732</v>
+            <v>41733</v>
           </cell>
           <cell r="B322" t="str">
-            <v>Public Transit</v>
+            <v>Medical</v>
           </cell>
           <cell r="C322">
-            <v>3</v>
+            <v>90</v>
           </cell>
         </row>
         <row r="323">
@@ -4451,10 +4493,10 @@
             <v>41733</v>
           </cell>
           <cell r="B323" t="str">
-            <v>Medical</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C323">
-            <v>90</v>
+            <v>39.67</v>
           </cell>
         </row>
         <row r="324">
@@ -4462,10 +4504,10 @@
             <v>41733</v>
           </cell>
           <cell r="B324" t="str">
-            <v>Grocery Store</v>
+            <v>Wine</v>
           </cell>
           <cell r="C324">
-            <v>39.67</v>
+            <v>19.59</v>
           </cell>
         </row>
         <row r="325">
@@ -4473,10 +4515,10 @@
             <v>41733</v>
           </cell>
           <cell r="B325" t="str">
-            <v>Wine</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C325">
-            <v>19.59</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="326">
@@ -4484,10 +4526,10 @@
             <v>41733</v>
           </cell>
           <cell r="B326" t="str">
-            <v>Food Out</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C326">
-            <v>6</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="327">
@@ -4495,21 +4537,21 @@
             <v>41733</v>
           </cell>
           <cell r="B327" t="str">
-            <v>Public Transit</v>
+            <v>Networking</v>
           </cell>
           <cell r="C327">
-            <v>3</v>
+            <v>165.5</v>
           </cell>
         </row>
         <row r="328">
           <cell r="A328">
-            <v>41733</v>
+            <v>41734</v>
           </cell>
           <cell r="B328" t="str">
-            <v>Parsons</v>
+            <v>Gas Electric</v>
           </cell>
           <cell r="C328">
-            <v>165.5</v>
+            <v>306.62</v>
           </cell>
         </row>
         <row r="329">
@@ -4517,10 +4559,10 @@
             <v>41734</v>
           </cell>
           <cell r="B329" t="str">
-            <v>Gas Electric</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C329">
-            <v>306.62</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="330">
@@ -4528,10 +4570,10 @@
             <v>41734</v>
           </cell>
           <cell r="B330" t="str">
-            <v>Lucille Metheny</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C330">
-            <v>28</v>
+            <v>8.33</v>
           </cell>
         </row>
         <row r="331">
@@ -4539,10 +4581,10 @@
             <v>41734</v>
           </cell>
           <cell r="B331" t="str">
-            <v>Food Out</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C331">
-            <v>8.33</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="332">
@@ -4553,18 +4595,18 @@
             <v>Public Transit</v>
           </cell>
           <cell r="C332">
-            <v>3</v>
+            <v>13.95</v>
           </cell>
         </row>
         <row r="333">
           <cell r="A333">
-            <v>41734</v>
+            <v>41735</v>
           </cell>
           <cell r="B333" t="str">
-            <v>Public Transit</v>
+            <v>Laundry</v>
           </cell>
           <cell r="C333">
-            <v>13.95</v>
+            <v>16</v>
           </cell>
         </row>
         <row r="334">
@@ -4572,10 +4614,10 @@
             <v>41735</v>
           </cell>
           <cell r="B334" t="str">
-            <v>Laundry</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C334">
-            <v>16</v>
+            <v>58.7</v>
           </cell>
         </row>
         <row r="335">
@@ -4583,10 +4625,10 @@
             <v>41735</v>
           </cell>
           <cell r="B335" t="str">
-            <v>Grocery Store</v>
+            <v>Cleaning Supplies</v>
           </cell>
           <cell r="C335">
-            <v>58.7</v>
+            <v>10.49</v>
           </cell>
         </row>
         <row r="336">
@@ -4594,10 +4636,10 @@
             <v>41735</v>
           </cell>
           <cell r="B336" t="str">
-            <v>Cleaning Supplies</v>
+            <v>Parsons</v>
           </cell>
           <cell r="C336">
-            <v>10.49</v>
+            <v>4.99</v>
           </cell>
         </row>
         <row r="337">
@@ -4605,10 +4647,10 @@
             <v>41735</v>
           </cell>
           <cell r="B337" t="str">
-            <v>Parsons</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C337">
-            <v>4.99</v>
+            <v>18.95</v>
           </cell>
         </row>
         <row r="338">
@@ -4616,10 +4658,10 @@
             <v>41735</v>
           </cell>
           <cell r="B338" t="str">
-            <v>Body Care</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C338">
-            <v>18.95</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="339">
@@ -4630,18 +4672,18 @@
             <v>Food Out</v>
           </cell>
           <cell r="C339">
-            <v>2</v>
+            <v>10.46</v>
           </cell>
         </row>
         <row r="340">
           <cell r="A340">
-            <v>41735</v>
+            <v>41736</v>
           </cell>
           <cell r="B340" t="str">
             <v>Food Out</v>
           </cell>
           <cell r="C340">
-            <v>10.46</v>
+            <v>41.67</v>
           </cell>
         </row>
         <row r="341">
@@ -4652,7 +4694,7 @@
             <v>Food Out</v>
           </cell>
           <cell r="C341">
-            <v>41.67</v>
+            <v>3.26</v>
           </cell>
         </row>
         <row r="342">
@@ -4660,10 +4702,10 @@
             <v>41736</v>
           </cell>
           <cell r="B342" t="str">
-            <v>Food Out</v>
+            <v>Public Transit</v>
           </cell>
           <cell r="C342">
-            <v>3.26</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="343">
@@ -4671,10 +4713,10 @@
             <v>41736</v>
           </cell>
           <cell r="B343" t="str">
-            <v>Public Transit</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C343">
-            <v>3</v>
+            <v>20.54</v>
           </cell>
         </row>
         <row r="344">
@@ -4682,10 +4724,10 @@
             <v>41736</v>
           </cell>
           <cell r="B344" t="str">
-            <v>Food Out</v>
+            <v>Body Care</v>
           </cell>
           <cell r="C344">
-            <v>20.54</v>
+            <v>34.6</v>
           </cell>
         </row>
         <row r="345">
@@ -4696,7 +4738,7 @@
             <v>Body Care</v>
           </cell>
           <cell r="C345">
-            <v>34.6</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="346">
@@ -4704,10 +4746,10 @@
             <v>41736</v>
           </cell>
           <cell r="B346" t="str">
-            <v>Body Care</v>
+            <v>Grocery Store</v>
           </cell>
           <cell r="C346">
-            <v>10</v>
+            <v>22.88</v>
           </cell>
         </row>
         <row r="347">
@@ -4715,10 +4757,10 @@
             <v>41736</v>
           </cell>
           <cell r="B347" t="str">
-            <v>Grocery Store</v>
+            <v>Food Out</v>
           </cell>
           <cell r="C347">
-            <v>22.88</v>
+            <v>38.67</v>
           </cell>
         </row>
         <row r="348">
@@ -4729,7 +4771,7 @@
             <v>Food Out</v>
           </cell>
           <cell r="C348">
-            <v>36.67</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="349">
@@ -4740,18 +4782,246 @@
             <v>Food Out</v>
           </cell>
           <cell r="C349">
-            <v>3</v>
+            <v>3.26</v>
           </cell>
         </row>
         <row r="350">
           <cell r="A350">
-            <v>41736</v>
+            <v>41737</v>
           </cell>
           <cell r="B350" t="str">
+            <v>Life Insurance (AARP)</v>
+          </cell>
+          <cell r="C350">
+            <v>26.38</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="A351">
+            <v>41737</v>
+          </cell>
+          <cell r="B351" t="str">
+            <v>Taxi</v>
+          </cell>
+          <cell r="C351">
+            <v>13.56</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="A352">
+            <v>41737</v>
+          </cell>
+          <cell r="B352" t="str">
+            <v>Wine</v>
+          </cell>
+          <cell r="C352">
+            <v>19.59</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="A353">
+            <v>41737</v>
+          </cell>
+          <cell r="B353" t="str">
+            <v>Medical</v>
+          </cell>
+          <cell r="C353">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="A354">
+            <v>41738</v>
+          </cell>
+          <cell r="B354" t="str">
+            <v>Grocery Store</v>
+          </cell>
+          <cell r="C354">
+            <v>51.98</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="A355">
+            <v>41738</v>
+          </cell>
+          <cell r="B355" t="str">
+            <v>Over the counter (OTC)</v>
+          </cell>
+          <cell r="C355">
+            <v>11.98</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="A356">
+            <v>41738</v>
+          </cell>
+          <cell r="B356" t="str">
+            <v>Public Transit</v>
+          </cell>
+          <cell r="C356">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="A357">
+            <v>41738</v>
+          </cell>
+          <cell r="C357">
+            <v>53.93</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="A358">
+            <v>41738</v>
+          </cell>
+          <cell r="B358" t="str">
             <v>Food Out</v>
           </cell>
-          <cell r="C350">
-            <v>3.26</v>
+          <cell r="C358">
+            <v>10.69</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="A359">
+            <v>41739</v>
+          </cell>
+          <cell r="B359" t="str">
+            <v>Medical</v>
+          </cell>
+          <cell r="C359">
+            <v>110.57</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="A360">
+            <v>41739</v>
+          </cell>
+          <cell r="B360" t="str">
+            <v>Public Transit</v>
+          </cell>
+          <cell r="C360">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="A361">
+            <v>41739</v>
+          </cell>
+          <cell r="B361" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C361">
+            <v>12.72</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="A362">
+            <v>41739</v>
+          </cell>
+          <cell r="B362" t="str">
+            <v>Consultant</v>
+          </cell>
+          <cell r="C362">
+            <v>562.25</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="A363">
+            <v>41739</v>
+          </cell>
+          <cell r="B363" t="str">
+            <v>Taxi</v>
+          </cell>
+          <cell r="C363">
+            <v>15.35</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="A364">
+            <v>41739</v>
+          </cell>
+          <cell r="B364" t="str">
+            <v>Gift</v>
+          </cell>
+          <cell r="C364">
+            <v>14.15</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="A365">
+            <v>41739</v>
+          </cell>
+          <cell r="B365" t="str">
+            <v>Cell Phone</v>
+          </cell>
+          <cell r="C365">
+            <v>133.53</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="A366">
+            <v>41739</v>
+          </cell>
+          <cell r="B366" t="str">
+            <v>Accessories</v>
+          </cell>
+          <cell r="C366">
+            <v>380.67</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="A367">
+            <v>41739</v>
+          </cell>
+          <cell r="B367" t="str">
+            <v>Accessories</v>
+          </cell>
+          <cell r="C367">
+            <v>43.4</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="A368">
+            <v>41739</v>
+          </cell>
+          <cell r="B368" t="str">
+            <v>Entertainment Subscription</v>
+          </cell>
+          <cell r="C368">
+            <v>1.61</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="A369">
+            <v>41739</v>
+          </cell>
+          <cell r="B369" t="str">
+            <v>Entertainment Subscription</v>
+          </cell>
+          <cell r="C369">
+            <v>4.99</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="A370">
+            <v>41739</v>
+          </cell>
+          <cell r="B370" t="str">
+            <v>Public Transit</v>
+          </cell>
+          <cell r="C370">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="A371">
+            <v>41740</v>
+          </cell>
+          <cell r="B371" t="str">
+            <v>Office Supplies</v>
+          </cell>
+          <cell r="C371">
+            <v>38.520000000000003</v>
           </cell>
         </row>
       </sheetData>
@@ -5050,8 +5320,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5355,17 +5625,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2C0C1C-0C1B-0F47-B63F-0FE5E619F129}">
   <sheetPr codeName="Sheet6" filterMode="1"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" style="15" customWidth="1"/>
     <col min="2" max="2" width="16" style="15" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="15"/>
+    <col min="3" max="3" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
     <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
   </cols>
@@ -5398,7 +5668,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D19" si="0">(C2-B2)*24</f>
+        <f t="shared" ref="D2:D23" si="0">(C2-B2)*24</f>
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -5711,13 +5981,94 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>43206</v>
       </c>
       <c r="B20" s="3">
         <v>0.51597222222222217</v>
       </c>
+      <c r="C20" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2166666666666686</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>43207</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.4284722222222222</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6333333333333329</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>43207</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.52013888888888882</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.68680555555555556</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000018</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>43208</v>
+      </c>
+      <c r="B23" s="3">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3999999999999997</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>43215</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.56736111111111109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E18" xr:uid="{83D46876-B0DE-D146-A3B3-758CD4F9A470}">
@@ -5737,10 +6088,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93AF818-D70E-9E47-9D21-C62781B34393}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5821,7 +6172,7 @@
       </c>
       <c r="F8" s="8">
         <f>SUM(B:B)</f>
-        <v>11.45</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -5977,6 +6328,30 @@
       </c>
       <c r="B27" s="6">
         <v>-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="18">
+        <v>43206</v>
+      </c>
+      <c r="B28" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="7">
+        <v>43207</v>
+      </c>
+      <c r="B29" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="7">
+        <v>43207</v>
+      </c>
+      <c r="B30" s="6">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>

--- a/Juan Alduey (Time Log and Petty Cash).xlsx
+++ b/Juan Alduey (Time Log and Petty Cash).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB65E6E8-402D-1A41-8DEB-03943C596AF7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{71A4F3EA-8CDA-824E-8586-5D969F422DD7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15840" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15840" activeTab="1" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLog" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Refactoring code, submitting time log, determining git workflow</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Fixing note functions</t>
+  </si>
+  <si>
+    <t>fix note functions and update links warning message</t>
   </si>
 </sst>
 </file>
@@ -5627,8 +5630,8 @@
   <sheetPr codeName="Sheet6" filterMode="1"/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -5668,7 +5671,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D23" si="0">(C2-B2)*24</f>
+        <f t="shared" ref="D2:D24" si="0">(C2-B2)*24</f>
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -6053,12 +6056,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>43215</v>
       </c>
       <c r="B24" s="3">
-        <v>0.56736111111111109</v>
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.65069444444444446</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666661</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>43216</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -6088,10 +6109,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93AF818-D70E-9E47-9D21-C62781B34393}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6172,7 +6193,7 @@
       </c>
       <c r="F8" s="8">
         <f>SUM(B:B)</f>
-        <v>25.45</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -6352,6 +6373,14 @@
       </c>
       <c r="B30" s="6">
         <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="7">
+        <v>43216</v>
+      </c>
+      <c r="B31" s="6">
+        <v>-7</v>
       </c>
     </row>
   </sheetData>

--- a/Juan Alduey (Time Log and Petty Cash).xlsx
+++ b/Juan Alduey (Time Log and Petty Cash).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{71A4F3EA-8CDA-824E-8586-5D969F422DD7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{76FA4691-D726-BC46-AF3A-1CC6FA704EC5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15840" activeTab="1" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15840" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLog" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Refactoring code, submitting time log, determining git workflow</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>fix note functions and update links warning message</t>
+  </si>
+  <si>
+    <t>Fixed visa, date, and category buttons, plus data validation issue with LM transactions.</t>
   </si>
 </sst>
 </file>
@@ -944,10 +947,10 @@
         </row>
         <row r="63">
           <cell r="A63">
-            <v>41727</v>
+            <v>41752</v>
           </cell>
           <cell r="B63" t="str">
-            <v>The New School</v>
+            <v>CeMe</v>
           </cell>
           <cell r="C63">
             <v>2293.67</v>
@@ -5025,6 +5028,17 @@
           </cell>
           <cell r="C371">
             <v>38.520000000000003</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="A372">
+            <v>41753</v>
+          </cell>
+          <cell r="B372" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C372">
+            <v>35</v>
           </cell>
         </row>
       </sheetData>
@@ -5630,8 +5644,8 @@
   <sheetPr codeName="Sheet6" filterMode="1"/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -5671,7 +5685,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D24" si="0">(C2-B2)*24</f>
+        <f t="shared" ref="D2:D25" si="0">(C2-B2)*24</f>
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -6074,12 +6088,30 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>43216</v>
       </c>
       <c r="B25" s="3">
         <v>0.52083333333333337</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.67083333333333339</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000005</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>43220</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.44236111111111115</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -6111,7 +6143,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/Juan Alduey (Time Log and Petty Cash).xlsx
+++ b/Juan Alduey (Time Log and Petty Cash).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{76FA4691-D726-BC46-AF3A-1CC6FA704EC5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF477952-70D2-A348-9C0D-A6170322D373}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15840" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
+    <workbookView xWindow="2840" yWindow="2520" windowWidth="27640" windowHeight="15840" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLog" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Refactoring code, submitting time log, determining git workflow</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>Fixed visa, date, and category buttons, plus data validation issue with LM transactions.</t>
+  </si>
+  <si>
+    <t>Collapsed LM transactions into one step.</t>
+  </si>
+  <si>
+    <t>Errorhandling for LM transactions</t>
+  </si>
+  <si>
+    <t>Errorhandling for LM transactions; Clarifying CM requests</t>
   </si>
 </sst>
 </file>
@@ -202,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -232,6 +241,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,6 +746,17 @@
             <v>2252</v>
           </cell>
         </row>
+        <row r="43">
+          <cell r="A43">
+            <v>41758</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Grocery Store</v>
+          </cell>
+          <cell r="C43">
+            <v>80</v>
+          </cell>
+        </row>
         <row r="44">
           <cell r="A44">
             <v>41707</v>
@@ -954,6 +975,303 @@
           </cell>
           <cell r="C63">
             <v>2293.67</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>41757</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C64">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>41756</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C65">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>41758</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C66">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>41758</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C67">
+            <v>600</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>41756</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C68">
+            <v>900</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>41756</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C69">
+            <v>980</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>41758</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C70">
+            <v>999</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>41758</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C71">
+            <v>2454</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>41758</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C72">
+            <v>333</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>41757</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C73">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>41757</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C74">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>41757</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C75">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>41757</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C76">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>41757</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C77">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>41761</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C78">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>41760</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C79">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>41759</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C80">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>41759</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C81">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>41760</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C82">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>41760</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C83">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>41761</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C84">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>41760</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C85">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>41761</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C86">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>41759</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C87">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>41759</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C88">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>41656</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C89">
+            <v>72.8</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>41656</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C90">
+            <v>72.8</v>
           </cell>
         </row>
       </sheetData>
@@ -5032,12 +5350,221 @@
         </row>
         <row r="372">
           <cell r="A372">
-            <v>41753</v>
+            <v>41739</v>
           </cell>
           <cell r="B372" t="str">
             <v>Food Out</v>
           </cell>
           <cell r="C372">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="A373">
+            <v>41757</v>
+          </cell>
+          <cell r="B373" t="str">
+            <v>Grocery Store</v>
+          </cell>
+          <cell r="C373">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="A374">
+            <v>41756</v>
+          </cell>
+          <cell r="B374" t="str">
+            <v>Business Travel</v>
+          </cell>
+          <cell r="C374">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="A375">
+            <v>41758</v>
+          </cell>
+          <cell r="B375" t="str">
+            <v>Grocery Store</v>
+          </cell>
+          <cell r="C375">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="A376">
+            <v>41758</v>
+          </cell>
+          <cell r="B376" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C376">
+            <v>600</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="A377">
+            <v>41756</v>
+          </cell>
+          <cell r="B377" t="str">
+            <v>Office Supplies</v>
+          </cell>
+          <cell r="C377">
+            <v>900</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="A378">
+            <v>41756</v>
+          </cell>
+          <cell r="B378" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C378">
+            <v>980</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="A379">
+            <v>41758</v>
+          </cell>
+          <cell r="B379" t="str">
+            <v>Grocery Store</v>
+          </cell>
+          <cell r="C379">
+            <v>999</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="A380">
+            <v>41758</v>
+          </cell>
+          <cell r="B380" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C380">
+            <v>2454</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="A381">
+            <v>41758</v>
+          </cell>
+          <cell r="B381" t="str">
+            <v>Office Supplies</v>
+          </cell>
+          <cell r="C381">
+            <v>333</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="A382">
+            <v>41757</v>
+          </cell>
+          <cell r="B382" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C382">
+            <v>1200</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="A383">
+            <v>41761</v>
+          </cell>
+          <cell r="B383" t="str">
+            <v>food Out</v>
+          </cell>
+          <cell r="C383">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="A384">
+            <v>41760</v>
+          </cell>
+          <cell r="B384" t="str">
+            <v>Grocery Store</v>
+          </cell>
+          <cell r="C384">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="A385">
+            <v>41759</v>
+          </cell>
+          <cell r="B385" t="str">
+            <v>Public Transit</v>
+          </cell>
+          <cell r="C385">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="A386">
+            <v>41759</v>
+          </cell>
+          <cell r="B386" t="str">
+            <v>Grocery Store</v>
+          </cell>
+          <cell r="C386">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="A387">
+            <v>41760</v>
+          </cell>
+          <cell r="B387" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C387">
+            <v>95</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="A388">
+            <v>41761</v>
+          </cell>
+          <cell r="B388" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C388">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="A389">
+            <v>41760</v>
+          </cell>
+          <cell r="B389" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C389">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="A390">
+            <v>41761</v>
+          </cell>
+          <cell r="B390" t="str">
+            <v>Food Out</v>
+          </cell>
+          <cell r="C390">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="A391">
+            <v>41759</v>
+          </cell>
+          <cell r="B391" t="str">
+            <v>Public Transit</v>
+          </cell>
+          <cell r="C391">
             <v>35</v>
           </cell>
         </row>
@@ -5644,8 +6171,8 @@
   <sheetPr codeName="Sheet6" filterMode="1"/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -5685,7 +6212,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D25" si="0">(C2-B2)*24</f>
+        <f t="shared" ref="D2:D28" si="0">(C2-B2)*24</f>
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -6106,19 +6633,59 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>43220</v>
       </c>
       <c r="B26" s="3">
         <v>0.44236111111111115</v>
       </c>
+      <c r="C26" s="3">
+        <v>0.62569444444444444</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3999999999999986</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="19">
+        <v>43223</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.49583333333333335</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5666666666666664</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
+    <row r="28" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>43223</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.52638888888888891</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.60555555555555551</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8999999999999986</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>

--- a/Juan Alduey (Time Log and Petty Cash).xlsx
+++ b/Juan Alduey (Time Log and Petty Cash).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF477952-70D2-A348-9C0D-A6170322D373}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BA566C2-A5F5-3C43-9E77-CB86ADB079D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2520" windowWidth="27640" windowHeight="15840" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
+    <workbookView xWindow="1160" yWindow="920" windowWidth="27640" windowHeight="15840" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLog" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Refactoring code, submitting time log, determining git workflow</t>
   </si>
@@ -129,6 +129,9 @@
   <si>
     <t>Errorhandling for LM transactions; Clarifying CM requests</t>
   </si>
+  <si>
+    <t>Transferred Credit cards to LM. Discussed issue of splitting consulting fees between LM and CM. Updated CM spreadsheet with error handling.</t>
+  </si>
 </sst>
 </file>
 
@@ -211,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -236,12 +239,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,6 +1276,61 @@
             <v>72.8</v>
           </cell>
         </row>
+        <row r="91">
+          <cell r="A91">
+            <v>41656</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C91">
+            <v>72.8</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>41656</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C92">
+            <v>72.8</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>41656</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C93">
+            <v>72.8</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>41656</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C94">
+            <v>72.8</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>41656</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C95">
+            <v>72.8</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="1">
@@ -5864,8 +5921,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6169,10 +6226,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2C0C1C-0C1B-0F47-B63F-0FE5E619F129}">
   <sheetPr codeName="Sheet6" filterMode="1"/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -6212,7 +6269,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D28" si="0">(C2-B2)*24</f>
+        <f t="shared" ref="D2:D30" si="0">(C2-B2)*24</f>
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -6652,7 +6709,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>43223</v>
       </c>
       <c r="B27" s="3">
@@ -6670,7 +6727,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
+      <c r="A28" s="18">
         <v>43223</v>
       </c>
       <c r="B28" s="3">
@@ -6687,8 +6744,41 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <v>43223</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.69027777777777777</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666483</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>43227</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>3.8666666666666663</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E18" xr:uid="{83D46876-B0DE-D146-A3B3-758CD4F9A470}">
@@ -6702,6 +6792,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6951,7 +7042,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <v>43206</v>
       </c>
       <c r="B28" s="6">

--- a/Juan Alduey (Time Log and Petty Cash).xlsx
+++ b/Juan Alduey (Time Log and Petty Cash).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ceciliametheny/repos/ceciliametheny/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BA566C2-A5F5-3C43-9E77-CB86ADB079D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{480D1397-5F89-5744-B4CA-88E6B69158F2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="920" windowWidth="27640" windowHeight="15840" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
+    <workbookView xWindow="1160" yWindow="880" windowWidth="27640" windowHeight="15840" xr2:uid="{33F21683-6D57-0047-AE38-A532DA1E1845}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeLog" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,11 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Petty Cash Envelope'!$A$1:$C$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TimeLog!$A$1:$E$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TimeLog!$A$1:$E$38</definedName>
     <definedName name="expenseAmtLog">[1]Expenses!$C:$C</definedName>
     <definedName name="ExpenseCatLog">[1]Expenses!$B:$B</definedName>
     <definedName name="expenseDateLog">[1]Expenses!$A:$A</definedName>
-    <definedName name="expenses">'[1]Categories and Stats'!$G$2:$G$56</definedName>
+    <definedName name="expenses">'[1]Categories and Stats'!$I$2:$I$56</definedName>
     <definedName name="income">'[1]Categories and Stats'!$B$2:$B$7</definedName>
     <definedName name="IncomeAmtLog">[1]Income!$C:$C</definedName>
     <definedName name="IncomeCatLog">[1]Income!$B:$B</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Refactoring code, submitting time log, determining git workflow</t>
   </si>
@@ -132,16 +132,56 @@
   <si>
     <t>Transferred Credit cards to LM. Discussed issue of splitting consulting fees between LM and CM. Updated CM spreadsheet with error handling.</t>
   </si>
+  <si>
+    <t>Email with suggestions on how best to use remaining time.</t>
+  </si>
+  <si>
+    <t>Cecilia's bio, dynamic drop-downs.</t>
+  </si>
+  <si>
+    <t>Spending and income plans</t>
+  </si>
+  <si>
+    <t>Spending and income plans, cascading drop downs, numbers print-out</t>
+  </si>
+  <si>
+    <t>Cascading dropdowns, creditcard purchase log, Google Home</t>
+  </si>
+  <si>
+    <t>Cascading dropdowns and buttons for Credit Card tab, CeMe business cards</t>
+  </si>
+  <si>
+    <t>Conference: One Size Does Not Fit All.</t>
+  </si>
+  <si>
+    <t>Email forwarding account set-up (GoDaddy). Report on conference. Purchase of USB drives, Toner, and Business Cards.</t>
+  </si>
+  <si>
+    <t>Getting and delivering business cards</t>
+  </si>
+  <si>
+    <t>Cascading dropdowns, creditcard purchase log, Business Spreadsheet, Ceme-design.com.</t>
+  </si>
+  <si>
+    <t>Ceme-design.com, Business spreadsheet.</t>
+  </si>
+  <si>
+    <t>GoDaddy Payment History</t>
+  </si>
+  <si>
+    <t>Spreadsheet updates</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -214,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -240,9 +280,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -280,9 +324,11 @@
     <sheetNames>
       <sheetName val="Income"/>
       <sheetName val="Expenses"/>
+      <sheetName val="Credit Card Purchases"/>
       <sheetName val="Categories and Stats"/>
+      <sheetName val="Yearly Spending Plan"/>
       <sheetName val="DebitCredit Card Bank Acct Data"/>
-      <sheetName val="3 Month Average"/>
+      <sheetName val="Personal Category Dropdowns"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -332,79 +378,79 @@
         </row>
         <row r="5">
           <cell r="A5">
-            <v>41647</v>
+            <v>41646</v>
           </cell>
           <cell r="B5" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C5">
-            <v>25</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>41652</v>
+            <v>41647</v>
           </cell>
           <cell r="B6" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C6">
-            <v>26.87</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>41655</v>
+            <v>41652</v>
           </cell>
           <cell r="B7" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C7">
-            <v>202.23</v>
+            <v>26.87</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>41658</v>
+            <v>41655</v>
           </cell>
           <cell r="B8" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C8">
-            <v>8.7100000000000009</v>
+            <v>202.23</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>41659</v>
+            <v>41658</v>
           </cell>
           <cell r="B9" t="str">
-            <v>Social Security</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C9">
-            <v>940</v>
+            <v>8.7100000000000009</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>41660</v>
+            <v>41659</v>
           </cell>
           <cell r="B10" t="str">
-            <v>Lucille Metheny</v>
+            <v>Social Security</v>
           </cell>
           <cell r="C10">
-            <v>61.61</v>
+            <v>940</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>41664</v>
+            <v>41660</v>
           </cell>
           <cell r="B11" t="str">
-            <v>The New School</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C11">
-            <v>1542.07</v>
+            <v>61.61</v>
           </cell>
         </row>
         <row r="12">
@@ -412,10 +458,10 @@
             <v>41664</v>
           </cell>
           <cell r="B12" t="str">
-            <v>Lucille Metheny</v>
+            <v>The New School</v>
           </cell>
           <cell r="C12">
-            <v>28.06</v>
+            <v>1542.07</v>
           </cell>
         </row>
         <row r="13">
@@ -426,95 +472,95 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C13">
-            <v>400</v>
+            <v>28.06</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>41665</v>
+            <v>41664</v>
           </cell>
           <cell r="B14" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C14">
-            <v>152.41999999999999</v>
+            <v>400</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>41675</v>
+            <v>41665</v>
           </cell>
           <cell r="B15" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C15">
-            <v>1000</v>
+            <v>152.41999999999999</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>41677</v>
+            <v>41675</v>
           </cell>
           <cell r="B16" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C16">
-            <v>93.51</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>41679</v>
+            <v>41677</v>
           </cell>
           <cell r="B17" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C17">
-            <v>19.23</v>
+            <v>93.51</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>41679</v>
+            <v>41677</v>
           </cell>
           <cell r="B18" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C18">
-            <v>181.82</v>
+            <v>154.44999999999999</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>41680</v>
+            <v>41679</v>
           </cell>
           <cell r="B19" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C19">
-            <v>77.52</v>
+            <v>19.23</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>41681</v>
+            <v>41679</v>
           </cell>
           <cell r="B20" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C20">
-            <v>48.38</v>
+            <v>181.82</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>41681</v>
+            <v>41680</v>
           </cell>
           <cell r="B21" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C21">
-            <v>17.29</v>
+            <v>77.52</v>
           </cell>
         </row>
         <row r="22">
@@ -525,7 +571,7 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C22">
-            <v>18.5</v>
+            <v>48.38</v>
           </cell>
         </row>
         <row r="23">
@@ -536,7 +582,7 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C23">
-            <v>19.899999999999999</v>
+            <v>17.29</v>
           </cell>
         </row>
         <row r="24">
@@ -547,117 +593,117 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C24">
-            <v>28.38</v>
+            <v>18.5</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>41682</v>
+            <v>41681</v>
           </cell>
           <cell r="B25" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C25">
-            <v>19.059999999999999</v>
+            <v>19.899999999999999</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>41683</v>
+            <v>41681</v>
           </cell>
           <cell r="B26" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C26">
-            <v>61.7</v>
+            <v>28.38</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>41683</v>
+            <v>41682</v>
           </cell>
           <cell r="B27" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C27">
-            <v>96.57</v>
+            <v>19.059999999999999</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>41690</v>
+            <v>41683</v>
           </cell>
           <cell r="B28" t="str">
-            <v>Social Security</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C28">
-            <v>928</v>
+            <v>61.7</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>41692</v>
+            <v>41683</v>
           </cell>
           <cell r="B29" t="str">
-            <v>Bank Interest</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C29">
-            <v>0.02</v>
+            <v>96.57</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>41692</v>
+            <v>41690</v>
           </cell>
           <cell r="B30" t="str">
-            <v>The New School</v>
+            <v>Social Security</v>
           </cell>
           <cell r="C30">
-            <v>2293.6799999999998</v>
+            <v>928</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>41695</v>
+            <v>41692</v>
           </cell>
           <cell r="B31" t="str">
-            <v>Lucille Metheny</v>
+            <v>Bank Interest</v>
           </cell>
           <cell r="C31">
-            <v>26.94</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>41698</v>
+            <v>41692</v>
           </cell>
           <cell r="B32" t="str">
-            <v>Lucille Metheny</v>
+            <v>The New School</v>
           </cell>
           <cell r="C32">
-            <v>1000</v>
+            <v>2293.6799999999998</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>41701</v>
+            <v>41695</v>
           </cell>
           <cell r="B33" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C33">
-            <v>12.36</v>
+            <v>26.94</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>41701</v>
+            <v>41698</v>
           </cell>
           <cell r="B34" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C34">
-            <v>12.96</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="35">
@@ -684,24 +730,24 @@
         </row>
         <row r="37">
           <cell r="A37">
-            <v>41702</v>
+            <v>41701</v>
           </cell>
           <cell r="B37" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C37">
-            <v>77.31</v>
+            <v>12.36</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>41702</v>
+            <v>41701</v>
           </cell>
           <cell r="B38" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C38">
-            <v>79.19</v>
+            <v>12.96</v>
           </cell>
         </row>
         <row r="39">
@@ -712,51 +758,51 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C39">
-            <v>6.99</v>
+            <v>77.31</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>41703</v>
+            <v>41702</v>
           </cell>
           <cell r="B40" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C40">
-            <v>102.5</v>
+            <v>79.19</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>41703</v>
+            <v>41702</v>
           </cell>
           <cell r="B41" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C41">
-            <v>1000</v>
+            <v>6.99</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>41706</v>
+            <v>41703</v>
           </cell>
           <cell r="B42" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C42">
-            <v>2252</v>
+            <v>102.5</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>41758</v>
+            <v>41706</v>
           </cell>
           <cell r="B43" t="str">
-            <v>Grocery Store</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C43">
-            <v>80</v>
+            <v>2252</v>
           </cell>
         </row>
         <row r="44">
@@ -783,145 +829,145 @@
         </row>
         <row r="46">
           <cell r="A46">
-            <v>41713</v>
+            <v>41711</v>
           </cell>
           <cell r="B46" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C46">
-            <v>21.65</v>
+            <v>169.46</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>41714</v>
+            <v>41713</v>
           </cell>
           <cell r="B47" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C47">
-            <v>133.22</v>
+            <v>21.65</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>41718</v>
+            <v>41714</v>
           </cell>
           <cell r="B48" t="str">
-            <v>Social Security</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C48">
-            <v>928</v>
+            <v>133.22</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>41721</v>
+            <v>41718</v>
           </cell>
           <cell r="B49" t="str">
-            <v>Lucille Metheny</v>
+            <v>Social Security</v>
           </cell>
           <cell r="C49">
-            <v>129.56</v>
+            <v>928</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>41723</v>
+            <v>41720</v>
           </cell>
           <cell r="B50" t="str">
-            <v>Lucille Metheny</v>
+            <v>Bank Interest</v>
           </cell>
           <cell r="C50">
-            <v>60.26</v>
+            <v>0.02</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>41723</v>
+            <v>41721</v>
           </cell>
           <cell r="B51" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C51">
-            <v>9.35</v>
+            <v>129.56</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>41724</v>
+            <v>41723</v>
           </cell>
           <cell r="B52" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C52">
-            <v>62.49</v>
+            <v>60.26</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>41725</v>
+            <v>41723</v>
           </cell>
           <cell r="B53" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C53">
-            <v>190.67</v>
+            <v>9.35</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>41726</v>
+            <v>41724</v>
           </cell>
           <cell r="B54" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C54">
-            <v>346.22</v>
+            <v>62.49</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>41727</v>
+            <v>41725</v>
           </cell>
           <cell r="B55" t="str">
-            <v>CHASE Amazon v5475</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C55">
-            <v>500</v>
+            <v>190.67</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>41729</v>
+            <v>41727</v>
           </cell>
           <cell r="B56" t="str">
-            <v>Lucille Metheny</v>
+            <v>CHASE Amazon v5475</v>
           </cell>
           <cell r="C56">
-            <v>1000</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>41739</v>
+            <v>41727</v>
           </cell>
           <cell r="B57" t="str">
-            <v>Lucille Metheny</v>
+            <v>The New School</v>
           </cell>
           <cell r="C57">
-            <v>490.75</v>
+            <v>2293.67</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>41730</v>
+            <v>41729</v>
           </cell>
           <cell r="B58" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C58">
-            <v>153.13</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="59">
@@ -937,13 +983,13 @@
         </row>
         <row r="60">
           <cell r="A60">
-            <v>41739</v>
+            <v>41737</v>
           </cell>
           <cell r="B60" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C60">
-            <v>562.25</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="61">
@@ -954,7 +1000,7 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C61">
-            <v>380.67</v>
+            <v>490.75</v>
           </cell>
         </row>
         <row r="62">
@@ -965,84 +1011,84 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C62">
-            <v>43.4</v>
+            <v>562.25</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>41752</v>
+            <v>41739</v>
           </cell>
           <cell r="B63" t="str">
-            <v>CeMe</v>
+            <v>Lucille Metheny</v>
           </cell>
           <cell r="C63">
-            <v>2293.67</v>
+            <v>380.67</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>41757</v>
+            <v>41745</v>
           </cell>
           <cell r="B64" t="str">
-            <v>Lucille Metheny</v>
+            <v>Refund</v>
           </cell>
           <cell r="C64">
-            <v>90</v>
+            <v>17.350000000000001</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>41756</v>
+            <v>41746</v>
           </cell>
           <cell r="B65" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C65">
-            <v>100</v>
+            <v>43.4</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>41758</v>
+            <v>41746</v>
           </cell>
           <cell r="B66" t="str">
-            <v>Lucille Metheny</v>
+            <v>Social Security</v>
           </cell>
           <cell r="C66">
-            <v>300</v>
+            <v>928</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>41758</v>
+            <v>41751</v>
           </cell>
           <cell r="B67" t="str">
-            <v>Lucille Metheny</v>
+            <v>Bank Interest</v>
           </cell>
           <cell r="C67">
-            <v>600</v>
+            <v>0.03</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>41756</v>
+            <v>41755</v>
           </cell>
           <cell r="B68" t="str">
-            <v>Lucille Metheny</v>
+            <v>The New School</v>
           </cell>
           <cell r="C68">
-            <v>900</v>
+            <v>2293.67</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>41756</v>
+            <v>41758</v>
           </cell>
           <cell r="B69" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C69">
-            <v>980</v>
+            <v>89</v>
           </cell>
         </row>
         <row r="70">
@@ -1053,282 +1099,303 @@
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C70">
-            <v>999</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>41758</v>
+            <v>41759</v>
           </cell>
           <cell r="B71" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C71">
-            <v>2454</v>
+            <v>137.55000000000001</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>41758</v>
+            <v>41759</v>
           </cell>
           <cell r="B72" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C72">
-            <v>333</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>41757</v>
+            <v>41774</v>
           </cell>
           <cell r="B73" t="str">
-            <v>Lucille Metheny</v>
+            <v>Social Security</v>
           </cell>
           <cell r="C73">
-            <v>1200</v>
+            <v>928</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>41757</v>
+            <v>41778</v>
           </cell>
           <cell r="B74" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C74">
-            <v>1200</v>
+            <v>10.42</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>41757</v>
+            <v>41778</v>
           </cell>
           <cell r="B75" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C75">
-            <v>1200</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>41757</v>
+            <v>41778</v>
           </cell>
           <cell r="B76" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C76">
-            <v>1200</v>
+            <v>25</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>41757</v>
+            <v>41781</v>
           </cell>
           <cell r="B77" t="str">
-            <v>Lucille Metheny</v>
+            <v>Bank Interest</v>
           </cell>
           <cell r="C77">
-            <v>1200</v>
+            <v>0.05</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>41761</v>
+            <v>41788</v>
           </cell>
           <cell r="B78" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C78">
-            <v>100</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>41760</v>
+            <v>41795</v>
           </cell>
           <cell r="B79" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C79">
-            <v>300</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>41759</v>
+            <v>41795</v>
           </cell>
           <cell r="B80" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C80">
-            <v>45</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>41759</v>
+            <v>41796</v>
           </cell>
           <cell r="B81" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C81">
-            <v>90</v>
+            <v>876.87</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>41760</v>
+            <v>41801</v>
           </cell>
           <cell r="B82" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C82">
-            <v>95</v>
+            <v>9.57</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>41760</v>
+            <v>41801</v>
           </cell>
           <cell r="B83" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C83">
-            <v>95</v>
+            <v>707.34</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>41761</v>
+            <v>41803</v>
           </cell>
           <cell r="B84" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C84">
-            <v>200</v>
+            <v>89.98</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>41760</v>
+            <v>41804</v>
           </cell>
           <cell r="B85" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C85">
-            <v>300</v>
+            <v>500</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>41761</v>
+            <v>41805</v>
           </cell>
           <cell r="B86" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C86">
-            <v>120</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>41759</v>
+            <v>41805</v>
           </cell>
           <cell r="B87" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C87">
-            <v>35</v>
+            <v>7.77</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>41759</v>
+            <v>41807</v>
           </cell>
           <cell r="B88" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C88">
-            <v>35</v>
+            <v>76.319999999999993</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>41656</v>
+            <v>41808</v>
           </cell>
           <cell r="B89" t="str">
             <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C89">
-            <v>72.8</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>41656</v>
+            <v>41808</v>
           </cell>
           <cell r="B90" t="str">
             <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C90">
-            <v>72.8</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>41656</v>
+            <v>41808</v>
           </cell>
           <cell r="B91" t="str">
             <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C91">
-            <v>72.8</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>41656</v>
+            <v>41808</v>
           </cell>
           <cell r="B92" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C92">
-            <v>72.8</v>
+            <v>116.47</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>41656</v>
+            <v>41808</v>
           </cell>
           <cell r="B93" t="str">
             <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C93">
-            <v>72.8</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>41656</v>
+            <v>41808</v>
           </cell>
           <cell r="B94" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C94">
-            <v>72.8</v>
+            <v>15.05</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>41656</v>
+            <v>41808</v>
           </cell>
           <cell r="B95" t="str">
             <v>Lucille Metheny</v>
           </cell>
           <cell r="C95">
-            <v>72.8</v>
+            <v>4.6500000000000004</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>41809</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>Social Security</v>
+          </cell>
+          <cell r="C96">
+            <v>928</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>41811</v>
+          </cell>
+          <cell r="B97" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C97">
+            <v>308.14</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>41814</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+          <cell r="C98">
+            <v>1500</v>
           </cell>
         </row>
       </sheetData>
@@ -1341,4588 +1408,4232 @@
             <v>Category</v>
           </cell>
           <cell r="C1" t="str">
-            <v>Amount</v>
+            <v>Subcategory</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2">
-            <v>41639</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Go Daddy</v>
-          </cell>
-          <cell r="C2">
-            <v>15</v>
+            <v>41640</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Apartment Insurance (State Farm)</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
             <v>41640</v>
           </cell>
-          <cell r="B3" t="str">
-            <v>Google Cloud Service</v>
-          </cell>
-          <cell r="C3">
-            <v>15</v>
+          <cell r="C3" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>41640</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C4">
-            <v>74.489999999999995</v>
+            <v>41641</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>41640</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Apartment Insurance (State Farm)</v>
-          </cell>
-          <cell r="C5">
-            <v>25.25</v>
+            <v>41641</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Medical</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
             <v>41641</v>
           </cell>
-          <cell r="B6" t="str">
-            <v>JetBlue MC 3965</v>
-          </cell>
-          <cell r="C6">
-            <v>50</v>
+          <cell r="C6" t="str">
+            <v>Wine</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>41641</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Wine</v>
-          </cell>
-          <cell r="C7">
-            <v>14.55</v>
+            <v>41643</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>41641</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C8">
-            <v>43.09</v>
+            <v>41646</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>41641</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Medical</v>
-          </cell>
-          <cell r="C9">
-            <v>111.12</v>
+            <v>41646</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Rent</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>41643</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C10">
-            <v>45.13</v>
+            <v>41647</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Life Insurance (AARP)</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>41646</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C11">
-            <v>5.16</v>
+            <v>41647</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>41646</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Rent</v>
-          </cell>
-          <cell r="C12">
-            <v>1000</v>
+            <v>41647</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>41647</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Life Insurance (AARP)</v>
-          </cell>
-          <cell r="C13">
-            <v>26.38</v>
+            <v>41648</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Entertainment Subscription</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>41647</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C14">
-            <v>8.2899999999999991</v>
+            <v>41648</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>41647</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C15">
-            <v>25</v>
+            <v>41648</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>41648</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>Entertainment Subscription</v>
-          </cell>
-          <cell r="C16">
-            <v>4.99</v>
+            <v>41650</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>41648</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C17">
-            <v>26.47</v>
+            <v>41650</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Parson's</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>41648</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C18">
-            <v>5</v>
+            <v>41651</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>41650</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>Chase Amazon v5475</v>
-          </cell>
-          <cell r="C19">
-            <v>82</v>
+            <v>41651</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>41650</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C20">
-            <v>5</v>
+            <v>41652</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>41650</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>Parson's</v>
-          </cell>
-          <cell r="C21">
-            <v>18</v>
+            <v>41654</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>41651</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C22">
-            <v>31.4</v>
+            <v>41654</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>First Premier</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>41651</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C23">
-            <v>85.64</v>
+            <v>41654</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>41652</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C24">
-            <v>3.75</v>
+            <v>41654</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
             <v>41654</v>
           </cell>
-          <cell r="B25" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C25">
-            <v>86.62</v>
+          <cell r="C25" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
             <v>41654</v>
           </cell>
-          <cell r="B26" t="str">
-            <v>Chase Amazon v5475</v>
-          </cell>
-          <cell r="C26">
-            <v>82</v>
+          <cell r="C26" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
             <v>41654</v>
           </cell>
-          <cell r="B27" t="str">
-            <v>First Premier</v>
-          </cell>
-          <cell r="C27">
-            <v>70</v>
+          <cell r="C27" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
             <v>41654</v>
           </cell>
-          <cell r="B28" t="str">
-            <v>First Premier #3141</v>
-          </cell>
-          <cell r="C28">
-            <v>45</v>
+          <cell r="C28" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
             <v>41654</v>
           </cell>
-          <cell r="B29" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C29">
-            <v>13.88</v>
+          <cell r="C29" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
             <v>41654</v>
           </cell>
-          <cell r="B30" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C30">
-            <v>29.4</v>
+          <cell r="C30" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
             <v>41654</v>
           </cell>
-          <cell r="B31" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C31">
-            <v>3.75</v>
+          <cell r="C31" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
             <v>41654</v>
           </cell>
-          <cell r="B32" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C32">
-            <v>26.87</v>
+          <cell r="C32" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
             <v>41654</v>
           </cell>
-          <cell r="B33" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C33">
-            <v>11.9</v>
+          <cell r="C33" t="str">
+            <v>Wine</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>41654</v>
-          </cell>
-          <cell r="B34" t="str">
+            <v>41655</v>
+          </cell>
+          <cell r="C34" t="str">
             <v>Grocery Store</v>
-          </cell>
-          <cell r="C34">
-            <v>85.64</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>41654</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C35">
-            <v>115.61</v>
+            <v>41655</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>41654</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>Wine</v>
-          </cell>
-          <cell r="C36">
-            <v>14.92</v>
+            <v>41655</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>41654</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C37">
-            <v>11.62</v>
+            <v>41656</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Clothes</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>41654</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C38">
-            <v>8.5</v>
+            <v>41656</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>41654</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C39">
-            <v>8.33</v>
+            <v>41656</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Housekeeper</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>41655</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>Credit One V7030</v>
-          </cell>
-          <cell r="C40">
-            <v>35</v>
+            <v>41657</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Gas Electric</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>41655</v>
-          </cell>
-          <cell r="B41" t="str">
+            <v>41657</v>
+          </cell>
+          <cell r="C41" t="str">
             <v>Grocery Store</v>
-          </cell>
-          <cell r="C41">
-            <v>202.23</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>41655</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C42">
-            <v>17</v>
+            <v>41658</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>41655</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C43">
-            <v>8.33</v>
+            <v>41660</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Cablevision</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>41656</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>Clothes</v>
-          </cell>
-          <cell r="C44">
-            <v>7</v>
+            <v>41660</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>41656</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>Computer</v>
-          </cell>
-          <cell r="C45">
-            <v>150</v>
+            <v>41660</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>41656</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C46">
-            <v>72.8</v>
+            <v>41660</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>41656</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C47">
-            <v>5.39</v>
+            <v>41660</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Storage</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>41656</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>Housekeeper</v>
-          </cell>
-          <cell r="C48">
-            <v>100</v>
+            <v>41663</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>41657</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>Cell Phone</v>
-          </cell>
-          <cell r="C49">
-            <v>118.39</v>
+            <v>41664</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>41657</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>Computer</v>
-          </cell>
-          <cell r="C50">
-            <v>7</v>
+            <v>41665</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Accessories</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>41657</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>Gas Electric</v>
-          </cell>
-          <cell r="C51">
-            <v>279.32</v>
+            <v>41665</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>41657</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C52">
-            <v>60.67</v>
+            <v>41665</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>41657</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C53">
-            <v>60.62</v>
+            <v>41665</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>41658</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>Books and Subscriptions</v>
-          </cell>
-          <cell r="C54">
-            <v>8.7100000000000009</v>
+            <v>41665</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>41658</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C55">
-            <v>19.23</v>
+            <v>41665</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>41660</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>Cablevision</v>
-          </cell>
-          <cell r="C56">
-            <v>154.65</v>
+            <v>41666</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>41660</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C57">
-            <v>23.23</v>
+            <v>41666</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>41660</v>
-          </cell>
-          <cell r="B58" t="str">
+            <v>41667</v>
+          </cell>
+          <cell r="C58" t="str">
             <v>Grocery Store</v>
-          </cell>
-          <cell r="C58">
-            <v>61.61</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>41660</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C59">
-            <v>29.5</v>
+            <v>41667</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>41660</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>Storage</v>
-          </cell>
-          <cell r="C60">
-            <v>92.98</v>
+            <v>41669</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>41663</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C61">
-            <v>15</v>
+            <v>41669</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>41664</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C62">
-            <v>28.06</v>
+            <v>41670</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>41664</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C63">
-            <v>400</v>
+            <v>41670</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>41665</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>Accessories</v>
-          </cell>
-          <cell r="C64">
-            <v>152.41999999999999</v>
+            <v>41670</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>41665</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>Bank Fee</v>
-          </cell>
-          <cell r="C65">
-            <v>3</v>
+            <v>41670</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>41665</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C66">
-            <v>39.75</v>
+            <v>41670</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>41665</v>
-          </cell>
-          <cell r="B67" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C67">
-            <v>7.25</v>
+            <v>41671</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>Apartment Insurance (State Farm)</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>41665</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C68">
-            <v>20.2</v>
+            <v>41671</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>Clothes</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>41666</v>
-          </cell>
-          <cell r="B69" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C69">
-            <v>8.0399999999999991</v>
+            <v>41671</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>41666</v>
-          </cell>
-          <cell r="B70" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C70">
-            <v>41.93</v>
+            <v>41672</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>Cleaning Supplies</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>41667</v>
-          </cell>
-          <cell r="B71" t="str">
+            <v>41672</v>
+          </cell>
+          <cell r="C71" t="str">
             <v>Grocery Store</v>
-          </cell>
-          <cell r="C71">
-            <v>39.22</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>41667</v>
-          </cell>
-          <cell r="B72" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C72">
-            <v>10</v>
+            <v>41672</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>41667</v>
-          </cell>
-          <cell r="B73" t="str">
-            <v>Office Supplies</v>
-          </cell>
-          <cell r="C73">
-            <v>14.48</v>
+            <v>41672</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>Medical</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>41669</v>
-          </cell>
-          <cell r="B74" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C74">
-            <v>13.05</v>
+            <v>41672</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>41669</v>
-          </cell>
-          <cell r="B75" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C75">
-            <v>2.25</v>
+            <v>41672</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>Wine</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>41670</v>
-          </cell>
-          <cell r="B76" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C76">
-            <v>200</v>
+            <v>41673</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>Household Furnishings</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>41670</v>
-          </cell>
-          <cell r="B77" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C77">
-            <v>10.99</v>
+            <v>41673</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>Parson's</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>41670</v>
-          </cell>
-          <cell r="B78" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C78">
-            <v>3.95</v>
+            <v>41675</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>Rent</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>41670</v>
-          </cell>
-          <cell r="B79" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C79">
-            <v>15</v>
+            <v>41677</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>41670</v>
-          </cell>
-          <cell r="B80" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C80">
-            <v>10</v>
+            <v>41677</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>Cablevision</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>41670</v>
-          </cell>
-          <cell r="B81" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C81">
-            <v>132.6</v>
+            <v>41677</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>41670</v>
-          </cell>
-          <cell r="B82" t="str">
-            <v>Go Daddy</v>
-          </cell>
-          <cell r="C82">
-            <v>15</v>
+            <v>41677</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>Parsons</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>41671</v>
-          </cell>
-          <cell r="B83" t="str">
-            <v>Clothes</v>
-          </cell>
-          <cell r="C83">
-            <v>12</v>
+            <v>41678</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>Life Insurance (AARP)</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>41671</v>
-          </cell>
-          <cell r="B84" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C84">
-            <v>18.12</v>
+            <v>41679</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>Accessories</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>41671</v>
-          </cell>
-          <cell r="B85" t="str">
-            <v>Office Supplies</v>
-          </cell>
-          <cell r="C85">
-            <v>13.5</v>
+            <v>41679</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>41671</v>
-          </cell>
-          <cell r="B86" t="str">
-            <v>Office Supplies</v>
-          </cell>
-          <cell r="C86">
-            <v>85.98</v>
+            <v>41679</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>41671</v>
-          </cell>
-          <cell r="B87" t="str">
-            <v>Apartment Insurance (State Farm)</v>
-          </cell>
-          <cell r="C87">
-            <v>25.25</v>
+            <v>41680</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>41672</v>
-          </cell>
-          <cell r="B88" t="str">
+            <v>41680</v>
+          </cell>
+          <cell r="C88" t="str">
             <v>Grocery Store</v>
-          </cell>
-          <cell r="C88">
-            <v>135.79</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>41672</v>
-          </cell>
-          <cell r="B89" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C89">
-            <v>131.12</v>
+            <v>41680</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>Household Furnishings</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>41672</v>
-          </cell>
-          <cell r="B90" t="str">
-            <v>Wine</v>
-          </cell>
-          <cell r="C90">
-            <v>26.65</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>41672</v>
-          </cell>
-          <cell r="B91" t="str">
-            <v>Medical</v>
-          </cell>
-          <cell r="C91">
-            <v>111.12</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>41672</v>
-          </cell>
-          <cell r="B92" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C92">
-            <v>8.3000000000000007</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>Entertainment Subscription</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>41672</v>
-          </cell>
-          <cell r="B93" t="str">
-            <v>Cleaning Supplies</v>
-          </cell>
-          <cell r="C93">
-            <v>5.08</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>Flowers</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>41673</v>
-          </cell>
-          <cell r="B94" t="str">
-            <v>Household Furnishings</v>
-          </cell>
-          <cell r="C94">
-            <v>3.26</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>41673</v>
-          </cell>
-          <cell r="B95" t="str">
-            <v>Parson's</v>
-          </cell>
-          <cell r="C95">
-            <v>30.15</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>41675</v>
-          </cell>
-          <cell r="B96" t="str">
-            <v>Credit One MC4850</v>
-          </cell>
-          <cell r="C96">
-            <v>45</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>41675</v>
-          </cell>
-          <cell r="B97" t="str">
-            <v>Rent</v>
-          </cell>
-          <cell r="C97">
-            <v>1000</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>41676</v>
-          </cell>
-          <cell r="B98" t="str">
-            <v>JetBlue MC 3965</v>
-          </cell>
-          <cell r="C98">
-            <v>50</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>41676</v>
-          </cell>
-          <cell r="B99" t="str">
-            <v>Chase Amazon v5475</v>
-          </cell>
-          <cell r="C99">
-            <v>150</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>41677</v>
-          </cell>
-          <cell r="B100" t="str">
-            <v>Cablevision</v>
-          </cell>
-          <cell r="C100">
-            <v>154.44999999999999</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>41677</v>
-          </cell>
-          <cell r="B101" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C101">
-            <v>59.58</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>Household Furnishings</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>41677</v>
-          </cell>
-          <cell r="B102" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C102">
-            <v>3.49</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
-            <v>41677</v>
-          </cell>
-          <cell r="B103" t="str">
-            <v>Cleaning Supplies</v>
-          </cell>
-          <cell r="C103">
-            <v>4.4800000000000004</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104">
-            <v>41677</v>
-          </cell>
-          <cell r="B104" t="str">
-            <v>Parsons</v>
-          </cell>
-          <cell r="C104">
-            <v>25.96</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105">
-            <v>41678</v>
-          </cell>
-          <cell r="B105" t="str">
-            <v>Life Insurance (AARP)</v>
-          </cell>
-          <cell r="C105">
-            <v>26.38</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106">
-            <v>41679</v>
-          </cell>
-          <cell r="B106" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C106">
-            <v>2.4500000000000002</v>
+            <v>41681</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>Wine</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107">
-            <v>41679</v>
-          </cell>
-          <cell r="B107" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C107">
-            <v>19.23</v>
+            <v>41682</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>Parson's</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108">
-            <v>41679</v>
-          </cell>
-          <cell r="B108" t="str">
-            <v>Accessories</v>
-          </cell>
-          <cell r="C108">
-            <v>181.82</v>
+            <v>41682</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109">
-            <v>41680</v>
-          </cell>
-          <cell r="B109" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C109">
-            <v>5.39</v>
+            <v>41683</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110">
-            <v>41680</v>
-          </cell>
-          <cell r="B110" t="str">
+            <v>41683</v>
+          </cell>
+          <cell r="C110" t="str">
             <v>Grocery Store</v>
-          </cell>
-          <cell r="C110">
-            <v>8.4600000000000009</v>
           </cell>
         </row>
         <row r="111">
           <cell r="A111">
-            <v>41680</v>
-          </cell>
-          <cell r="B111" t="str">
-            <v>Household Furnishings</v>
-          </cell>
-          <cell r="C111">
-            <v>77.52</v>
+            <v>41683</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112">
-            <v>41681</v>
-          </cell>
-          <cell r="B112" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C112">
-            <v>17.29</v>
+            <v>41683</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>Over the counter (OTC)</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113">
-            <v>41681</v>
-          </cell>
-          <cell r="B113" t="str">
-            <v>Wine</v>
-          </cell>
-          <cell r="C113">
-            <v>18.5</v>
+            <v>41684</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>Clothes</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114">
-            <v>41681</v>
-          </cell>
-          <cell r="B114" t="str">
-            <v>Bank Fee</v>
-          </cell>
-          <cell r="C114">
-            <v>3</v>
+            <v>41684</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115">
-            <v>41681</v>
-          </cell>
-          <cell r="B115" t="str">
-            <v>Bank Fee</v>
-          </cell>
-          <cell r="C115">
-            <v>1.5</v>
+            <v>41684</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116">
-            <v>41681</v>
-          </cell>
-          <cell r="B116" t="str">
-            <v>Computer</v>
-          </cell>
-          <cell r="C116">
-            <v>1479.95</v>
+            <v>41684</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117">
-            <v>41681</v>
-          </cell>
-          <cell r="B117" t="str">
-            <v>Computer</v>
-          </cell>
-          <cell r="C117">
-            <v>159.88</v>
+            <v>41685</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118">
-            <v>41681</v>
-          </cell>
-          <cell r="B118" t="str">
-            <v>Entertainment Subscription</v>
-          </cell>
-          <cell r="C118">
-            <v>4.99</v>
+            <v>41685</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119">
-            <v>41681</v>
-          </cell>
-          <cell r="B119" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C119">
-            <v>5.39</v>
+            <v>41685</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120">
-            <v>41681</v>
-          </cell>
-          <cell r="B120" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C120">
-            <v>19.899999999999999</v>
+            <v>41687</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>Housekeeper</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121">
-            <v>41681</v>
-          </cell>
-          <cell r="B121" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C121">
-            <v>23.23</v>
+            <v>41687</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122">
-            <v>41681</v>
-          </cell>
-          <cell r="B122" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C122">
-            <v>6.41</v>
+            <v>41689</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="123">
           <cell r="A123">
-            <v>41681</v>
-          </cell>
-          <cell r="B123" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C123">
-            <v>38.400000000000006</v>
+            <v>41689</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>Parson's</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124">
-            <v>41681</v>
-          </cell>
-          <cell r="B124" t="str">
-            <v>Household Furnishings</v>
-          </cell>
-          <cell r="C124">
-            <v>97.52</v>
+            <v>41689</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125">
-            <v>41681</v>
-          </cell>
-          <cell r="B125" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C125">
-            <v>48.38</v>
+            <v>41689</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126">
-            <v>41681</v>
-          </cell>
-          <cell r="B126" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C126">
-            <v>10.5</v>
+            <v>41689</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127">
-            <v>41681</v>
-          </cell>
-          <cell r="B127" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C127">
-            <v>9.9499999999999993</v>
+            <v>41690</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="128">
           <cell r="A128">
-            <v>41681</v>
-          </cell>
-          <cell r="B128" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C128">
-            <v>14.75</v>
+            <v>41690</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>Gas Electric</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129">
-            <v>41681</v>
-          </cell>
-          <cell r="B129" t="str">
-            <v>Flowers</v>
-          </cell>
-          <cell r="C129">
-            <v>9.98</v>
+            <v>41691</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130">
-            <v>41681</v>
-          </cell>
-          <cell r="B130" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C130">
-            <v>28.38</v>
+            <v>41691</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>Storage</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131">
-            <v>41682</v>
-          </cell>
-          <cell r="B131" t="str">
-            <v>Parson's</v>
-          </cell>
-          <cell r="C131">
-            <v>19.059999999999999</v>
+            <v>41692</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132">
-            <v>41682</v>
-          </cell>
-          <cell r="B132" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C132">
-            <v>9.9600000000000009</v>
+            <v>41692</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133">
-            <v>41683</v>
-          </cell>
-          <cell r="B133" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C133">
-            <v>23</v>
+            <v>41692</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134">
-            <v>41683</v>
-          </cell>
-          <cell r="B134" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C134">
-            <v>61.7</v>
+            <v>41693</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>Parson's</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135">
-            <v>41683</v>
-          </cell>
-          <cell r="B135" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C135">
-            <v>48.05</v>
+            <v>41695</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136">
-            <v>41683</v>
-          </cell>
-          <cell r="B136" t="str">
-            <v>Over the counter (OTC)</v>
-          </cell>
-          <cell r="C136">
-            <v>34.950000000000003</v>
+            <v>41695</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>New Jersey State Tax</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
-            <v>41683</v>
-          </cell>
-          <cell r="B137" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C137">
-            <v>13.57</v>
+            <v>41696</v>
+          </cell>
+          <cell r="C137" t="str">
+            <v>First Premier</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
-            <v>41684</v>
-          </cell>
-          <cell r="B138" t="str">
-            <v>Clothes</v>
-          </cell>
-          <cell r="C138">
-            <v>58.5</v>
+            <v>41696</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
-            <v>41684</v>
-          </cell>
-          <cell r="B139" t="str">
-            <v>Clothes</v>
-          </cell>
-          <cell r="C139">
-            <v>58.5</v>
+            <v>41697</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140">
-            <v>41684</v>
-          </cell>
-          <cell r="B140" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C140">
-            <v>7.27</v>
+            <v>41697</v>
+          </cell>
+          <cell r="C140" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141">
-            <v>41684</v>
-          </cell>
-          <cell r="B141" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C141">
-            <v>10.56</v>
+            <v>41698</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142">
-            <v>41684</v>
-          </cell>
-          <cell r="B142" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C142">
-            <v>10.56</v>
+            <v>41698</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143">
-            <v>41685</v>
-          </cell>
-          <cell r="B143" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C143">
-            <v>13.03</v>
+            <v>41698</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144">
-            <v>41685</v>
-          </cell>
-          <cell r="B144" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C144">
-            <v>13.95</v>
+            <v>41698</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>Rent</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145">
-            <v>41685</v>
-          </cell>
-          <cell r="B145" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C145">
-            <v>13.95</v>
+            <v>41699</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>Apartment Insurance (State Farm)</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146">
-            <v>41687</v>
-          </cell>
-          <cell r="B146" t="str">
+            <v>41701</v>
+          </cell>
+          <cell r="C146" t="str">
             <v>Taxi</v>
-          </cell>
-          <cell r="C146">
-            <v>23.16</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147">
-            <v>41687</v>
-          </cell>
-          <cell r="B147" t="str">
-            <v>Housekeeper</v>
-          </cell>
-          <cell r="C147">
-            <v>100</v>
+            <v>41701</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148">
-            <v>41689</v>
-          </cell>
-          <cell r="B148" t="str">
-            <v>Computer</v>
-          </cell>
-          <cell r="C148">
-            <v>7</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149">
-            <v>41689</v>
-          </cell>
-          <cell r="B149" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C149">
-            <v>7.27</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150">
-            <v>41689</v>
-          </cell>
-          <cell r="B150" t="str">
-            <v>Parson's</v>
-          </cell>
-          <cell r="C150">
-            <v>7.27</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151">
-            <v>41689</v>
-          </cell>
-          <cell r="B151" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C151">
-            <v>35</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152">
-            <v>41689</v>
-          </cell>
-          <cell r="B152" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C152">
-            <v>15.35</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153">
-            <v>41689</v>
-          </cell>
-          <cell r="B153" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C153">
-            <v>17.149999999999999</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154">
-            <v>41689</v>
-          </cell>
-          <cell r="B154" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C154">
-            <v>17.149999999999999</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155">
-            <v>41689</v>
-          </cell>
-          <cell r="B155" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C155">
-            <v>15.35</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156">
-            <v>41690</v>
-          </cell>
-          <cell r="B156" t="str">
-            <v>Bank Fee</v>
-          </cell>
-          <cell r="C156">
-            <v>35</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157">
-            <v>41690</v>
-          </cell>
-          <cell r="B157" t="str">
-            <v>Credit One MC4850</v>
-          </cell>
-          <cell r="C157">
-            <v>75</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158">
-            <v>41690</v>
-          </cell>
-          <cell r="B158" t="str">
-            <v>Credit One V7030</v>
-          </cell>
-          <cell r="C158">
-            <v>45</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159">
-            <v>41690</v>
-          </cell>
-          <cell r="B159" t="str">
-            <v>Gas Electric</v>
-          </cell>
-          <cell r="C159">
-            <v>312.98</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>Parson's</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160">
-            <v>41691</v>
-          </cell>
-          <cell r="B160" t="str">
-            <v>Storage</v>
-          </cell>
-          <cell r="C160">
-            <v>92.98</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161">
-            <v>41691</v>
-          </cell>
-          <cell r="B161" t="str">
-            <v>Office Supplies</v>
-          </cell>
-          <cell r="C161">
-            <v>30.92</v>
+            <v>41702</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162">
-            <v>41692</v>
-          </cell>
-          <cell r="B162" t="str">
-            <v>Bank Fee</v>
-          </cell>
-          <cell r="C162">
-            <v>9</v>
+            <v>41703</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>Clothes</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163">
-            <v>41692</v>
-          </cell>
-          <cell r="B163" t="str">
-            <v>Cell Phone</v>
-          </cell>
-          <cell r="C163">
-            <v>132.53</v>
+            <v>41703</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>Clothes</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164">
-            <v>41692</v>
-          </cell>
-          <cell r="B164" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C164">
-            <v>60.6</v>
+            <v>41704</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>Entertainment Subscription</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165">
-            <v>41692</v>
-          </cell>
-          <cell r="B165" t="str">
+            <v>41705</v>
+          </cell>
+          <cell r="C165" t="str">
             <v>Body Care</v>
-          </cell>
-          <cell r="C165">
-            <v>12</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166">
-            <v>41693</v>
-          </cell>
-          <cell r="B166" t="str">
-            <v>Parson's</v>
-          </cell>
-          <cell r="C166">
-            <v>13.07</v>
+            <v>41705</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167">
-            <v>41695</v>
-          </cell>
-          <cell r="B167" t="str">
-            <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C167">
-            <v>26.94</v>
+            <v>41706</v>
+          </cell>
+          <cell r="C167" t="str">
+            <v>Entertainment Subscription</v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168">
-            <v>41695</v>
-          </cell>
-          <cell r="B168" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C168">
-            <v>300</v>
+            <v>41706</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>Federal Taxes</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169">
-            <v>41695</v>
-          </cell>
-          <cell r="B169" t="str">
-            <v>New Jersey State Tax</v>
-          </cell>
-          <cell r="C169">
-            <v>706.73</v>
+            <v>41706</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>Federal Taxes</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170">
-            <v>41696</v>
-          </cell>
-          <cell r="B170" t="str">
-            <v>First Premier</v>
-          </cell>
-          <cell r="C170">
-            <v>100</v>
+            <v>41706</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171">
-            <v>41696</v>
-          </cell>
-          <cell r="B171" t="str">
-            <v>First Premier #3141</v>
-          </cell>
-          <cell r="C171">
-            <v>100</v>
+            <v>41706</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172">
-            <v>41696</v>
-          </cell>
-          <cell r="B172" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C172">
-            <v>24.76</v>
+            <v>41706</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173">
-            <v>41697</v>
-          </cell>
-          <cell r="B173" t="str">
-            <v>Chase Amazon v5475</v>
-          </cell>
-          <cell r="C173">
-            <v>500</v>
+            <v>41706</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v>Life Insurance (AARP)</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174">
-            <v>41697</v>
-          </cell>
-          <cell r="B174" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C174">
-            <v>12.76</v>
+            <v>41706</v>
+          </cell>
+          <cell r="C174" t="str">
+            <v>Parson's</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175">
-            <v>41697</v>
-          </cell>
-          <cell r="B175" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C175">
-            <v>170.12</v>
+            <v>41706</v>
+          </cell>
+          <cell r="C175" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176">
-            <v>41697</v>
-          </cell>
-          <cell r="B176" t="str">
-            <v>Office Supplies</v>
-          </cell>
-          <cell r="C176">
-            <v>25.33</v>
+            <v>41707</v>
+          </cell>
+          <cell r="C176" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177">
-            <v>41698</v>
-          </cell>
-          <cell r="B177" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C177">
-            <v>6.23</v>
+            <v>41707</v>
+          </cell>
+          <cell r="C177" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178">
-            <v>41698</v>
-          </cell>
-          <cell r="B178" t="str">
+            <v>41707</v>
+          </cell>
+          <cell r="C178" t="str">
             <v>Grocery Store</v>
-          </cell>
-          <cell r="C178">
-            <v>12.78</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179">
-            <v>41698</v>
-          </cell>
-          <cell r="B179" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C179">
-            <v>221</v>
+            <v>41708</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>Cleaning Supplies</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180">
-            <v>41698</v>
-          </cell>
-          <cell r="B180" t="str">
-            <v>Rent</v>
-          </cell>
-          <cell r="C180">
-            <v>1000</v>
+            <v>41708</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181">
-            <v>41698</v>
-          </cell>
-          <cell r="B181" t="str">
-            <v>Go Daddy</v>
-          </cell>
-          <cell r="C181">
-            <v>15</v>
+            <v>41708</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>Household Furnishings</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182">
-            <v>41699</v>
-          </cell>
-          <cell r="B182" t="str">
-            <v>Apartment Insurance (State Farm)</v>
-          </cell>
-          <cell r="C182">
-            <v>25.25</v>
+            <v>41708</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183">
-            <v>41699</v>
-          </cell>
-          <cell r="B183" t="str">
-            <v>Google Cloud Service</v>
-          </cell>
-          <cell r="C183">
-            <v>15</v>
+            <v>41708</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>Medical</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184">
-            <v>41701</v>
-          </cell>
-          <cell r="B184" t="str">
+            <v>41708</v>
+          </cell>
+          <cell r="C184" t="str">
             <v>Taxi</v>
-          </cell>
-          <cell r="C184">
-            <v>12.36</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185">
-            <v>41701</v>
-          </cell>
-          <cell r="B185" t="str">
+            <v>41708</v>
+          </cell>
+          <cell r="C185" t="str">
             <v>Taxi</v>
-          </cell>
-          <cell r="C185">
-            <v>12.96</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186">
-            <v>41702</v>
-          </cell>
-          <cell r="B186" t="str">
-            <v>Bank Fee</v>
-          </cell>
-          <cell r="C186">
-            <v>3</v>
+            <v>41709</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187">
-            <v>41702</v>
-          </cell>
-          <cell r="B187" t="str">
-            <v>Bank Fee</v>
-          </cell>
-          <cell r="C187">
-            <v>3</v>
+            <v>41709</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188">
-            <v>41702</v>
-          </cell>
-          <cell r="B188" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C188">
-            <v>145.91</v>
+            <v>41709</v>
+          </cell>
+          <cell r="C188" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189">
-            <v>41702</v>
-          </cell>
-          <cell r="B189" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C189">
-            <v>77.31</v>
+            <v>41711</v>
+          </cell>
+          <cell r="C189" t="str">
+            <v>Cablevision</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190">
-            <v>41702</v>
-          </cell>
-          <cell r="B190" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C190">
-            <v>23.13</v>
+            <v>41713</v>
+          </cell>
+          <cell r="C190" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191">
-            <v>41702</v>
-          </cell>
-          <cell r="B191" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C191">
-            <v>18.91</v>
+            <v>41714</v>
+          </cell>
+          <cell r="C191" t="str">
+            <v>Cleaning Supplies</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192">
-            <v>41702</v>
-          </cell>
-          <cell r="B192" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C192">
-            <v>22.86</v>
+            <v>41714</v>
+          </cell>
+          <cell r="C192" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193">
-            <v>41702</v>
-          </cell>
-          <cell r="B193" t="str">
+            <v>41714</v>
+          </cell>
+          <cell r="C193" t="str">
             <v>Grocery Store</v>
-          </cell>
-          <cell r="C193">
-            <v>79.19</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194">
-            <v>41702</v>
-          </cell>
-          <cell r="B194" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C194">
-            <v>6.99</v>
+            <v>41715</v>
+          </cell>
+          <cell r="C194" t="str">
+            <v>Donations</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195">
-            <v>41702</v>
-          </cell>
-          <cell r="B195" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C195">
-            <v>26.99</v>
+            <v>41715</v>
+          </cell>
+          <cell r="C195" t="str">
+            <v>Donations</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196">
-            <v>41702</v>
-          </cell>
-          <cell r="B196" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C196">
-            <v>25</v>
+            <v>41715</v>
+          </cell>
+          <cell r="C196" t="str">
+            <v>Donations</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197">
-            <v>41702</v>
-          </cell>
-          <cell r="B197" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C197">
-            <v>71.86</v>
+            <v>41715</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198">
-            <v>41702</v>
-          </cell>
-          <cell r="B198" t="str">
-            <v>Parson's</v>
-          </cell>
-          <cell r="C198">
-            <v>26.13</v>
+            <v>41715</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199">
-            <v>41702</v>
-          </cell>
-          <cell r="B199" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C199">
-            <v>7.56</v>
+            <v>41715</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>Housekeeper</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200">
-            <v>41702</v>
-          </cell>
-          <cell r="B200" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C200">
-            <v>11.16</v>
+            <v>41715</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201">
-            <v>41703</v>
-          </cell>
-          <cell r="B201" t="str">
-            <v>Clothes</v>
-          </cell>
-          <cell r="C201">
-            <v>102.5</v>
+            <v>41715</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202">
-            <v>41703</v>
-          </cell>
-          <cell r="B202" t="str">
-            <v>Clothes</v>
-          </cell>
-          <cell r="C202">
-            <v>89</v>
+            <v>41717</v>
+          </cell>
+          <cell r="C202" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203">
-            <v>41703</v>
-          </cell>
-          <cell r="B203" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C203">
-            <v>1000</v>
+            <v>41719</v>
+          </cell>
+          <cell r="C203" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204">
-            <v>41703</v>
-          </cell>
-          <cell r="B204" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C204">
-            <v>7</v>
+            <v>41719</v>
+          </cell>
+          <cell r="C204" t="str">
+            <v>Gas Electric</v>
           </cell>
         </row>
         <row r="205">
           <cell r="A205">
-            <v>41704</v>
-          </cell>
-          <cell r="B205" t="str">
-            <v>Entertainment Subscription</v>
-          </cell>
-          <cell r="C205">
-            <v>4.99</v>
+            <v>41719</v>
+          </cell>
+          <cell r="C205" t="str">
+            <v>Household Furnishings</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206">
-            <v>41705</v>
-          </cell>
-          <cell r="B206" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C206">
-            <v>100</v>
+            <v>41719</v>
+          </cell>
+          <cell r="C206" t="str">
+            <v>Storage</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207">
-            <v>41705</v>
-          </cell>
-          <cell r="B207" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C207">
-            <v>3.26</v>
+            <v>41720</v>
+          </cell>
+          <cell r="C207" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208">
-            <v>41706</v>
-          </cell>
-          <cell r="B208" t="str">
-            <v>Books and Subscriptions</v>
-          </cell>
-          <cell r="C208">
-            <v>5</v>
+            <v>41720</v>
+          </cell>
+          <cell r="C208" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209">
-            <v>41706</v>
-          </cell>
-          <cell r="B209" t="str">
-            <v>Books and Subscriptions</v>
-          </cell>
-          <cell r="C209">
-            <v>24</v>
+            <v>41720</v>
+          </cell>
+          <cell r="C209" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210">
-            <v>41706</v>
-          </cell>
-          <cell r="B210" t="str">
-            <v>Entertainment Subscription</v>
-          </cell>
-          <cell r="C210">
-            <v>4.99</v>
+            <v>41720</v>
+          </cell>
+          <cell r="C210" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211">
-            <v>41706</v>
-          </cell>
-          <cell r="B211" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C211">
-            <v>10.97</v>
+            <v>41720</v>
+          </cell>
+          <cell r="C211" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212">
-            <v>41706</v>
-          </cell>
-          <cell r="B212" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C212">
-            <v>18.12</v>
+            <v>41720</v>
+          </cell>
+          <cell r="C212" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213">
-            <v>41706</v>
-          </cell>
-          <cell r="B213" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C213">
-            <v>10.97</v>
+            <v>41720</v>
+          </cell>
+          <cell r="C213" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214">
-            <v>41706</v>
-          </cell>
-          <cell r="B214" t="str">
-            <v>Life Insurance (AARP)</v>
-          </cell>
-          <cell r="C214">
-            <v>26.38</v>
+            <v>41720</v>
+          </cell>
+          <cell r="C214" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215">
-            <v>41706</v>
-          </cell>
-          <cell r="B215" t="str">
-            <v>Parson's</v>
-          </cell>
-          <cell r="C215">
-            <v>110</v>
+            <v>41720</v>
+          </cell>
+          <cell r="C215" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216">
-            <v>41706</v>
-          </cell>
-          <cell r="B216" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C216">
-            <v>6.95</v>
+            <v>41721</v>
+          </cell>
+          <cell r="C216" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217">
-            <v>41706</v>
-          </cell>
-          <cell r="B217" t="str">
-            <v>Federal Taxes</v>
-          </cell>
-          <cell r="C217">
-            <v>2252</v>
+            <v>41721</v>
+          </cell>
+          <cell r="C217" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="218">
           <cell r="A218">
-            <v>41706</v>
-          </cell>
-          <cell r="B218" t="str">
-            <v>Federal Taxes</v>
-          </cell>
-          <cell r="C218">
-            <v>2252</v>
+            <v>41721</v>
+          </cell>
+          <cell r="C218" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219">
-            <v>41707</v>
-          </cell>
-          <cell r="B219" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C219">
-            <v>6</v>
+            <v>41721</v>
+          </cell>
+          <cell r="C219" t="str">
+            <v>Flowers</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220">
-            <v>41707</v>
-          </cell>
-          <cell r="B220" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C220">
-            <v>4.58</v>
+            <v>41721</v>
+          </cell>
+          <cell r="C220" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221">
-            <v>41707</v>
-          </cell>
-          <cell r="B221" t="str">
+            <v>41721</v>
+          </cell>
+          <cell r="C221" t="str">
             <v>Grocery Store</v>
-          </cell>
-          <cell r="C221">
-            <v>28.29</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222">
-            <v>41708</v>
-          </cell>
-          <cell r="B222" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C222">
-            <v>85.01</v>
+            <v>41721</v>
+          </cell>
+          <cell r="C222" t="str">
+            <v>Household Furnishings</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223">
-            <v>41708</v>
-          </cell>
-          <cell r="B223" t="str">
-            <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C223">
-            <v>15.98</v>
+            <v>41721</v>
+          </cell>
+          <cell r="C223" t="str">
+            <v>Household Furnishings</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224">
-            <v>41708</v>
-          </cell>
-          <cell r="B224" t="str">
-            <v>Medical</v>
-          </cell>
-          <cell r="C224">
-            <v>111.12</v>
+            <v>41721</v>
+          </cell>
+          <cell r="C224" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225">
-            <v>41708</v>
-          </cell>
-          <cell r="B225" t="str">
-            <v>Household Furnishings</v>
-          </cell>
-          <cell r="C225">
-            <v>17.98</v>
+            <v>41721</v>
+          </cell>
+          <cell r="C225" t="str">
+            <v>Over the counter (OTC)</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226">
-            <v>41708</v>
-          </cell>
-          <cell r="B226" t="str">
-            <v>Cleaning Supplies</v>
-          </cell>
-          <cell r="C226">
-            <v>4.99</v>
+            <v>41721</v>
+          </cell>
+          <cell r="C226" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227">
-            <v>41708</v>
-          </cell>
-          <cell r="B227" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C227">
-            <v>6.21</v>
+            <v>41723</v>
+          </cell>
+          <cell r="C227" t="str">
+            <v>Flowers</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228">
-            <v>41708</v>
-          </cell>
-          <cell r="B228" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C228">
-            <v>6.01</v>
+            <v>41723</v>
+          </cell>
+          <cell r="C228" t="str">
+            <v>Parsons</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229">
-            <v>41709</v>
-          </cell>
-          <cell r="B229" t="str">
-            <v>Books and Subscriptions</v>
-          </cell>
-          <cell r="C229">
-            <v>5</v>
+            <v>41724</v>
+          </cell>
+          <cell r="C229" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230">
-            <v>41709</v>
-          </cell>
-          <cell r="B230" t="str">
-            <v>Books and Subscriptions</v>
-          </cell>
-          <cell r="C230">
-            <v>24</v>
+            <v>41724</v>
+          </cell>
+          <cell r="C230" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231">
-            <v>41709</v>
-          </cell>
-          <cell r="B231" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C231">
-            <v>15</v>
+            <v>41724</v>
+          </cell>
+          <cell r="C231" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232">
-            <v>41709</v>
-          </cell>
-          <cell r="B232" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C232">
-            <v>18.12</v>
+            <v>41724</v>
+          </cell>
+          <cell r="C232" t="str">
+            <v>Cleaning Supplies</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233">
-            <v>41709</v>
-          </cell>
-          <cell r="B233" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C233">
-            <v>30.5</v>
+            <v>41724</v>
+          </cell>
+          <cell r="C233" t="str">
+            <v>Flowers</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234">
-            <v>41709</v>
-          </cell>
-          <cell r="B234" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C234">
-            <v>10.56</v>
+            <v>41724</v>
+          </cell>
+          <cell r="C234" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235">
-            <v>41710</v>
-          </cell>
-          <cell r="B235" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C235">
-            <v>20</v>
+            <v>41725</v>
+          </cell>
+          <cell r="C235" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236">
-            <v>41711</v>
-          </cell>
-          <cell r="B236" t="str">
-            <v>Cablevision</v>
-          </cell>
-          <cell r="C236">
-            <v>169.46</v>
+            <v>41725</v>
+          </cell>
+          <cell r="C236" t="str">
+            <v>Gardening</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237">
-            <v>41711</v>
-          </cell>
-          <cell r="B237" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C237">
-            <v>20</v>
+            <v>41725</v>
+          </cell>
+          <cell r="C237" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238">
-            <v>41713</v>
-          </cell>
-          <cell r="B238" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C238">
-            <v>92.7</v>
+            <v>41726</v>
+          </cell>
+          <cell r="C238" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239">
-            <v>41714</v>
-          </cell>
-          <cell r="B239" t="str">
-            <v>Cleaning Supplies</v>
-          </cell>
-          <cell r="C239">
-            <v>22.76</v>
+            <v>41726</v>
+          </cell>
+          <cell r="C239" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240">
-            <v>41714</v>
-          </cell>
-          <cell r="B240" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C240">
-            <v>3.95</v>
+            <v>41727</v>
+          </cell>
+          <cell r="C240" t="str">
+            <v>Federal Taxes</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241">
-            <v>41714</v>
-          </cell>
-          <cell r="B241" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C241">
-            <v>110.56</v>
+            <v>41727</v>
+          </cell>
+          <cell r="C241" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242">
-            <v>41715</v>
-          </cell>
-          <cell r="B242" t="str">
-            <v>Donations</v>
-          </cell>
-          <cell r="C242">
-            <v>3</v>
+            <v>41727</v>
+          </cell>
+          <cell r="C242" t="str">
+            <v>household Furnishings</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243">
-            <v>41715</v>
-          </cell>
-          <cell r="B243" t="str">
-            <v>Donations</v>
-          </cell>
-          <cell r="C243">
-            <v>2</v>
+            <v>41727</v>
+          </cell>
+          <cell r="C243" t="str">
+            <v>Parsons</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244">
-            <v>41715</v>
-          </cell>
-          <cell r="B244" t="str">
+            <v>41729</v>
+          </cell>
+          <cell r="C244" t="str">
             <v>Donations</v>
-          </cell>
-          <cell r="C244">
-            <v>2</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245">
-            <v>41715</v>
-          </cell>
-          <cell r="B245" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C245">
-            <v>10.78</v>
+            <v>41729</v>
+          </cell>
+          <cell r="C245" t="str">
+            <v>Donations</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246">
-            <v>41715</v>
-          </cell>
-          <cell r="B246" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C246">
-            <v>3.26</v>
+            <v>41729</v>
+          </cell>
+          <cell r="C246" t="str">
+            <v>Rent</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247">
-            <v>41715</v>
-          </cell>
-          <cell r="B247" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C247">
-            <v>39.200000000000003</v>
+            <v>41732</v>
+          </cell>
+          <cell r="C247" t="str">
+            <v>Clothes</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248">
-            <v>41715</v>
-          </cell>
-          <cell r="B248" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C248">
-            <v>3</v>
+            <v>41732</v>
+          </cell>
+          <cell r="C248" t="str">
+            <v>Flowers</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249">
-            <v>41715</v>
-          </cell>
-          <cell r="B249" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C249">
-            <v>9.36</v>
+            <v>41732</v>
+          </cell>
+          <cell r="C249" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250">
-            <v>41715</v>
-          </cell>
-          <cell r="B250" t="str">
-            <v>Housekeeper</v>
-          </cell>
-          <cell r="C250">
-            <v>100</v>
+            <v>41732</v>
+          </cell>
+          <cell r="C250" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251">
-            <v>41716</v>
-          </cell>
-          <cell r="B251" t="str">
-            <v>Office Supplies</v>
-          </cell>
-          <cell r="C251">
-            <v>10</v>
+            <v>41732</v>
+          </cell>
+          <cell r="C251" t="str">
+            <v>Parsons</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252">
-            <v>41717</v>
-          </cell>
-          <cell r="B252" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C252">
-            <v>15</v>
+            <v>41732</v>
+          </cell>
+          <cell r="C252" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="253">
           <cell r="A253">
-            <v>41717</v>
-          </cell>
-          <cell r="B253" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C253">
-            <v>2.71</v>
+            <v>41733</v>
+          </cell>
+          <cell r="C253" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="254">
           <cell r="A254">
-            <v>41717</v>
-          </cell>
-          <cell r="B254" t="str">
-            <v>Office Supplies</v>
-          </cell>
-          <cell r="C254">
-            <v>24.98</v>
+            <v>41733</v>
+          </cell>
+          <cell r="C254" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="255">
           <cell r="A255">
-            <v>41719</v>
-          </cell>
-          <cell r="B255" t="str">
-            <v>Cell Phone</v>
-          </cell>
-          <cell r="C255">
-            <v>132.53</v>
+            <v>41733</v>
+          </cell>
+          <cell r="C255" t="str">
+            <v>Medical</v>
           </cell>
         </row>
         <row r="256">
           <cell r="A256">
-            <v>41719</v>
-          </cell>
-          <cell r="B256" t="str">
-            <v>Household Furnishings</v>
-          </cell>
-          <cell r="C256">
-            <v>62.99</v>
+            <v>41733</v>
+          </cell>
+          <cell r="C256" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="257">
           <cell r="A257">
-            <v>41719</v>
-          </cell>
-          <cell r="B257" t="str">
-            <v>Storage</v>
-          </cell>
-          <cell r="C257">
-            <v>98.33</v>
+            <v>41733</v>
+          </cell>
+          <cell r="C257" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="258">
           <cell r="A258">
-            <v>41719</v>
-          </cell>
-          <cell r="B258" t="str">
-            <v>Gas Electric</v>
-          </cell>
-          <cell r="C258">
-            <v>238.15</v>
+            <v>41733</v>
+          </cell>
+          <cell r="C258" t="str">
+            <v>Wine</v>
           </cell>
         </row>
         <row r="259">
           <cell r="A259">
-            <v>41719</v>
-          </cell>
-          <cell r="B259" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C259">
-            <v>39.29</v>
+            <v>41734</v>
+          </cell>
+          <cell r="C259" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="260">
           <cell r="A260">
-            <v>41720</v>
-          </cell>
-          <cell r="B260" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C260">
-            <v>72.599999999999994</v>
+            <v>41734</v>
+          </cell>
+          <cell r="C260" t="str">
+            <v>Gas Electric</v>
           </cell>
         </row>
         <row r="261">
           <cell r="A261">
-            <v>41720</v>
-          </cell>
-          <cell r="B261" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C261">
-            <v>20</v>
+            <v>41734</v>
+          </cell>
+          <cell r="C261" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="262">
           <cell r="A262">
-            <v>41720</v>
-          </cell>
-          <cell r="B262" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C262">
-            <v>5.93</v>
+            <v>41734</v>
+          </cell>
+          <cell r="C262" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="263">
           <cell r="A263">
-            <v>41720</v>
-          </cell>
-          <cell r="B263" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C263">
-            <v>5.99</v>
+            <v>41734</v>
+          </cell>
+          <cell r="C263" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="264">
           <cell r="A264">
-            <v>41720</v>
-          </cell>
-          <cell r="B264" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C264">
-            <v>100</v>
+            <v>41734</v>
+          </cell>
+          <cell r="C264" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="265">
           <cell r="A265">
-            <v>41720</v>
-          </cell>
-          <cell r="B265" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C265">
-            <v>24</v>
+            <v>41735</v>
+          </cell>
+          <cell r="C265" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="266">
           <cell r="A266">
-            <v>41720</v>
-          </cell>
-          <cell r="B266" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C266">
-            <v>63.7</v>
+            <v>41735</v>
+          </cell>
+          <cell r="C266" t="str">
+            <v>Cleaning Supplies</v>
           </cell>
         </row>
         <row r="267">
           <cell r="A267">
-            <v>41720</v>
-          </cell>
-          <cell r="B267" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C267">
-            <v>15</v>
+            <v>41735</v>
+          </cell>
+          <cell r="C267" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="268">
           <cell r="A268">
-            <v>41720</v>
-          </cell>
-          <cell r="B268" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C268">
-            <v>3</v>
+            <v>41735</v>
+          </cell>
+          <cell r="C268" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="269">
           <cell r="A269">
-            <v>41720</v>
-          </cell>
-          <cell r="B269" t="str">
-            <v>Business Travel</v>
-          </cell>
-          <cell r="C269">
-            <v>9</v>
+            <v>41735</v>
+          </cell>
+          <cell r="C269" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="270">
           <cell r="A270">
-            <v>41720</v>
-          </cell>
-          <cell r="B270" t="str">
-            <v>Business Travel</v>
-          </cell>
-          <cell r="C270">
-            <v>15.35</v>
+            <v>41735</v>
+          </cell>
+          <cell r="C270" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="271">
           <cell r="A271">
-            <v>41720</v>
-          </cell>
-          <cell r="B271" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C271">
-            <v>60.6</v>
+            <v>41735</v>
+          </cell>
+          <cell r="C271" t="str">
+            <v>Parsons</v>
           </cell>
         </row>
         <row r="272">
           <cell r="A272">
-            <v>41720</v>
-          </cell>
-          <cell r="B272" t="str">
+            <v>41736</v>
+          </cell>
+          <cell r="C272" t="str">
             <v>Body Care</v>
-          </cell>
-          <cell r="C272">
-            <v>12</v>
           </cell>
         </row>
         <row r="273">
           <cell r="A273">
-            <v>41721</v>
-          </cell>
-          <cell r="B273" t="str">
+            <v>41736</v>
+          </cell>
+          <cell r="C273" t="str">
             <v>Body Care</v>
-          </cell>
-          <cell r="C273">
-            <v>129.56</v>
           </cell>
         </row>
         <row r="274">
           <cell r="A274">
-            <v>41721</v>
-          </cell>
-          <cell r="B274" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C274">
-            <v>18.98</v>
+            <v>41736</v>
+          </cell>
+          <cell r="C274" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="275">
           <cell r="A275">
-            <v>41721</v>
-          </cell>
-          <cell r="B275" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C275">
-            <v>16.07</v>
+            <v>41736</v>
+          </cell>
+          <cell r="C275" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="276">
           <cell r="A276">
-            <v>41721</v>
-          </cell>
-          <cell r="B276" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C276">
-            <v>72.959999999999994</v>
+            <v>41736</v>
+          </cell>
+          <cell r="C276" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="277">
           <cell r="A277">
-            <v>41721</v>
-          </cell>
-          <cell r="B277" t="str">
-            <v>Household Furnishings</v>
-          </cell>
-          <cell r="C277">
-            <v>28.29</v>
+            <v>41736</v>
+          </cell>
+          <cell r="C277" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="278">
           <cell r="A278">
-            <v>41721</v>
-          </cell>
-          <cell r="B278" t="str">
-            <v>Over the counter (OTC)</v>
-          </cell>
-          <cell r="C278">
-            <v>69.36</v>
+            <v>41736</v>
+          </cell>
+          <cell r="C278" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="279">
           <cell r="A279">
-            <v>41721</v>
-          </cell>
-          <cell r="B279" t="str">
-            <v>Office Supplies</v>
-          </cell>
-          <cell r="C279">
-            <v>16</v>
+            <v>41736</v>
+          </cell>
+          <cell r="C279" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="280">
           <cell r="A280">
-            <v>41721</v>
-          </cell>
-          <cell r="B280" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C280">
-            <v>3</v>
+            <v>41736</v>
+          </cell>
+          <cell r="C280" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="281">
           <cell r="A281">
-            <v>41721</v>
-          </cell>
-          <cell r="B281" t="str">
-            <v>Flowers</v>
-          </cell>
-          <cell r="C281">
-            <v>21.65</v>
+            <v>41736</v>
+          </cell>
+          <cell r="C281" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="282">
           <cell r="A282">
-            <v>41721</v>
-          </cell>
-          <cell r="B282" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C282">
-            <v>18.88</v>
+            <v>41737</v>
+          </cell>
+          <cell r="C282" t="str">
+            <v>Life Insurance (AARP)</v>
           </cell>
         </row>
         <row r="283">
           <cell r="A283">
-            <v>41721</v>
-          </cell>
-          <cell r="B283" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C283">
-            <v>24</v>
+            <v>41737</v>
+          </cell>
+          <cell r="C283" t="str">
+            <v>Medical</v>
           </cell>
         </row>
         <row r="284">
           <cell r="A284">
-            <v>41721</v>
-          </cell>
-          <cell r="B284" t="str">
-            <v>Household Furnishings</v>
-          </cell>
-          <cell r="C284">
-            <v>16.329999999999998</v>
+            <v>41737</v>
+          </cell>
+          <cell r="C284" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="285">
           <cell r="A285">
-            <v>41723</v>
-          </cell>
-          <cell r="B285" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C285">
-            <v>60.26</v>
+            <v>41737</v>
+          </cell>
+          <cell r="C285" t="str">
+            <v>Chase Amazon v5475</v>
           </cell>
         </row>
         <row r="286">
           <cell r="A286">
-            <v>41723</v>
-          </cell>
-          <cell r="B286" t="str">
-            <v>Flowers</v>
-          </cell>
-          <cell r="C286">
-            <v>21.65</v>
+            <v>41738</v>
+          </cell>
+          <cell r="C286" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="287">
           <cell r="A287">
-            <v>41723</v>
-          </cell>
-          <cell r="B287" t="str">
-            <v>Parsons</v>
-          </cell>
-          <cell r="C287">
-            <v>9.35</v>
+            <v>41738</v>
+          </cell>
+          <cell r="C287" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="288">
           <cell r="A288">
-            <v>41724</v>
-          </cell>
-          <cell r="C288">
-            <v>13.32</v>
+            <v>41738</v>
+          </cell>
+          <cell r="C288" t="str">
+            <v>Over the counter (OTC)</v>
           </cell>
         </row>
         <row r="289">
           <cell r="A289">
-            <v>41724</v>
-          </cell>
-          <cell r="B289" t="str">
-            <v>Cleaning Supplies</v>
-          </cell>
-          <cell r="C289">
-            <v>14.99</v>
+            <v>41738</v>
+          </cell>
+          <cell r="C289" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="290">
           <cell r="A290">
-            <v>41724</v>
-          </cell>
-          <cell r="C290">
-            <v>1.99</v>
+            <v>41739</v>
+          </cell>
+          <cell r="C290" t="str">
+            <v>Accessories</v>
           </cell>
         </row>
         <row r="291">
           <cell r="A291">
-            <v>41724</v>
-          </cell>
-          <cell r="B291" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C291">
-            <v>30.3</v>
+            <v>41739</v>
+          </cell>
+          <cell r="C291" t="str">
+            <v>Accessories</v>
           </cell>
         </row>
         <row r="292">
           <cell r="A292">
-            <v>41724</v>
-          </cell>
-          <cell r="B292" t="str">
-            <v>Bank Fee</v>
-          </cell>
-          <cell r="C292">
-            <v>70</v>
+            <v>41739</v>
+          </cell>
+          <cell r="C292" t="str">
+            <v>Entertainment Subscription</v>
           </cell>
         </row>
         <row r="293">
           <cell r="A293">
-            <v>41725</v>
-          </cell>
-          <cell r="B293" t="str">
-            <v>Bank Fee</v>
-          </cell>
-          <cell r="C293">
-            <v>3</v>
+            <v>41739</v>
+          </cell>
+          <cell r="C293" t="str">
+            <v>Entertainment Subscription</v>
           </cell>
         </row>
         <row r="294">
           <cell r="A294">
-            <v>41725</v>
-          </cell>
-          <cell r="B294" t="str">
-            <v>Gardening</v>
-          </cell>
-          <cell r="C294">
-            <v>190.67</v>
+            <v>41739</v>
+          </cell>
+          <cell r="C294" t="str">
+            <v>Entertainment Subscription</v>
           </cell>
         </row>
         <row r="295">
           <cell r="A295">
-            <v>41725</v>
-          </cell>
-          <cell r="B295" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C295">
-            <v>62.49</v>
+            <v>41739</v>
+          </cell>
+          <cell r="C295" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="296">
           <cell r="A296">
-            <v>41726</v>
-          </cell>
-          <cell r="B296" t="str">
-            <v>CHASE Amazon v5475</v>
-          </cell>
-          <cell r="C296">
-            <v>500</v>
+            <v>41739</v>
+          </cell>
+          <cell r="C296" t="str">
+            <v>Gift</v>
           </cell>
         </row>
         <row r="297">
           <cell r="A297">
-            <v>41726</v>
-          </cell>
-          <cell r="B297" t="str">
-            <v>Bank Fee</v>
-          </cell>
-          <cell r="C297">
-            <v>1.5</v>
+            <v>41739</v>
+          </cell>
+          <cell r="C297" t="str">
+            <v>Medical</v>
           </cell>
         </row>
         <row r="298">
           <cell r="A298">
-            <v>41726</v>
-          </cell>
-          <cell r="B298" t="str">
-            <v>First Premier MC 3141</v>
-          </cell>
-          <cell r="C298">
-            <v>346.22</v>
+            <v>41739</v>
+          </cell>
+          <cell r="C298" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="299">
           <cell r="A299">
-            <v>41726</v>
-          </cell>
-          <cell r="B299" t="str">
+            <v>41739</v>
+          </cell>
+          <cell r="C299" t="str">
             <v>Public Transit</v>
-          </cell>
-          <cell r="C299">
-            <v>3</v>
           </cell>
         </row>
         <row r="300">
           <cell r="A300">
-            <v>41727</v>
-          </cell>
-          <cell r="B300" t="str">
-            <v>Parsons</v>
-          </cell>
-          <cell r="C300">
-            <v>39.14</v>
+            <v>41739</v>
+          </cell>
+          <cell r="C300" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="301">
           <cell r="A301">
-            <v>41727</v>
-          </cell>
-          <cell r="B301" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C301">
-            <v>8.84</v>
+            <v>41740</v>
+          </cell>
+          <cell r="C301" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="302">
           <cell r="A302">
-            <v>41727</v>
-          </cell>
-          <cell r="B302" t="str">
-            <v>household Furnishings</v>
-          </cell>
-          <cell r="C302">
-            <v>9.3000000000000007</v>
+            <v>41741</v>
+          </cell>
+          <cell r="C302" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="303">
           <cell r="A303">
-            <v>41727</v>
-          </cell>
-          <cell r="B303" t="str">
-            <v>Federal Taxes</v>
-          </cell>
-          <cell r="C303">
-            <v>108.53</v>
+            <v>41741</v>
+          </cell>
+          <cell r="C303" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="304">
           <cell r="A304">
-            <v>41727</v>
-          </cell>
-          <cell r="B304" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C304">
-            <v>14.35</v>
+            <v>41743</v>
+          </cell>
+          <cell r="C304" t="str">
+            <v>Donations</v>
           </cell>
         </row>
         <row r="305">
           <cell r="A305">
-            <v>41729</v>
-          </cell>
-          <cell r="B305" t="str">
-            <v>Rent</v>
-          </cell>
-          <cell r="C305">
-            <v>1000</v>
+            <v>41743</v>
+          </cell>
+          <cell r="C305" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="306">
           <cell r="A306">
-            <v>41729</v>
-          </cell>
-          <cell r="B306" t="str">
-            <v>Donations</v>
-          </cell>
-          <cell r="C306">
-            <v>3</v>
+            <v>41743</v>
+          </cell>
+          <cell r="C306" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="307">
           <cell r="A307">
-            <v>41729</v>
-          </cell>
-          <cell r="B307" t="str">
-            <v>Donations</v>
-          </cell>
-          <cell r="C307">
-            <v>2.5</v>
+            <v>41743</v>
+          </cell>
+          <cell r="C307" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="308">
           <cell r="A308">
-            <v>41729</v>
-          </cell>
-          <cell r="B308" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C308">
-            <v>31.65</v>
+            <v>41743</v>
+          </cell>
+          <cell r="C308" t="str">
+            <v>Gift</v>
           </cell>
         </row>
         <row r="309">
           <cell r="A309">
-            <v>41729</v>
-          </cell>
-          <cell r="B309" t="str">
-            <v>Go Daddy</v>
-          </cell>
-          <cell r="C309">
-            <v>15</v>
+            <v>41743</v>
+          </cell>
+          <cell r="C309" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="310">
           <cell r="A310">
-            <v>41730</v>
-          </cell>
-          <cell r="B310" t="str">
-            <v>Credit One MC4850</v>
-          </cell>
-          <cell r="C310">
-            <v>139.5</v>
+            <v>41744</v>
+          </cell>
+          <cell r="C310" t="str">
+            <v>Gift</v>
           </cell>
         </row>
         <row r="311">
           <cell r="A311">
-            <v>41730</v>
-          </cell>
-          <cell r="B311" t="str">
-            <v>Credit One V7030</v>
-          </cell>
-          <cell r="C311">
-            <v>153.13</v>
+            <v>41744</v>
+          </cell>
+          <cell r="C311" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="312">
           <cell r="A312">
-            <v>41730</v>
-          </cell>
-          <cell r="B312" t="str">
-            <v>Apartment Insurance (State Farm)</v>
-          </cell>
-          <cell r="C312">
-            <v>25.25</v>
+            <v>41745</v>
+          </cell>
+          <cell r="C312" t="str">
+            <v>Cablevision</v>
           </cell>
         </row>
         <row r="313">
           <cell r="A313">
-            <v>41730</v>
-          </cell>
-          <cell r="B313" t="str">
-            <v>Google Cloud Service</v>
-          </cell>
-          <cell r="C313">
-            <v>15</v>
+            <v>41746</v>
+          </cell>
+          <cell r="C313" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="314">
           <cell r="A314">
-            <v>41731</v>
-          </cell>
-          <cell r="B314" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C314">
-            <v>1000</v>
+            <v>41746</v>
+          </cell>
+          <cell r="C314" t="str">
+            <v>Wine</v>
           </cell>
         </row>
         <row r="315">
           <cell r="A315">
-            <v>41732</v>
-          </cell>
-          <cell r="B315" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C315">
-            <v>50.15</v>
+            <v>41746</v>
+          </cell>
+          <cell r="C315" t="str">
+            <v>Wine</v>
           </cell>
         </row>
         <row r="316">
           <cell r="A316">
-            <v>41732</v>
-          </cell>
-          <cell r="B316" t="str">
-            <v>Flowers</v>
-          </cell>
-          <cell r="C316">
-            <v>12.98</v>
+            <v>41747</v>
+          </cell>
+          <cell r="C316" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="317">
           <cell r="A317">
-            <v>41732</v>
-          </cell>
-          <cell r="B317" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C317">
-            <v>15.09</v>
+            <v>41747</v>
+          </cell>
+          <cell r="C317" t="str">
+            <v>Flowers</v>
           </cell>
         </row>
         <row r="318">
           <cell r="A318">
-            <v>41732</v>
-          </cell>
-          <cell r="B318" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C318">
-            <v>20.420000000000002</v>
+            <v>41747</v>
+          </cell>
+          <cell r="C318" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="319">
           <cell r="A319">
-            <v>41732</v>
-          </cell>
-          <cell r="B319" t="str">
-            <v>Parsons</v>
-          </cell>
-          <cell r="C319">
-            <v>13.34</v>
+            <v>41747</v>
+          </cell>
+          <cell r="C319" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="320">
           <cell r="A320">
-            <v>41732</v>
-          </cell>
-          <cell r="B320" t="str">
-            <v>Clothes</v>
-          </cell>
-          <cell r="C320">
-            <v>47.6</v>
+            <v>41747</v>
+          </cell>
+          <cell r="C320" t="str">
+            <v>Gas Electric</v>
           </cell>
         </row>
         <row r="321">
           <cell r="A321">
-            <v>41732</v>
-          </cell>
-          <cell r="B321" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C321">
-            <v>3</v>
+            <v>41747</v>
+          </cell>
+          <cell r="C321" t="str">
+            <v>household Furnishings</v>
           </cell>
         </row>
         <row r="322">
           <cell r="A322">
-            <v>41733</v>
-          </cell>
-          <cell r="B322" t="str">
-            <v>Medical</v>
-          </cell>
-          <cell r="C322">
-            <v>90</v>
+            <v>41747</v>
+          </cell>
+          <cell r="C322" t="str">
+            <v>Travel</v>
           </cell>
         </row>
         <row r="323">
           <cell r="A323">
-            <v>41733</v>
-          </cell>
-          <cell r="B323" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C323">
-            <v>39.67</v>
+            <v>41748</v>
+          </cell>
+          <cell r="C323" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="324">
           <cell r="A324">
-            <v>41733</v>
-          </cell>
-          <cell r="B324" t="str">
-            <v>Wine</v>
-          </cell>
-          <cell r="C324">
-            <v>19.59</v>
+            <v>41748</v>
+          </cell>
+          <cell r="C324" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="325">
           <cell r="A325">
-            <v>41733</v>
-          </cell>
-          <cell r="B325" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C325">
-            <v>6</v>
+            <v>41748</v>
+          </cell>
+          <cell r="C325" t="str">
+            <v>Over the counter (OTC)</v>
           </cell>
         </row>
         <row r="326">
           <cell r="A326">
-            <v>41733</v>
-          </cell>
-          <cell r="B326" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C326">
-            <v>3</v>
+            <v>41748</v>
+          </cell>
+          <cell r="C326" t="str">
+            <v>Parsons</v>
           </cell>
         </row>
         <row r="327">
           <cell r="A327">
-            <v>41733</v>
-          </cell>
-          <cell r="B327" t="str">
-            <v>Networking</v>
-          </cell>
-          <cell r="C327">
-            <v>165.5</v>
+            <v>41748</v>
+          </cell>
+          <cell r="C327" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="328">
           <cell r="A328">
-            <v>41734</v>
-          </cell>
-          <cell r="B328" t="str">
-            <v>Gas Electric</v>
-          </cell>
-          <cell r="C328">
-            <v>306.62</v>
+            <v>41748</v>
+          </cell>
+          <cell r="C328" t="str">
+            <v>Storage</v>
           </cell>
         </row>
         <row r="329">
           <cell r="A329">
-            <v>41734</v>
-          </cell>
-          <cell r="B329" t="str">
-            <v>Lucille Metheny</v>
-          </cell>
-          <cell r="C329">
-            <v>28</v>
+            <v>41749</v>
+          </cell>
+          <cell r="C329" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="330">
           <cell r="A330">
-            <v>41734</v>
-          </cell>
-          <cell r="B330" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C330">
-            <v>8.33</v>
+            <v>41749</v>
+          </cell>
+          <cell r="C330" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="331">
           <cell r="A331">
-            <v>41734</v>
-          </cell>
-          <cell r="B331" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C331">
-            <v>3</v>
+            <v>41749</v>
+          </cell>
+          <cell r="C331" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="332">
           <cell r="A332">
-            <v>41734</v>
-          </cell>
-          <cell r="B332" t="str">
+            <v>41750</v>
+          </cell>
+          <cell r="C332" t="str">
             <v>Public Transit</v>
-          </cell>
-          <cell r="C332">
-            <v>13.95</v>
           </cell>
         </row>
         <row r="333">
           <cell r="A333">
-            <v>41735</v>
-          </cell>
-          <cell r="B333" t="str">
-            <v>Laundry</v>
-          </cell>
-          <cell r="C333">
-            <v>16</v>
+            <v>41751</v>
+          </cell>
+          <cell r="C333" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="334">
           <cell r="A334">
-            <v>41735</v>
-          </cell>
-          <cell r="B334" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C334">
-            <v>58.7</v>
+            <v>41752</v>
+          </cell>
+          <cell r="C334" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="335">
           <cell r="A335">
-            <v>41735</v>
-          </cell>
-          <cell r="B335" t="str">
+            <v>41752</v>
+          </cell>
+          <cell r="C335" t="str">
             <v>Cleaning Supplies</v>
-          </cell>
-          <cell r="C335">
-            <v>10.49</v>
           </cell>
         </row>
         <row r="336">
           <cell r="A336">
-            <v>41735</v>
-          </cell>
-          <cell r="B336" t="str">
-            <v>Parsons</v>
-          </cell>
-          <cell r="C336">
-            <v>4.99</v>
+            <v>41752</v>
+          </cell>
+          <cell r="C336" t="str">
+            <v>Flowers</v>
           </cell>
         </row>
         <row r="337">
           <cell r="A337">
-            <v>41735</v>
-          </cell>
-          <cell r="B337" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C337">
-            <v>18.95</v>
+            <v>41752</v>
+          </cell>
+          <cell r="C337" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="338">
           <cell r="A338">
-            <v>41735</v>
-          </cell>
-          <cell r="B338" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C338">
-            <v>2</v>
+            <v>41753</v>
+          </cell>
+          <cell r="C338" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="339">
           <cell r="A339">
-            <v>41735</v>
-          </cell>
-          <cell r="B339" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C339">
-            <v>10.46</v>
+            <v>41753</v>
+          </cell>
+          <cell r="C339" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="340">
           <cell r="A340">
-            <v>41736</v>
-          </cell>
-          <cell r="B340" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C340">
-            <v>41.67</v>
+            <v>41754</v>
+          </cell>
+          <cell r="C340" t="str">
+            <v>Flowers</v>
           </cell>
         </row>
         <row r="341">
           <cell r="A341">
-            <v>41736</v>
-          </cell>
-          <cell r="B341" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C341">
-            <v>3.26</v>
+            <v>41754</v>
+          </cell>
+          <cell r="C341" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="342">
           <cell r="A342">
-            <v>41736</v>
-          </cell>
-          <cell r="B342" t="str">
+            <v>41754</v>
+          </cell>
+          <cell r="C342" t="str">
             <v>Public Transit</v>
-          </cell>
-          <cell r="C342">
-            <v>3</v>
           </cell>
         </row>
         <row r="343">
           <cell r="A343">
-            <v>41736</v>
-          </cell>
-          <cell r="B343" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C343">
-            <v>20.54</v>
+            <v>41755</v>
+          </cell>
+          <cell r="C343" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="344">
           <cell r="A344">
-            <v>41736</v>
-          </cell>
-          <cell r="B344" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C344">
-            <v>34.6</v>
+            <v>41755</v>
+          </cell>
+          <cell r="C344" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="345">
           <cell r="A345">
-            <v>41736</v>
-          </cell>
-          <cell r="B345" t="str">
-            <v>Body Care</v>
-          </cell>
-          <cell r="C345">
-            <v>10</v>
+            <v>41755</v>
+          </cell>
+          <cell r="C345" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="346">
           <cell r="A346">
-            <v>41736</v>
-          </cell>
-          <cell r="B346" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C346">
-            <v>22.88</v>
+            <v>41755</v>
+          </cell>
+          <cell r="C346" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="347">
           <cell r="A347">
-            <v>41736</v>
-          </cell>
-          <cell r="B347" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C347">
-            <v>38.67</v>
+            <v>41756</v>
+          </cell>
+          <cell r="C347" t="str">
+            <v>Apartment Insurance (State Farm)</v>
           </cell>
         </row>
         <row r="348">
           <cell r="A348">
-            <v>41736</v>
-          </cell>
-          <cell r="B348" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C348">
-            <v>3</v>
+            <v>41756</v>
+          </cell>
+          <cell r="C348" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="349">
           <cell r="A349">
-            <v>41736</v>
-          </cell>
-          <cell r="B349" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C349">
-            <v>3.26</v>
+            <v>41756</v>
+          </cell>
+          <cell r="C349" t="str">
+            <v>Gardening</v>
           </cell>
         </row>
         <row r="350">
           <cell r="A350">
-            <v>41737</v>
-          </cell>
-          <cell r="B350" t="str">
-            <v>Life Insurance (AARP)</v>
-          </cell>
-          <cell r="C350">
-            <v>26.38</v>
+            <v>41758</v>
+          </cell>
+          <cell r="C350" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="351">
           <cell r="A351">
-            <v>41737</v>
-          </cell>
-          <cell r="B351" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C351">
-            <v>13.56</v>
+            <v>41759</v>
+          </cell>
+          <cell r="C351" t="str">
+            <v>Cablevision</v>
           </cell>
         </row>
         <row r="352">
           <cell r="A352">
-            <v>41737</v>
-          </cell>
-          <cell r="B352" t="str">
-            <v>Wine</v>
-          </cell>
-          <cell r="C352">
-            <v>19.59</v>
+            <v>41759</v>
+          </cell>
+          <cell r="C352" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="353">
           <cell r="A353">
-            <v>41737</v>
-          </cell>
-          <cell r="B353" t="str">
-            <v>Medical</v>
-          </cell>
-          <cell r="C353">
-            <v>90</v>
+            <v>41759</v>
+          </cell>
+          <cell r="C353" t="str">
+            <v>Gardening</v>
           </cell>
         </row>
         <row r="354">
           <cell r="A354">
-            <v>41738</v>
-          </cell>
-          <cell r="B354" t="str">
+            <v>41759</v>
+          </cell>
+          <cell r="C354" t="str">
             <v>Grocery Store</v>
-          </cell>
-          <cell r="C354">
-            <v>51.98</v>
           </cell>
         </row>
         <row r="355">
           <cell r="A355">
-            <v>41738</v>
-          </cell>
-          <cell r="B355" t="str">
-            <v>Over the counter (OTC)</v>
-          </cell>
-          <cell r="C355">
-            <v>11.98</v>
+            <v>41759</v>
+          </cell>
+          <cell r="C355" t="str">
+            <v>Rent</v>
           </cell>
         </row>
         <row r="356">
           <cell r="A356">
-            <v>41738</v>
-          </cell>
-          <cell r="B356" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C356">
-            <v>20</v>
+            <v>41774</v>
+          </cell>
+          <cell r="C356" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="357">
           <cell r="A357">
-            <v>41738</v>
-          </cell>
-          <cell r="C357">
-            <v>53.93</v>
+            <v>41775</v>
+          </cell>
+          <cell r="C357" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="358">
           <cell r="A358">
-            <v>41738</v>
-          </cell>
-          <cell r="B358" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C358">
-            <v>10.69</v>
+            <v>41775</v>
+          </cell>
+          <cell r="C358" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="359">
           <cell r="A359">
-            <v>41739</v>
-          </cell>
-          <cell r="B359" t="str">
-            <v>Medical</v>
-          </cell>
-          <cell r="C359">
-            <v>110.57</v>
+            <v>41776</v>
+          </cell>
+          <cell r="C359" t="str">
+            <v>Over the counter (OTC)</v>
           </cell>
         </row>
         <row r="360">
           <cell r="A360">
-            <v>41739</v>
-          </cell>
-          <cell r="B360" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C360">
-            <v>3</v>
+            <v>41776</v>
+          </cell>
+          <cell r="C360" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="361">
           <cell r="A361">
-            <v>41739</v>
-          </cell>
-          <cell r="B361" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C361">
-            <v>12.72</v>
+            <v>41776</v>
+          </cell>
+          <cell r="C361" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="362">
           <cell r="A362">
-            <v>41739</v>
-          </cell>
-          <cell r="B362" t="str">
-            <v>Consultant</v>
-          </cell>
-          <cell r="C362">
-            <v>562.25</v>
+            <v>41776</v>
+          </cell>
+          <cell r="C362" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="363">
           <cell r="A363">
-            <v>41739</v>
-          </cell>
-          <cell r="B363" t="str">
-            <v>Taxi</v>
-          </cell>
-          <cell r="C363">
-            <v>15.35</v>
+            <v>41778</v>
+          </cell>
+          <cell r="C363" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="364">
           <cell r="A364">
-            <v>41739</v>
-          </cell>
-          <cell r="B364" t="str">
-            <v>Gift</v>
-          </cell>
-          <cell r="C364">
-            <v>14.15</v>
+            <v>41779</v>
+          </cell>
+          <cell r="C364" t="str">
+            <v>Flowers</v>
           </cell>
         </row>
         <row r="365">
           <cell r="A365">
-            <v>41739</v>
-          </cell>
-          <cell r="B365" t="str">
-            <v>Cell Phone</v>
-          </cell>
-          <cell r="C365">
-            <v>133.53</v>
+            <v>41779</v>
+          </cell>
+          <cell r="C365" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="366">
           <cell r="A366">
-            <v>41739</v>
-          </cell>
-          <cell r="B366" t="str">
-            <v>Accessories</v>
-          </cell>
-          <cell r="C366">
-            <v>380.67</v>
+            <v>41779</v>
+          </cell>
+          <cell r="C366" t="str">
+            <v>Household Furnishings</v>
           </cell>
         </row>
         <row r="367">
           <cell r="A367">
-            <v>41739</v>
-          </cell>
-          <cell r="B367" t="str">
-            <v>Accessories</v>
-          </cell>
-          <cell r="C367">
-            <v>43.4</v>
+            <v>41779</v>
+          </cell>
+          <cell r="C367" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="368">
           <cell r="A368">
-            <v>41739</v>
-          </cell>
-          <cell r="B368" t="str">
-            <v>Entertainment Subscription</v>
-          </cell>
-          <cell r="C368">
-            <v>1.61</v>
+            <v>41779</v>
+          </cell>
+          <cell r="C368" t="str">
+            <v>Taxi</v>
           </cell>
         </row>
         <row r="369">
           <cell r="A369">
-            <v>41739</v>
-          </cell>
-          <cell r="B369" t="str">
-            <v>Entertainment Subscription</v>
-          </cell>
-          <cell r="C369">
-            <v>4.99</v>
+            <v>41779</v>
+          </cell>
+          <cell r="C369" t="str">
+            <v>Gas Electric</v>
           </cell>
         </row>
         <row r="370">
           <cell r="A370">
-            <v>41739</v>
-          </cell>
-          <cell r="B370" t="str">
-            <v>Public Transit</v>
-          </cell>
-          <cell r="C370">
-            <v>35</v>
+            <v>41779</v>
+          </cell>
+          <cell r="C370" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="371">
           <cell r="A371">
-            <v>41740</v>
-          </cell>
-          <cell r="B371" t="str">
-            <v>Office Supplies</v>
-          </cell>
-          <cell r="C371">
-            <v>38.520000000000003</v>
+            <v>41780</v>
+          </cell>
+          <cell r="C371" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="372">
           <cell r="A372">
-            <v>41739</v>
-          </cell>
-          <cell r="B372" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C372">
-            <v>35</v>
+            <v>41780</v>
+          </cell>
+          <cell r="C372" t="str">
+            <v>Lucille Metheny</v>
           </cell>
         </row>
         <row r="373">
           <cell r="A373">
-            <v>41757</v>
-          </cell>
-          <cell r="B373" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C373">
-            <v>90</v>
+            <v>41780</v>
+          </cell>
+          <cell r="C373" t="str">
+            <v>Storage</v>
           </cell>
         </row>
         <row r="374">
           <cell r="A374">
-            <v>41756</v>
-          </cell>
-          <cell r="B374" t="str">
-            <v>Business Travel</v>
-          </cell>
-          <cell r="C374">
-            <v>100</v>
+            <v>41781</v>
+          </cell>
+          <cell r="C374" t="str">
+            <v>Gardening</v>
           </cell>
         </row>
         <row r="375">
           <cell r="A375">
-            <v>41758</v>
-          </cell>
-          <cell r="B375" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C375">
-            <v>300</v>
+            <v>41781</v>
+          </cell>
+          <cell r="C375" t="str">
+            <v>Laundry</v>
           </cell>
         </row>
         <row r="376">
           <cell r="A376">
-            <v>41758</v>
-          </cell>
-          <cell r="B376" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C376">
-            <v>600</v>
+            <v>41781</v>
+          </cell>
+          <cell r="C376" t="str">
+            <v>Bank Fee</v>
           </cell>
         </row>
         <row r="377">
           <cell r="A377">
-            <v>41756</v>
-          </cell>
-          <cell r="B377" t="str">
-            <v>Office Supplies</v>
-          </cell>
-          <cell r="C377">
-            <v>900</v>
+            <v>41782</v>
+          </cell>
+          <cell r="C377" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="378">
           <cell r="A378">
-            <v>41756</v>
-          </cell>
-          <cell r="B378" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C378">
-            <v>980</v>
+            <v>41782</v>
           </cell>
         </row>
         <row r="379">
           <cell r="A379">
-            <v>41758</v>
-          </cell>
-          <cell r="B379" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C379">
-            <v>999</v>
+            <v>41784</v>
+          </cell>
+          <cell r="C379" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="380">
           <cell r="A380">
-            <v>41758</v>
-          </cell>
-          <cell r="B380" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C380">
-            <v>2454</v>
+            <v>41784</v>
+          </cell>
+          <cell r="C380" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="381">
           <cell r="A381">
-            <v>41758</v>
-          </cell>
-          <cell r="B381" t="str">
-            <v>Office Supplies</v>
-          </cell>
-          <cell r="C381">
-            <v>333</v>
+            <v>41785</v>
+          </cell>
+          <cell r="C381" t="str">
+            <v>Donations</v>
           </cell>
         </row>
         <row r="382">
           <cell r="A382">
-            <v>41757</v>
-          </cell>
-          <cell r="B382" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C382">
-            <v>1200</v>
+            <v>41785</v>
+          </cell>
+          <cell r="C382" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="383">
           <cell r="A383">
-            <v>41761</v>
-          </cell>
-          <cell r="B383" t="str">
-            <v>food Out</v>
-          </cell>
-          <cell r="C383">
-            <v>100</v>
+            <v>41785</v>
+          </cell>
+          <cell r="C383" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="384">
           <cell r="A384">
-            <v>41760</v>
-          </cell>
-          <cell r="B384" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C384">
-            <v>300</v>
+            <v>41785</v>
+          </cell>
+          <cell r="C384" t="str">
+            <v>Public Transit</v>
           </cell>
         </row>
         <row r="385">
           <cell r="A385">
-            <v>41759</v>
-          </cell>
-          <cell r="B385" t="str">
+            <v>41785</v>
+          </cell>
+          <cell r="C385" t="str">
             <v>Public Transit</v>
-          </cell>
-          <cell r="C385">
-            <v>45</v>
           </cell>
         </row>
         <row r="386">
           <cell r="A386">
-            <v>41759</v>
-          </cell>
-          <cell r="B386" t="str">
-            <v>Grocery Store</v>
-          </cell>
-          <cell r="C386">
-            <v>90</v>
+            <v>41787</v>
+          </cell>
+          <cell r="C386" t="str">
+            <v>Body Care</v>
           </cell>
         </row>
         <row r="387">
           <cell r="A387">
-            <v>41760</v>
-          </cell>
-          <cell r="B387" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C387">
-            <v>95</v>
+            <v>41787</v>
+          </cell>
+          <cell r="C387" t="str">
+            <v>Cleaning Supplies</v>
           </cell>
         </row>
         <row r="388">
           <cell r="A388">
-            <v>41761</v>
-          </cell>
-          <cell r="B388" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C388">
-            <v>200</v>
+            <v>41787</v>
+          </cell>
+          <cell r="C388" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="389">
           <cell r="A389">
-            <v>41760</v>
-          </cell>
-          <cell r="B389" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C389">
-            <v>300</v>
+            <v>41787</v>
+          </cell>
+          <cell r="C389" t="str">
+            <v>Food Out</v>
           </cell>
         </row>
         <row r="390">
           <cell r="A390">
-            <v>41761</v>
-          </cell>
-          <cell r="B390" t="str">
-            <v>Food Out</v>
-          </cell>
-          <cell r="C390">
-            <v>120</v>
+            <v>41787</v>
+          </cell>
+          <cell r="C390" t="str">
+            <v>Grocery Store</v>
           </cell>
         </row>
         <row r="391">
           <cell r="A391">
-            <v>41759</v>
-          </cell>
-          <cell r="B391" t="str">
+            <v>41787</v>
+          </cell>
+          <cell r="C391" t="str">
+            <v>Cleaning Supplies</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="A392">
+            <v>41787</v>
+          </cell>
+          <cell r="C392" t="str">
+            <v>Over the counter (OTC)</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="A393">
+            <v>41787</v>
+          </cell>
+          <cell r="C393" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="A394">
+            <v>41787</v>
+          </cell>
+          <cell r="C394" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="A395">
+            <v>41788</v>
+          </cell>
+          <cell r="C395" t="str">
+            <v>Household Furnishings</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="A396">
+            <v>41788</v>
+          </cell>
+          <cell r="C396" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="A397">
+            <v>41788</v>
+          </cell>
+          <cell r="C397" t="str">
+            <v>Gardening</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="A398">
+            <v>41788</v>
+          </cell>
+          <cell r="C398" t="str">
+            <v>Laundry</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="A399">
+            <v>41789</v>
+          </cell>
+          <cell r="C399" t="str">
+            <v>Apartment Insurance (State Farm)</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="A400">
+            <v>41790</v>
+          </cell>
+          <cell r="C400" t="str">
             <v>Public Transit</v>
           </cell>
-          <cell r="C391">
-            <v>35</v>
+        </row>
+        <row r="401">
+          <cell r="A401">
+            <v>41790</v>
+          </cell>
+          <cell r="C401" t="str">
+            <v>Over the counter (OTC)</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="A402">
+            <v>41790</v>
+          </cell>
+          <cell r="C402" t="str">
+            <v>Parsons</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="A403">
+            <v>41790</v>
+          </cell>
+          <cell r="C403" t="str">
+            <v>Public Transit</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="A404">
+            <v>41790</v>
+          </cell>
+          <cell r="C404" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="A405">
+            <v>41790</v>
+          </cell>
+          <cell r="C405" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="A406">
+            <v>41791</v>
+          </cell>
+          <cell r="C406" t="str">
+            <v>PUblic Transit</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="A407">
+            <v>41791</v>
+          </cell>
+          <cell r="C407" t="str">
+            <v>Public Transit</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="A408">
+            <v>41791</v>
+          </cell>
+          <cell r="C408" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="A409">
+            <v>41791</v>
+          </cell>
+          <cell r="C409" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="A410">
+            <v>41792</v>
+          </cell>
+          <cell r="C410" t="str">
+            <v>Public Transit</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="A411">
+            <v>41792</v>
+          </cell>
+          <cell r="C411" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="A412">
+            <v>41792</v>
+          </cell>
+          <cell r="C412" t="str">
+            <v>Donations</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="A413">
+            <v>41792</v>
+          </cell>
+          <cell r="C413" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="A414">
+            <v>41793</v>
+          </cell>
+          <cell r="C414" t="str">
+            <v>Public Transit</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="A415">
+            <v>41793</v>
+          </cell>
+          <cell r="C415" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="A416">
+            <v>41793</v>
+          </cell>
+          <cell r="C416" t="str">
+            <v>Donations</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="A417">
+            <v>41794</v>
+          </cell>
+          <cell r="C417" t="str">
+            <v>Medical</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="A418">
+            <v>41794</v>
+          </cell>
+          <cell r="C418" t="str">
+            <v>PUblic Transit</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="A419">
+            <v>41794</v>
+          </cell>
+          <cell r="C419" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="A420">
+            <v>41795</v>
+          </cell>
+          <cell r="C420" t="str">
+            <v>Taxi</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="A421">
+            <v>41796</v>
+          </cell>
+          <cell r="C421" t="str">
+            <v>Household Furnishings</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="A422">
+            <v>41797</v>
+          </cell>
+          <cell r="C422" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="A423">
+            <v>41797</v>
+          </cell>
+          <cell r="C423" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="A424">
+            <v>41798</v>
+          </cell>
+          <cell r="C424" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="A425">
+            <v>41798</v>
+          </cell>
+          <cell r="C425" t="str">
+            <v>Cleaning Supplies</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="A426">
+            <v>41798</v>
+          </cell>
+          <cell r="C426" t="str">
+            <v>Flowers</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="A427">
+            <v>41798</v>
+          </cell>
+          <cell r="C427" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="A428">
+            <v>41798</v>
+          </cell>
+          <cell r="C428" t="str">
+            <v>Household Furnishings</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="A429">
+            <v>41799</v>
+          </cell>
+          <cell r="C429" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="A430">
+            <v>41799</v>
+          </cell>
+          <cell r="C430" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="A431">
+            <v>41799</v>
+          </cell>
+          <cell r="C431" t="str">
+            <v>Maintenance Repair</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="A432">
+            <v>41800</v>
+          </cell>
+          <cell r="C432" t="str">
+            <v>Bank Fee</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="A433">
+            <v>41800</v>
+          </cell>
+          <cell r="C433" t="str">
+            <v>Laundry</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="A434">
+            <v>41800</v>
+          </cell>
+          <cell r="C434" t="str">
+            <v>Cleaning Supplies</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="A435">
+            <v>41800</v>
+          </cell>
+          <cell r="C435" t="str">
+            <v>Household Furnishings</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="A436">
+            <v>41800</v>
+          </cell>
+          <cell r="C436" t="str">
+            <v>Housekeeper</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="A437">
+            <v>41800</v>
+          </cell>
+          <cell r="C437" t="str">
+            <v>Life Insurance (AARP)</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="A438">
+            <v>41800</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="A439">
+            <v>41800</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="A440">
+            <v>41801</v>
+          </cell>
+          <cell r="C440" t="str">
+            <v>Cleaning Supplies</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="A441">
+            <v>41801</v>
+          </cell>
+          <cell r="C441" t="str">
+            <v>Household Furnishings</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="A442">
+            <v>41801</v>
+          </cell>
+          <cell r="C442" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="A443">
+            <v>41801</v>
+          </cell>
+          <cell r="C443" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="A444">
+            <v>41801</v>
+          </cell>
+          <cell r="C444" t="str">
+            <v>Housekeeper</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="A445">
+            <v>41801</v>
+          </cell>
+          <cell r="C445" t="str">
+            <v>Household Furnishings</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="A446">
+            <v>41801</v>
+          </cell>
+          <cell r="C446" t="str">
+            <v>Chase Amazon v5475</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="A447">
+            <v>41801</v>
+          </cell>
+          <cell r="C447" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="A448">
+            <v>41801</v>
+          </cell>
+          <cell r="C448" t="str">
+            <v>Household Furnishings</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="A449">
+            <v>41802</v>
+          </cell>
+          <cell r="C449" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="A450">
+            <v>41802</v>
+          </cell>
+          <cell r="C450" t="str">
+            <v>Household Furnishings</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="A451">
+            <v>41802</v>
+          </cell>
+          <cell r="C451" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="A452">
+            <v>41802</v>
+          </cell>
+          <cell r="C452" t="str">
+            <v>Bank Fee</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="A453">
+            <v>41803</v>
+          </cell>
+          <cell r="C453" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="A454">
+            <v>41803</v>
+          </cell>
+          <cell r="C454" t="str">
+            <v>Bank Fee</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="A455">
+            <v>41803</v>
+          </cell>
+          <cell r="C455" t="str">
+            <v>Maintenance Repair</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="A456">
+            <v>41803</v>
+          </cell>
+          <cell r="C456" t="str">
+            <v>Household Furnishings</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="A457">
+            <v>41803</v>
+          </cell>
+          <cell r="C457" t="str">
+            <v>Taxi</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="A458">
+            <v>41804</v>
+          </cell>
+          <cell r="C458" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="A459">
+            <v>41804</v>
+          </cell>
+          <cell r="C459" t="str">
+            <v>Body Care</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="A460">
+            <v>41804</v>
+          </cell>
+          <cell r="C460" t="str">
+            <v>Body Care</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="A461">
+            <v>41804</v>
+          </cell>
+          <cell r="C461" t="str">
+            <v>Wine</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="A462">
+            <v>41804</v>
+          </cell>
+          <cell r="C462" t="str">
+            <v>Cleaning Supplies</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="A463">
+            <v>41804</v>
+          </cell>
+          <cell r="C463" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="A464">
+            <v>41804</v>
+          </cell>
+          <cell r="C464" t="str">
+            <v>Housekeeper</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="A465">
+            <v>41804</v>
+          </cell>
+          <cell r="C465" t="str">
+            <v>Bank Fee</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="A466">
+            <v>41804</v>
+          </cell>
+          <cell r="C466" t="str">
+            <v>Housekeeper</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="A467">
+            <v>41805</v>
+          </cell>
+          <cell r="C467" t="str">
+            <v>Body Care</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="A468">
+            <v>41805</v>
+          </cell>
+          <cell r="C468" t="str">
+            <v>Body Care</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="A469">
+            <v>41805</v>
+          </cell>
+          <cell r="C469" t="str">
+            <v>Maintenance Repair</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="A470">
+            <v>41805</v>
+          </cell>
+          <cell r="C470" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="A471">
+            <v>41807</v>
+          </cell>
+          <cell r="C471" t="str">
+            <v>Gardening</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="A472">
+            <v>41807</v>
+          </cell>
+          <cell r="C472" t="str">
+            <v>Maintenance Repair</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="A473">
+            <v>41807</v>
+          </cell>
+          <cell r="C473" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="A474">
+            <v>41807</v>
+          </cell>
+          <cell r="C474" t="str">
+            <v>Flowers</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="A475">
+            <v>41807</v>
+          </cell>
+          <cell r="C475" t="str">
+            <v>Bank Fee</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="A476">
+            <v>41808</v>
+          </cell>
+          <cell r="C476" t="str">
+            <v>Public Transit</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="A477">
+            <v>41808</v>
+          </cell>
+          <cell r="C477" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="A478">
+            <v>41808</v>
+          </cell>
+          <cell r="C478" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="A479">
+            <v>41808</v>
+          </cell>
+          <cell r="C479" t="str">
+            <v>Public Transit</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="A480">
+            <v>41809</v>
+          </cell>
+          <cell r="C480" t="str">
+            <v>Storage</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="A481">
+            <v>41810</v>
+          </cell>
+          <cell r="C481" t="str">
+            <v>Household Furnishings</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="A482">
+            <v>41811</v>
+          </cell>
+          <cell r="C482" t="str">
+            <v>Maintenance Repair</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="A483">
+            <v>41811</v>
+          </cell>
+          <cell r="C483" t="str">
+            <v>Maintenance Repair</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="A484">
+            <v>41811</v>
+          </cell>
+          <cell r="C484" t="str">
+            <v>Gift</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="A485">
+            <v>41811</v>
+          </cell>
+          <cell r="C485" t="str">
+            <v>Gift</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="A486">
+            <v>41811</v>
+          </cell>
+          <cell r="C486" t="str">
+            <v>Housekeeper</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="A487">
+            <v>41812</v>
+          </cell>
+          <cell r="C487" t="str">
+            <v>Public Transit</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="A488">
+            <v>41812</v>
+          </cell>
+          <cell r="C488" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="A489">
+            <v>41812</v>
+          </cell>
+          <cell r="C489" t="str">
+            <v>grocery Store</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="A490">
+            <v>41812</v>
+          </cell>
+          <cell r="C490" t="str">
+            <v>Taxi</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="A491">
+            <v>41812</v>
+          </cell>
+          <cell r="C491" t="str">
+            <v>Clothes</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="A492">
+            <v>41812</v>
+          </cell>
+          <cell r="C492" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="A493">
+            <v>41812</v>
+          </cell>
+          <cell r="C493" t="str">
+            <v>Body Care</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="A494">
+            <v>41812</v>
+          </cell>
+          <cell r="C494" t="str">
+            <v>Clothes</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="A495">
+            <v>41812</v>
+          </cell>
+          <cell r="C495" t="str">
+            <v>Public Transit</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="A496">
+            <v>41812</v>
+          </cell>
+          <cell r="C496" t="str">
+            <v>Public Transit</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="A497">
+            <v>41812</v>
+          </cell>
+          <cell r="C497" t="str">
+            <v>Wine</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="A498">
+            <v>41812</v>
+          </cell>
+          <cell r="C498" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="A499">
+            <v>41813</v>
+          </cell>
+          <cell r="C499" t="str">
+            <v>Maintenance Repair</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="A500">
+            <v>41814</v>
+          </cell>
+          <cell r="C500" t="str">
+            <v>Grocery Store</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="A501">
+            <v>41817</v>
+          </cell>
+          <cell r="C501" t="str">
+            <v>Apartment Insurance (State Farm)</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>CeMe</v>
-          </cell>
-          <cell r="G2" t="str">
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="8">
+          <cell r="I8" t="str">
+            <v>Expense Categories</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="I9" t="str">
+            <v>Apartment Insurance (State Farm)</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="I10" t="str">
+            <v>Cablevision</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="I11" t="str">
+            <v>Gas Electric</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="I12" t="str">
+            <v>Life Insurance (AARP)</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="I13" t="str">
             <v>Rent</v>
           </cell>
         </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>The New School</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>Cablevision</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Lucille Metheny</v>
-          </cell>
-          <cell r="G4" t="str">
-            <v>Gas Electric</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Social Security</v>
-          </cell>
-          <cell r="G5" t="str">
+        <row r="14">
+          <cell r="I14" t="str">
             <v>Storage</v>
           </cell>
         </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Bank Interest</v>
-          </cell>
-          <cell r="G6" t="str">
-            <v>Life Insurance (AARP)</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Refund</v>
-          </cell>
-          <cell r="G7" t="str">
-            <v>Apartment Insurance (State Farm)</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="G8" t="str">
+        <row r="15">
+          <cell r="I15" t="str">
+            <v>Back Blaze</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="I16" t="str">
             <v>Cleaning Supplies</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="G9" t="str">
+        <row r="17">
+          <cell r="I17" t="str">
+            <v>Flowers</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="I18" t="str">
+            <v>Gardening</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="I19" t="str">
+            <v>Household Furnishings</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="I20" t="str">
+            <v>Housekeeper</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="I21" t="str">
             <v>Laundry</v>
           </cell>
         </row>
-        <row r="10">
-          <cell r="G10" t="str">
+        <row r="22">
+          <cell r="I22" t="str">
+            <v>Lucille Metheny</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="I23" t="str">
             <v>Maintenance Repair</v>
           </cell>
         </row>
-        <row r="11">
-          <cell r="G11" t="str">
-            <v>Housekeeper</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="G12" t="str">
-            <v>Flowers</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="G13" t="str">
-            <v>Gardening</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="G14" t="str">
-            <v>Lucille Metheny</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="G15" t="str">
-            <v>Household Furnishings</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="G16" t="str">
-            <v>Bank Fee</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="G17" t="str">
-            <v>Chase Amazon v5475</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="G18" t="str">
-            <v>First Premier MC 3561</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="G19" t="str">
-            <v>JetBlue MC 3965</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="G20" t="str">
-            <v>First Premier MC 3141</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="G21" t="str">
-            <v>Credit One V7030</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="G22" t="str">
-            <v>Credit One MC4850</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23" t="str">
+        <row r="24">
+          <cell r="I24" t="str">
+            <v>Amazon v5475</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="I25" t="str">
+            <v>Home Depot - 3655</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="I26" t="str">
+            <v>Bank Fees</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="I27" t="str">
+            <v>Food Out</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="I28" t="str">
             <v>Grocery Store</v>
           </cell>
         </row>
-        <row r="24">
-          <cell r="G24" t="str">
-            <v>Food Out</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25" t="str">
+        <row r="29">
+          <cell r="I29" t="str">
             <v>Wine</v>
           </cell>
         </row>
-        <row r="26">
-          <cell r="G26" t="str">
+        <row r="30">
+          <cell r="I30" t="str">
+            <v>Car Rental</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="I31" t="str">
             <v>Public Transit</v>
           </cell>
         </row>
-        <row r="27">
-          <cell r="G27" t="str">
-            <v>Car Rental</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="G28" t="str">
+        <row r="32">
+          <cell r="I32" t="str">
             <v>Taxi</v>
           </cell>
         </row>
-        <row r="29">
-          <cell r="G29" t="str">
+        <row r="33">
+          <cell r="I33" t="str">
             <v>Travel</v>
           </cell>
         </row>
-        <row r="30">
-          <cell r="G30" t="str">
+        <row r="34">
+          <cell r="I34" t="str">
+            <v>Accessories</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="I35" t="str">
+            <v>Body Care</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="I36" t="str">
             <v>Clothes</v>
           </cell>
         </row>
-        <row r="31">
-          <cell r="G31" t="str">
-            <v>Body Care</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="G32" t="str">
-            <v>Accessories</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="G33" t="str">
+        <row r="37">
+          <cell r="I37" t="str">
             <v>Entertainment Subscription</v>
           </cell>
         </row>
-        <row r="34">
-          <cell r="G34" t="str">
+        <row r="38">
+          <cell r="I38" t="str">
             <v>Yoga/Gym</v>
           </cell>
         </row>
-        <row r="35">
-          <cell r="G35" t="str">
+        <row r="39">
+          <cell r="I39" t="str">
             <v>Fred Henry</v>
           </cell>
         </row>
-        <row r="36">
-          <cell r="G36" t="str">
+        <row r="40">
+          <cell r="I40" t="str">
             <v>Robert Rich</v>
           </cell>
         </row>
-        <row r="37">
-          <cell r="G37" t="str">
-            <v>Office Supplies</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="G38" t="str">
-            <v>Cell Phone</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="G39" t="str">
-            <v>Consultant</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="G40" t="str">
-            <v>Google Cloud Service</v>
-          </cell>
-        </row>
         <row r="41">
-          <cell r="G41" t="str">
-            <v>Go Daddy</v>
+          <cell r="I41" t="str">
+            <v>Donations</v>
           </cell>
         </row>
         <row r="42">
-          <cell r="G42" t="str">
-            <v>Computer</v>
+          <cell r="I42" t="str">
+            <v>Gift</v>
           </cell>
         </row>
         <row r="43">
-          <cell r="G43" t="str">
-            <v>Networking</v>
+          <cell r="I43" t="str">
+            <v>Long Term Health Care</v>
           </cell>
         </row>
         <row r="44">
-          <cell r="G44" t="str">
+          <cell r="I44" t="str">
+            <v>Medical</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="I45" t="str">
+            <v>Over the counter (OTC)</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="I46" t="str">
             <v>Parsons</v>
           </cell>
         </row>
-        <row r="45">
-          <cell r="G45" t="str">
-            <v>NY Times</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="G46" t="str">
-            <v>Books and Subscriptions</v>
-          </cell>
-        </row>
         <row r="47">
-          <cell r="G47" t="str">
-            <v>Business Travel</v>
+          <cell r="I47" t="str">
+            <v>United Health Insurance</v>
           </cell>
         </row>
         <row r="48">
-          <cell r="G48" t="str">
-            <v>Medical</v>
+          <cell r="I48" t="str">
+            <v>Federal Taxes</v>
           </cell>
         </row>
         <row r="49">
-          <cell r="G49" t="str">
-            <v>Over the counter (OTC)</v>
+          <cell r="I49" t="str">
+            <v>New Jersey State Tax</v>
           </cell>
         </row>
         <row r="50">
-          <cell r="G50" t="str">
-            <v>United Health Insurance</v>
+          <cell r="I50" t="str">
+            <v>New York State Tax</v>
           </cell>
         </row>
         <row r="51">
-          <cell r="G51" t="str">
-            <v>Long Term Health Care</v>
+          <cell r="I51" t="str">
+            <v>Movies</v>
           </cell>
         </row>
         <row r="52">
-          <cell r="G52" t="str">
-            <v>Donations</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="G53" t="str">
-            <v>Gift</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="G54" t="str">
-            <v>New York State Tax</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="G55" t="str">
-            <v>New Jersey State Tax</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="G56" t="str">
-            <v>Federal Taxes</v>
+          <cell r="I52" t="str">
+            <v>Personal Subscriptions</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6226,15 +5937,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2C0C1C-0C1B-0F47-B63F-0FE5E619F129}">
   <sheetPr codeName="Sheet6" filterMode="1"/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="15" customWidth="1"/>
+    <col min="1" max="1" width="18" style="18" customWidth="1"/>
     <col min="2" max="2" width="16" style="15" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
@@ -6242,7 +5953,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -6269,7 +5980,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ref="D2:D30" si="0">(C2-B2)*24</f>
+        <f t="shared" ref="D2:D44" si="0">(C2-B2)*24</f>
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -6546,8 +6257,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="18" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
         <v>41737</v>
       </c>
       <c r="B18" s="3">
@@ -6564,8 +6275,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+    <row r="19" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
         <v>41738</v>
       </c>
       <c r="B19" s="3">
@@ -6582,8 +6293,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+    <row r="20" spans="1:5" ht="102" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
         <v>43206</v>
       </c>
       <c r="B20" s="3">
@@ -6600,8 +6311,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
         <v>43207</v>
       </c>
       <c r="B21" s="3">
@@ -6618,8 +6329,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
         <v>43207</v>
       </c>
       <c r="B22" s="3">
@@ -6636,8 +6347,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
         <v>43208</v>
       </c>
       <c r="B23" s="3">
@@ -6654,8 +6365,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="24" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
         <v>43215</v>
       </c>
       <c r="B24" s="3">
@@ -6672,8 +6383,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+    <row r="25" spans="1:5" ht="85" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
         <v>43216</v>
       </c>
       <c r="B25" s="3">
@@ -6690,8 +6401,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="26" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
         <v>43220</v>
       </c>
       <c r="B26" s="3">
@@ -6708,8 +6419,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+    <row r="27" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
         <v>43223</v>
       </c>
       <c r="B27" s="3">
@@ -6726,8 +6437,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
+    <row r="28" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
         <v>43223</v>
       </c>
       <c r="B28" s="3">
@@ -6744,8 +6455,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
+    <row r="29" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
         <v>43223</v>
       </c>
       <c r="B29" s="3">
@@ -6762,8 +6473,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+    <row r="30" spans="1:5" ht="136" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
         <v>43227</v>
       </c>
       <c r="B30" s="3">
@@ -6780,11 +6491,265 @@
         <v>28</v>
       </c>
     </row>
+    <row r="31" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
+        <v>43255</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.316666666666666</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="20">
+        <v>43256</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.45624999999999999</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0166666666666657</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18">
+        <v>43257</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.44305555555555554</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666616</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18">
+        <v>43257</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.62083333333333335</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="68" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18">
+        <v>43258</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.66875000000000007</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>4.4333333333333353</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
+        <v>43264</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>3.5000000000000009</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
+        <v>43265</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000009</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A38" s="18">
+        <v>43270</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7500000000000013</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
+        <v>43271</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999996</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
+        <v>43277</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
+        <v>43280</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
+        <v>43284</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="18">
+        <v>43284</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7833333333333341</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
+        <v>43286</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.80486111111111114</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>0.81666666666666643</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E18" xr:uid="{83D46876-B0DE-D146-A3B3-758CD4F9A470}">
+  <autoFilter ref="A1:E38" xr:uid="{83D46876-B0DE-D146-A3B3-758CD4F9A470}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2018" month="4" day="9" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="6" day="13" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="6" day="14" dateTimeGrouping="day"/>
+        <dateGroupItem year="2018" month="6" day="19" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E2">
@@ -6799,10 +6764,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93AF818-D70E-9E47-9D21-C62781B34393}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6883,7 +6848,7 @@
       </c>
       <c r="F8" s="8">
         <f>SUM(B:B)</f>
-        <v>18.45</v>
+        <v>37.950000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -7071,6 +7036,46 @@
       </c>
       <c r="B31" s="6">
         <v>-7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="7">
+        <v>43258</v>
+      </c>
+      <c r="B32" s="6">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="7">
+        <v>43271</v>
+      </c>
+      <c r="B33" s="6">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="7">
+        <v>43277</v>
+      </c>
+      <c r="B34" s="6">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="7">
+        <v>43277</v>
+      </c>
+      <c r="B35" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="7">
+        <v>43284</v>
+      </c>
+      <c r="B36" s="6">
+        <v>-3.5</v>
       </c>
     </row>
   </sheetData>
